--- a/Akan/Ananse2/Models.xlsx
+++ b/Akan/Ananse2/Models.xlsx
@@ -11,13 +11,17 @@
     <sheet name="gpt-4" sheetId="2" r:id="rId2"/>
     <sheet name="gpt-3.5-turbo" sheetId="3" r:id="rId3"/>
     <sheet name="Metadata" sheetId="4" r:id="rId4"/>
+    <sheet name="gpt-4o" sheetId="5" r:id="rId5"/>
+    <sheet name="gpt-4o-mini" sheetId="6" r:id="rId6"/>
+    <sheet name="o3-mini" sheetId="7" r:id="rId7"/>
+    <sheet name="o1-mini" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="439">
   <si>
     <t>AKAN</t>
   </si>
@@ -1121,6 +1125,3586 @@
   </si>
   <si>
     <t>Detailed translation with expanded footnotes for cultural context and translation clarification.</t>
+  </si>
+  <si>
+    <t>gpt-4o</t>
+  </si>
+  <si>
+    <t>Translation: We don't say it, we don't say it.
+Footnote:
+1. **Literal Translation Mapping**: 
+   - "Ye'" translates to "We"
+   - "nse" translates to "say"
+   - "se" translates to "it"
+   - "o" is an emphatic particle often used for emphasis or to express a sense of finality.
+2. **Cultural Context**: 
+   - In Akan culture, certain topics or words are considered taboo or inappropriate to discuss openly. This phrase is often used to indicate that something is not to be spoken about, either because it is culturally sensitive, considered disrespectful, or simply not appropriate for the context. The repetition of "nse se" emphasizes the importance of not speaking about the subject.
+3. **Translation Clarification**: 
+   - The phrase "We don't say it, we don't say it" is a direct translation, but it carries a deeper cultural meaning. It implies a strong social norm or rule against discussing a particular topic. The use of "o" at the end adds emphasis, similar to saying "We really don't say it" or "It's definitely not to be spoken of."</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said Oko was a fool, but he himself was the fool.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "ANANSE" - Ananse
+   - "SEE" - said
+   - "O'KO" - Oko
+   - "PE" - is
+   - "'KWASEA" - fool
+   - "NANSO" - but
+   - "ONO ARA" - he himself
+   - "NA" - was
+   - "OYEE" - was
+   - "'KWASEA" - fool
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who is both a trickster and a wise figure. Stories about Ananse are used to convey moral lessons and cultural values. In this context, Ananse's statement reflects a common theme in folklore where characters fail to see their own flaws while criticizing others. The name "Oko" is used here as a placeholder for another character, which could be anyone in the story.
+3. **Translation Clarification**:
+   - The phrase "Ananse said Oko was a fool, but he himself was the fool" captures the irony and self-reflection often found in Ananse stories. The translation maintains the original meaning, emphasizing the idea of hypocrisy or lack of self-awareness. The use of "fool" in both instances highlights the directness of the Akan language in conveying the moral of the story.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse was there, and he said he wanted the fool to carry the load.
+Footnote:
+1. Literal Translation Mapping:
+   - "ANANSE na ote ho" - "Ananse was there"
+   - "na osee" - "and he said"
+   - "o'pe 'kwasea ne no asi nsoa" - "he wants the fool to carry the load"
+2. Cultural Context:
+   - Ananse, often referred to as Kweku Ananse, is a well-known character in Akan folklore. He is a spider and a trickster figure, often depicted as clever and cunning. Stories about Ananse are used to teach moral lessons and are a significant part of Akan oral tradition.
+   - The term "kwasea" translates to "fool" or "foolish person" in Akan. In the context of Ananse stories, it often refers to someone who is easily deceived or lacks wisdom.
+   - "Asi nsoa" means "to carry the load." In many Ananse stories, tasks or burdens are often symbolic of challenges or responsibilities.
+3. Translation Clarification:
+   - The phrase "o'pe 'kwasea ne no asi nsoa" implies that Ananse is looking for someone gullible or naive to take on a burden or responsibility, which is a common theme in Ananse stories where he manipulates others to his advantage.
+   - The translation captures the essence of Ananse's character as someone who exploits others for his benefit, reflecting the moral lessons often embedded in these tales.</t>
+  </si>
+  <si>
+    <t>Translation: He searched and searched, but he didn't find any.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Okyin" - "He searched"
+   - "kyin, kyin, kyin" - "search, search, search" (repetition for emphasis)
+   - "wannya" - "he didn't find"
+   - "bi" - "any"
+2. **Cultural Context**:
+   In Akan culture, repetition is often used to emphasize the intensity or thoroughness of an action. The phrase "kyin, kyin, kyin" suggests a persistent and exhaustive search. This reflects a common narrative style in Akan storytelling, where actions are often repeated to convey effort or determination.
+3. **Translation Clarification**:
+   The translation captures the essence of the original text by using "searched and searched" to convey the repeated action. The phrase "he didn't find any" succinctly translates "wannya bi," indicating the unsuccessful outcome of the search. The repetition in the Akan text is crucial for conveying the depth of the search effort, which is maintained in the English translation through the use of repeated verbs.</t>
+  </si>
+  <si>
+    <t>Translation: And he/she met Osansa.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" in English.
+   - "oko" translates to "he/she went" or "he/she goes."
+   - "hyiaa" translates to "met."
+   - "Osansa" is a proper noun, likely a name, and remains "Osansa" in English.
+2. Cultural Context:
+   - In Akan storytelling and conversation, the use of "Na" at the beginning of a sentence often indicates a continuation of a narrative or a sequence of events. It is a common way to link actions or events in a story.
+   - "Osansa" could be a name of a person, a character in a story, or even a symbolic figure, depending on the context. Names in Akan culture often carry significant meanings or are associated with particular traits or stories.
+3. Translation Clarification:
+   - The sentence is straightforward, but the context in which "Osansa" is used could change the interpretation. If "Osansa" is a known character or figure, it might carry additional connotations or expectations for the reader familiar with the story or cultural reference.
+   - The pronoun "he/she" is used because Akan does not differentiate gender in pronouns, so the subject could be either male or female.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Let us go until we reach the boundary."
+Footnote:
+1. Literal Translation Mapping:
+   - "Osee" translates to "He said."
+   - "Ma yen" translates to "Let us."
+   - "ko" translates to "go."
+   - "si" translates to "until we reach."
+   - "nsoa" translates to "boundary."
+2. Cultural Context:
+   - In Akan culture, the concept of boundaries ("nsoa") is significant, often representing not just physical limits but also social or moral boundaries. The phrase "Ma yen ko si nsoa" can imply a journey or an endeavor that continues until a natural or agreed-upon stopping point is reached. It can also metaphorically suggest pushing limits or exploring new territories, whether in a physical, social, or intellectual sense.
+3. Translation Clarification:
+   - The phrase "Let us go until we reach the boundary" captures the essence of the original Akan text, which suggests a collective action or journey with a specific endpoint in mind. The use of "boundary" in this context is both literal and metaphorical, indicating a destination or a limit to be reached.</t>
+  </si>
+  <si>
+    <t>Translation: The spider said, "I have meat, I will eat."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Osansa" translates to "The spider."
+   - "see" translates to "said."
+   - "Me wo" translates to "I have."
+   - "nam" translates to "meat."
+   - "me di" translates to "I will eat."
+2. **Cultural Context**:
+   - In Akan folklore, the spider, often referred to as "Ananse," is a well-known trickster character. Ananse stories are popular in West African cultures and are used to teach moral lessons or explain natural phenomena. The phrase "Me wo nam me di" reflects a common theme in these stories where Ananse, or the spider, is often depicted as being clever and resourceful, sometimes hoarding resources for himself.
+3. **Translation Clarification**:
+   - The phrase "Me wo nam me di" is a straightforward statement of possession and intent. In the context of an Ananse story, it might imply that the spider has acquired something valuable (meat) and intends to enjoy it, possibly at the expense of others. The simplicity of the statement belies the cunning nature of Ananse, who often finds himself in situations where he must outwit others to achieve his goals.</t>
+  </si>
+  <si>
+    <t>English Translation: Later, he met Anene, and he said, "Let's go and fetch water."
+Footnote:
+1. Literal Translation Mapping:
+   - "Na akyiri yi" translates to "And later"
+   - "na oko hyiaa Anene" translates to "he went and met Anene"
+   - "na osee" translates to "and he said"
+   - "Ma yenko si nsoa" translates to "Let us go fetch water"
+2. Cultural Context:
+   - In many Akan communities, fetching water is a common daily activity, often done in groups. It is not just a chore but also a social activity where people, especially women and children, gather at communal water sources like rivers or wells. This activity provides an opportunity for social interaction and community bonding.
+   - The name "Anene" is a typical Akan name, which might be used to refer to a friend or acquaintance in this context.
+3. Translation Clarification:
+   - The phrase "Ma yenko si nsoa" is an invitation to perform a task together, emphasizing cooperation and community spirit. The use of "ma" (let us) indicates a polite suggestion or request, rather than a command. The word "nsoa" refers to water, and "si" in this context means to fetch or draw, which is a common activity in areas where water is not piped directly into homes.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "I have heard."
+Footnote:
+1. Literal Translation Mapping:
+   - "Anene" = "Anene" (a name, typically used in Akan culture)
+   - "see" = "said"
+   - "M'ate" = "I have heard"
+2. Cultural Context:
+   - In Akan culture, communication and oral tradition are highly valued. The phrase "M'ate" is often used to acknowledge that one has heard and understood what has been communicated. It is a respectful way to show that you are paying attention and are engaged in the conversation. This phrase can be used in various contexts, from casual conversations to formal discussions.
+3. Translation Clarification:
+   - The phrase "M'ate" is a concise way to express understanding or acknowledgment in Akan. In English, it is translated as "I have heard," which conveys the same sense of acknowledgment. However, in English, the phrase might not always carry the same weight of attentiveness and respect as it does in Akan, where listening is an important part of social interaction.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+And this is what Osansa told Anene, "The task you are going to bury with Ananse, go, for Ananse says he wants a fool, and he has agreed with him to complete the task and spend all the money."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na yei na Osansa ka kyeree Anene se," - "And this is what Osansa told Anene,"
+   - "Nsoa a wo'ko ne Ananse asie no," - "The task you are going to bury with Ananse,"
+   - "nko," - "go,"
+   - "na Ananse se o'pe 'kwasea," - "for Ananse says he wants a fool,"
+   - "na one no asi nsoa no na wadi sika no nnyina." - "and he has agreed with him to complete the task and spend all the money."
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who uses his wit to outsmart others. The mention of Ananse in the text suggests a story involving trickery or cleverness.
+   - The phrase "o'pe 'kwasea" (he wants a fool) indicates a situation where someone is being set up to be deceived or taken advantage of, which is a common theme in Ananse stories.
+   - The concept of "burying a task" implies undertaking a difficult or secretive mission, often with the expectation of a reward.
+3. **Translation Clarification:**
+   - The phrase "Nsoa a wo'ko ne Ananse asie no" is metaphorical, suggesting a task or mission that is being undertaken with Ananse. It does not literally mean burying something with Ananse.
+   - "Ananse se o'pe 'kwasea" implies that Ananse is looking for someone gullible to exploit, which aligns with his character in folklore.
+   - The phrase "na one no asi nsoa no na wadi sika no nnyina" suggests a plan or agreement to complete a task and then enjoy the rewards, highlighting the cunning nature of Ananse's character.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Stop where you are, and I will take all the money."
+Footnote:
+1. Literal Translation Mapping:
+   - "Anene see" translates to "Anene said."
+   - "Wo die gyae" translates to "You stop."
+   - "na me na megye" translates to "and I will take."
+   - "sika no nnyina" translates to "the money all."
+2. Cultural Context:
+   - In Akan culture, direct speech is often used to convey authority or decisiveness. The phrase "Wo die gyae" is a command, indicating that Anene is asserting control over the situation. The use of "me na megye" emphasizes personal responsibility or action, which is a common way to express one's intention to take charge or resolve a matter.
+3. Translation Clarification:
+   - The phrase "Wo die gyae" is an imperative, instructing someone to stop what they are doing. In English, this is softened to "Stop where you are" to convey the same sense of urgency and command.
+   - "na me na megye sika no nnyina" is translated as "and I will take all the money," which captures the intent of Anene to assume full responsibility for the money. The word "nnyina" means "all," emphasizing that Anene intends to take the entire amount.</t>
+  </si>
+  <si>
+    <t>Translation: Anene and Ananse went to the forest to cut firewood.
+Footnote:
+1. Literal Translation Mapping:
+   - "Anene ne Ananse" translates to "Anene and Ananse."
+   - "sjim' koo wuram'" translates to "went to the forest."
+   - "ko twitwaa papa" translates to "to cut firewood."
+2. Cultural Context:
+   - Ananse is a well-known character in Akan folklore, often depicted as a clever spider or a man with spider-like qualities. He is a central figure in many stories that convey moral lessons or cultural values.
+   - The act of going to the forest to cut firewood is a common activity in many rural communities in Ghana. Firewood is a primary source of fuel for cooking and heating, especially in areas where modern utilities are not readily available.
+3. Translation Clarification:
+   - The phrase "sjim' koo wuram'" uses the word "wuram'," which means "forest." In many Akan-speaking regions, the forest is not just a physical space but also a place of mystery and adventure, often featured in folklore and stories.
+   - "Twitwaa papa" refers to the act of cutting firewood, which is a routine task in many households. The word "papa" in this context means "firewood," but it can also mean "good" or "father" in different contexts, showing the importance of context in translation.</t>
+  </si>
+  <si>
+    <t>Translation: The elder said to Ananse, "Give me the knife so I can cut, and you take the handle."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Anene" = "The elder"
+   - "ka kyeree" = "said to"
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "se" = "that"
+   - "Fa" = "Take" or "Give"
+   - "sekan" = "knife"
+   - "ma me" = "give me"
+   - "na me ntwitwa" = "so I can cut"
+   - "na wo so fa no bere" = "and you take the handle"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to navigate various situations. The stories of Ananse are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The phrase "give me the knife so I can cut, and you take the handle" is metaphorical. In Akan culture, it implies a division of labor or responsibility, where one person takes on the more challenging or risky task (cutting with the knife), while the other takes on a safer or less demanding role (holding the handle).
+3. **Translation Clarification**:
+   - The translation captures the essence of the original text, where an elder is instructing Ananse to share in a task. The elder takes on the active role of cutting, while Ananse is given the supportive role of holding the handle. This reflects a common theme in Akan proverbs and stories, where wisdom and roles are shared among community members.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "You think I'm a fool? Let me cut it, and you take the time."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse see" - "Ananse said"
+   - "Me na wo bu me 'kwasea?" - "You think I'm a fool?"
+   - "ma me ntwitwa" - "let me cut"
+   - "na wo so fa no bere" - "and you take the time"
+2. **Cultural Context**:
+   - Ananse, or Kweku Ananse, is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to outsmart others. He is a central figure in many Akan stories and is symbolic of wisdom and trickery.
+   - The phrase "Me na wo bu me 'kwasea?" reflects a common theme in Ananse stories where he questions others' perceptions of him, often leading to a clever twist or lesson.
+   - The act of "cutting" and "taking time" can be metaphorical, suggesting a division of labor or roles, often seen in Ananse stories where tasks are divided to reveal cleverness or deceit.
+3. **Translation Clarification**:
+   - The phrase "You think I'm a fool?" is a rhetorical question used by Ananse to challenge the other character's underestimation of him.
+   - "Let me cut, and you take the time" implies a division of tasks where Ananse is suggesting a role for himself and the other person, often leading to a situation where Ananse's cleverness is highlighted.
+   - The translation captures the essence of Ananse's character as someone who is not easily fooled and often turns situations to his advantage.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse is weaving while Anene sits nearby and observes.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" refers to the famous spider character in Akan folklore.
+   - "e'twitwa" literally means "is weaving."
+   - "na" is a conjunction meaning "and" or "while."
+   - "Anene" is another character, possibly a person or another entity.
+   - "te ho" literally translates to "sits there."
+   - "na" again serves as a conjunction.
+   - "o'pene" means "observes" or "watches."
+2. Cultural Context:
+   - Ananse is a central figure in Akan folklore, often depicted as a clever spider who uses his wit to overcome challenges. Stories about Ananse are used to teach moral lessons and are a significant part of oral storytelling traditions in Akan culture.
+   - Weaving is a common activity associated with Ananse, symbolizing creativity and cunning. In many stories, Ananse's weaving is metaphorical, representing his ability to craft plans and schemes.
+   - The presence of another character, Anene, who is observing, suggests a dynamic where Ananse's actions are being watched, possibly for learning or judgment.
+3. Translation Clarification:
+   - The translation captures the essence of the original text by maintaining the actions and roles of the characters. "Weaving" is used in a literal sense but can also imply the crafting of plans, consistent with Ananse's character. "Observes" is chosen to convey the act of watching with interest or scrutiny, which fits the context of storytelling where characters often learn from or are affected by Ananse's actions.</t>
+  </si>
+  <si>
+    <t>Translation: "The cutting is finished, and now we are sharing."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Otwitwa" - "cutting"
+   - "wieye" - "is finished"
+   - "na" - "and"
+   - "na" - "now"
+   - "ye'kyekyereye" - "we are sharing"
+2. **Cultural Context**:
+   - In Akan culture, communal activities such as farming, cooking, or any form of collective work often end with a sharing process. This could involve sharing food, resources, or the results of the work. The phrase reflects the communal spirit and the importance of sharing and distribution in Akan society. It is common for people to come together to complete a task and then distribute the results among themselves, ensuring everyone benefits from the collective effort.
+3. **Translation Clarification**:
+   - The phrase "Otwitwa wieye, na na ye'kyekyereye" is an expression that signifies the completion of a task and the subsequent distribution of its results. The repetition of "na" serves to emphasize the transition from one phase (completion) to another (sharing). The translation captures the essence of the original text by conveying both the completion of an activity and the communal sharing that follows.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Ananse, let me carry the load, and you take the time."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Anene see" translates to "Anene said."
+   - "Ananse ma me mfa nsoa" translates to "Ananse, let me carry the load."
+   - "na wo so fa no bere" translates to "and you take the time."
+2. **Cultural Context**:
+   - In Akan folklore, Ananse (or Anansi) is a well-known trickster spider character who often appears in stories to teach moral lessons or entertain. The phrase "let me carry the load, and you take the time" is a metaphorical expression that reflects a division of labor or responsibility. In many African cultures, sharing burdens and responsibilities is a common theme, emphasizing community and cooperation. The phrase suggests a partnership where one person takes on a physical task while the other manages or oversees the timing or planning aspect.
+3. **Translation Clarification**:
+   - The phrase "let me carry the load, and you take the time" is not meant to be taken literally. It implies a division of tasks where one person handles the physical aspect (carrying the load) while the other manages the timing or strategic aspect (taking the time). This expression highlights the importance of teamwork and the complementary roles individuals can play in achieving a common goal.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Look at you, and you dare call me a 'fool'?"
+Footnote:
+1. Literal Translation Mapping:
+   - "So' ho" translates to "Look at you" or "See yourself."
+   - "na me na wo bu me 'kwasea?'" translates to "and you dare call me a 'fool?'"
+2. Cultural Context:
+   - Ananse is a well-known character in Akan folklore, often depicted as a clever spider who uses his wit to outsmart others. The stories of Ananse are used to teach moral lessons and reflect on human behavior.
+   - The term 'kwasea' is a strong insult in Akan, meaning 'fool' or 'idiot.' It is considered disrespectful and is used to express disdain or anger towards someone's actions or words.
+3. Translation Clarification:
+   - The phrase "So' ho" is an expression used to draw attention to someone's behavior or appearance, often in a critical or mocking tone.
+   - The sentence structure in Akan often places emphasis on the subject and the action, which is reflected in the translation as "Look at you, and you dare call me a 'fool'?" This captures the accusatory and incredulous tone of Ananse's statement.</t>
+  </si>
+  <si>
+    <t>Translation: He/she/they continued to do it.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "and" or "then" in English, often used to indicate a continuation or sequence of actions.
+   - "ofa" translates to "he/she/they take" or "he/she/they continue."
+   - "soaye" is a compound word where "so" means "continue" and "aye" means "do it."
+2. Cultural Context:
+   - In Akan storytelling and conversation, the word "Na" is frequently used to connect events or actions, indicating a progression in the narrative. It is a common linguistic tool to maintain the flow of a story or explanation.
+   - The concept of "continuing to do something" is often emphasized in Akan culture, where perseverance and persistence are valued traits. The phrase might be used to describe someone who is diligent or persistent in their efforts.
+3. Translation Clarification:
+   - The phrase "Na ofa soaye" implies that the subject (he/she/they) is persisting in an action that was previously mentioned or understood from context. The translation "He/she/they continued to do it" captures the essence of the original Akan phrase, emphasizing the ongoing nature of the action.</t>
+  </si>
+  <si>
+    <t>Translation: The elder was late and did not agree.
+Footnote:
+1. Literal Translation Mapping:
+   - "Anene" translates to "The elder."
+   - "dii" translates to "ate" or "was."
+   - "akyire" translates to "late" or "behind."
+   - "na" translates to "and."
+   - "o'pene" translates to "he/she did not agree."
+2. Cultural Context:
+   - In Akan culture, elders are highly respected and their opinions or decisions are often given significant weight in community matters. The phrase "Anene dii akyire" suggests that the elder arrived late or was delayed in some way, which can imply a disruption in the expected order or proceedings. The elder's disagreement ("o'pene") could indicate a refusal to accept a decision or proposal, which might carry considerable influence in the context of a meeting or discussion.
+3. Translation Clarification:
+   - The phrase "dii akyire" is an idiomatic expression in Akan that can mean being late or delayed. It is not about literally eating something late. The elder's disagreement ("o'pene") is straightforward but culturally significant, as it suggests a potential conflict or need for further discussion, given the elder's respected position.</t>
+  </si>
+  <si>
+    <t>English Translation: When we arrived home, Anene said, "Give me some palm wine, for you have taken your time."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ye'baa 'fie" - "We came home"
+   - "Anene see" - "Anene said"
+   - "Ma me mmeyo nsoa" - "Give me palm wine"
+   - "na w'afa no bere" - "for you have taken the time"
+2. **Cultural Context**:
+   - **Palm Wine**: In many West African cultures, including among the Akan people, palm wine is a traditional alcoholic beverage made from the sap of palm trees. It is often consumed during social gatherings and ceremonies. Offering palm wine can be a gesture of hospitality and friendship.
+   - **Time and Patience**: The phrase "w'afa no bere" (you have taken your time) can imply that someone has been patient or that they have waited for a significant period. In Akan culture, patience is often valued, and acknowledging someone's patience can be a form of respect or gratitude.
+3. **Translation Clarification**:
+   - The phrase "Give me some palm wine, for you have taken your time" captures the essence of the original Akan text. It suggests that Anene is requesting palm wine, possibly as a reward or acknowledgment of the time taken, which could imply patience or a long wait. The translation maintains the cultural nuance of offering and receiving palm wine as a social and hospitable act.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "One day, give it to me, and you also take it in turn."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "see" - said
+   - "Dabi da" - one day
+   - "ma me nyo" - give it to me
+   - "na wo so fa no bere" - and you also take it in turn
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to outsmart others. Stories about Ananse are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The phrase "Dabi da ma me nyo, na wo so fa no bere" reflects a common theme in Ananse stories where there is an exchange or sharing of resources or opportunities, often with an underlying lesson about fairness or reciprocity.
+3. **Translation Clarification**:
+   - The phrase "Dabi da ma me nyo, na wo so fa no bere" can be understood as a call for taking turns or sharing. In the context of Ananse stories, it might imply a lesson about the importance of sharing and fairness, suggesting that everyone should have their turn or share in a communal resource or opportunity.</t>
+  </si>
+  <si>
+    <t>Translation: Anene went to the funeral and danced.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "and" or "then."
+   - "Anene" is a proper noun, a name.
+   - "ko" translates to "went."
+   - "daa" translates to "funeral."
+   - "ayeya" translates to "funeral" or "funeral rites."
+   - "na" is a conjunction that can mean "and" or "then."
+   - "o'pene" translates to "danced."
+2. Cultural Context:
+   - Funerals in Akan culture are significant social events that often involve extended family and community members. They are not only a time for mourning but also for celebrating the life of the deceased. Dancing is a common part of the funeral rites, symbolizing the celebration of the person's life and their transition to the afterlife. It is a way to honor the deceased and show respect.
+3. Translation Clarification:
+   - The word "ayeya" is used to refer to funeral rites, which encompass various activities, including mourning, celebration, and dancing. The translation "funeral" captures the essence of the event but does not fully convey the cultural richness and the activities involved. The phrase "o'pene" specifically refers to the act of dancing, which is an integral part of the funeral ceremonies in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Fool, you claim to be wise, yet you are dead."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "see" = "said"
+   - "Kwasea" = "Fool"
+   - "wo se" = "you say" or "you claim"
+   - "wo nim nyansa" = "you know wisdom" or "you are wise"
+   - "na" = "and" or "yet"
+   - "wo' wuo no" = "you are dead"
+2. **Cultural Context**:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is known for his cleverness and cunning, often outsmarting others or teaching them lessons through his actions.
+   - The term "Kwasea" is a strong insult in Akan culture, used to describe someone who is foolish or lacks sense. It is not used lightly and carries a significant weight of disrespect.
+   - Wisdom ("nyansa") is highly valued in Akan culture, and claiming to possess it is a bold statement. The juxtaposition of claiming wisdom while being dead is a way to highlight the irony or foolishness of the situation.
+3. **Translation Clarification**:
+   - The phrase "you claim to be wise, yet you are dead" is an expression of irony. It suggests that despite the person's claim to wisdom, their actions or situation (being dead) contradict that claim. In this context, Ananse is pointing out the foolishness of the person who thought they were wise but ended up in a dire situation, possibly due to their own actions or lack of true wisdom.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+After Ananse finished the task, Anene said, "Let me take the task, I will go to the river and you will take it when it is time."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse wiee nsoa no" - "Ananse finished the task"
+     - "Ananse" refers to the character Ananse, a well-known figure in Akan folklore.
+     - "wiee" means "finished."
+     - "nsoa no" means "the task."
+   - "Anene see" - "Anene said"
+     - "Anene" is another character in the story.
+     - "see" means "said."
+   - "Ma me mfa nsoa" - "Let me take the task"
+     - "Ma me" means "let me."
+     - "mfa" means "take."
+     - "nsoa" means "task."
+   - "me nko nsuom'" - "I will go to the river"
+     - "me" means "I."
+     - "nko" means "will go."
+     - "nsuom'" means "to the river."
+   - "na w'afa no bere" - "and you will take it when it is time"
+     - "na" means "and."
+     - "w'afa" means "you will take."
+     - "no" means "it."
+     - "bere" means "time."
+2. **Cultural Context:**
+   - Ananse is a central character in Akan folklore, often depicted as a clever spider who uses his wit to overcome challenges. Stories about Ananse are used to teach moral lessons and cultural values.
+   - Rivers in Akan culture are often seen as significant natural resources and are sometimes associated with spiritual elements. Going to the river can symbolize a journey or a task that requires effort and patience.
+3. **Translation Clarification:**
+   - The phrase "Let me take the task" implies a willingness to assume responsibility or to help with a duty.
+   - "I will go to the river" suggests undertaking a specific task or journey, which in many Akan stories, can be a metaphor for facing challenges or seeking solutions.
+   - "You will take it when it is time" indicates a shared responsibility or a plan where tasks are divided based on timing or readiness.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "One day, I will take it, and you will be too late."
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "see" = "said"
+   - "Dabi" = "One day"
+   - "na" = "and" or "then"
+   - "me'de'ko" = "I will take it"
+   - "na" = "and" or "then"
+   - "w'afa no bere" = "you will be too late"
+2. Cultural Context:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to outsmart others. Stories about Ananse are used to teach moral lessons and are a significant part of oral tradition in Akan culture.
+   - The phrase "Dabi, na me'de'ko, na w'afa no bere" reflects a common theme in Ananse stories where he outsmarts others by acting at the right moment, emphasizing the importance of timing and cleverness.
+3. Translation Clarification:
+   - The phrase "Dabi, na me'de'ko, na w'afa no bere" can be understood as a warning or a statement of intent, where Ananse is indicating that he will act at a time when it will be most advantageous for him and disadvantageous for others. The use of "na" in this context serves to connect the actions in a sequence, highlighting the cause and effect relationship between Ananse's action and the other person's delayed response.</t>
+  </si>
+  <si>
+    <t>Translation: We are going to fetch water to drink.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ye'ko" translates to "We are going"
+   - "duruu" translates to "arrive at" or "reach"
+   - "nsuo" translates to "water"
+   - "nom'" translates to "drink"
+2. Cultural Context:
+   - In many Akan-speaking communities, fetching water is a common daily activity, especially in rural areas where access to piped water may be limited. The phrase reflects a communal activity where people, often women and children, go to a water source such as a river, stream, or well to collect water for household use. This task is not only essential for survival but also serves as a social activity where community members interact and share news.
+3. Translation Clarification:
+   - The phrase "Ye'ko duruu nsuo nom'" implies a future action of going to fetch water with the intention of drinking it. The word "duruu" suggests reaching a destination, which in this context is the water source. The translation captures the essence of the activity, which is both a necessity and a routine part of life in many Akan-speaking areas. The phrase is often used to indicate the purpose of the journey, which is to obtain water for drinking.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene said, "Father Ananse, there is an animal in the water, and I want to fetch water to drink. If the animal bites me, you will be responsible for its death."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene see" - "Anene said"
+   - "Agya Ananse" - "Father Ananse"
+   - "aboa bi wo nsuom'" - "an animal is in the water"
+   - "na ma me nsim'" - "and I want to fetch water"
+   - "me mfa nsoa yi nnum'" - "to drink"
+   - "na aboa no ka me a" - "if the animal bites me"
+   - "w'afa ne wuo" - "you will take its death"
+2. **Cultural Context:**
+   - **Ananse**: In Akan folklore, Ananse is a well-known trickster figure, often depicted as a spider. He is a central character in many stories and is known for his cleverness and cunning. The use of "Agya" (Father) before Ananse's name is a sign of respect and familiarity.
+   - **Fetching Water**: In many African communities, fetching water is a daily activity, often done from natural sources like rivers or streams. It is a task that can involve risks, such as encounters with wild animals.
+   - **Responsibility for Death**: The statement reflects a cultural belief in accountability and responsibility. If someone is harmed due to another's negligence or failure to act, the latter may be held responsible for the consequences.
+3. **Translation Clarification:**
+   - The phrase "you will be responsible for its death" implies that Ananse would be held accountable if the animal harms Anene. This reflects a cultural expectation that those in positions of authority or responsibility (like Ananse) should ensure the safety of others, especially in potentially dangerous situations. The translation captures the essence of accountability and the expectation of protection from harm.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Ah! You think I'm a real fool, me, I will go and hide, and if you talk about me, you will face death."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse see" - "Ananse said"
+   - "A! wo bu me 'kwasea pa" - "Ah! you think me 'fool real'"
+   - "me, me de'ko gum'" - "me, I will go hide"
+   - "na oka me a" - "and if you talk about me"
+   - "w'afa no wuo" - "you will take it death"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who uses his wit to outsmart others. The stories of Ananse are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The phrase "wo bu me 'kwasea pa" reflects a common theme in Ananse stories where he is underestimated by others, only for him to prove them wrong through cleverness.
+   - The concept of "hiding" and "talking about someone" in Akan culture can imply avoiding confrontation and gossip, which are seen as negative behaviors that can lead to social discord.
+3. **Translation Clarification**:
+   - The phrase "wo bu me 'kwasea pa" is an expression of disbelief or indignation, where Ananse is challenging the perception of him being a fool.
+   - "me de'ko gum'" is a colloquial way of saying "I will go and hide," indicating Ananse's intention to avoid direct confrontation.
+   - "w'afa no wuo" is a hyperbolic expression suggesting severe consequences (in this case, death) for speaking ill of Ananse, emphasizing the seriousness of gossip and slander in the cultural context.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse carried the load and went home.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ananse" = "Ananse" (a character in Akan folklore)
+   - "de" = "carried"
+   - "nsoa no" = "the load"
+   - "ko" = "went"
+   - "guum'" = "home"
+   - "na" = "and"
+   - "ye'baa" = "we came"
+   - "'fie" = "home"
+2. Cultural Context:
+   Ananse, often referred to as Kweku Ananse, is a well-known character in Akan folklore. He is a spider who often takes on human form and is known for his cunning and trickery. Stories about Ananse are used to teach moral lessons and are a significant part of oral storytelling traditions in Ghana and other parts of West Africa. The phrase "Ananse de nsoa no ko guum'" suggests a typical scenario where Ananse is involved in some activity, often with a clever twist or lesson at the end.
+3. Translation Clarification:
+   The phrase "Ananse de nsoa no ko guum', na ye'baa 'fie" can be translated as "Ananse carried the load and went home." The word "guum'" is a colloquial expression for "home" or "inside," indicating a return to a place of origin or comfort. The phrase "na ye'baa 'fie" literally means "and we came home," but in this context, it emphasizes the completion of the journey or task, with "we" possibly referring to Ananse and any companions or the storyteller including themselves in the narrative.</t>
+  </si>
+  <si>
+    <t>English Translation: On the day of the festival, we went to watch the dance, and we made two decisions.
+Footnote:
+1. Literal Translation Mapping:
+   - "Adeekyeye" translates to "festival day" or "day of the festival."
+   - "ye'ko" translates to "we went."
+   - "fwee" translates to "watch" or "observe."
+   - "nsoa no" translates to "the dance."
+   - "na ayi" translates to "and made."
+   - "adwene mmienu" translates to "two decisions."
+2. Cultural Context:
+   - Festivals in Akan culture are significant events that often involve traditional dances, music, and communal gatherings. They are times for celebration, reflection, and making important decisions. The phrase "fwee nsoa no" indicates the cultural importance of dance as a central activity during such events. Dance is not only entertainment but also a form of storytelling and cultural expression.
+   - Making "adwene mmienu" or "two decisions" during a festival could imply that the festival provided an opportunity for reflection or discussion among the attendees, leading to important resolutions or plans.
+3. Translation Clarification:
+   - The translation captures the essence of the original text by conveying the activities and decisions made during the festival. The word "nsoa" specifically refers to a traditional dance, which is a key element of Akan festivals. The phrase "ayi adwene mmienu" suggests that the festival setting was conducive to making thoughtful decisions, which is a common practice in many cultural gatherings where community and family matters are discussed.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Ananse, take these two, and tomorrow we will come and take four, and I will also have taken mine."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Anene see" - "Anene said"
+   - "Ananse, wo fa mmienu yi" - "Ananse, you take these two"
+   - "na okyena ye'beba na ayi nnan" - "and tomorrow we will come and take four"
+   - "na me so m'afa" - "and I will also have taken mine"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a clever spider or man who uses his wit to navigate various situations. Stories involving Ananse are used to teach moral lessons or explain natural phenomena.
+   - The concept of sharing and taking turns is common in Akan culture, reflecting communal values and the importance of fairness and reciprocity in social interactions.
+3. **Translation Clarification**:
+   - The phrase "wo fa mmienu yi" implies an instruction or request for Ananse to take two items or responsibilities. The use of "yi" indicates specificity, referring to particular items or tasks.
+   - "Okyena ye'beba na ayi nnan" suggests a future action where a group will return to take four items. The use of "ye'beba" (we will come) and "ayi" (take) indicates a collective effort or plan.
+   - "Na me so m'afa" implies that Anene will also have a share or responsibility, emphasizing the idea of equitable distribution or participation.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse said, "Ah! This servant, you consider me a 'complete fool'; you take these two, and tomorrow I will take the four."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "A! akoa yi" - "Ah! this servant"
+   - "wo bu me 'kwasea pa'" - "you consider me 'complete fool'"
+   - "wo fa mmienu yi" - "you take these two"
+   - "na me so okyena m'afa nnan no" - "and tomorrow I will take the four"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who uses his wit to outsmart others. The stories of Ananse are used to teach moral lessons and are an integral part of Akan oral tradition.
+   - The phrase "kwasea pa" translates to "complete fool" or "utter fool," which is a strong expression in Akan culture, often used to describe someone who is perceived to be easily deceived or lacking in wisdom.
+   - The concept of taking "two" today and "four" tomorrow reflects a common theme in Ananse stories where he often engages in clever bargaining or trickery to gain more than what is initially apparent.
+3. **Translation Clarification:**
+   - The translation captures the essence of Ananse's cunning nature. The phrase "you consider me a 'complete fool'" indicates that Ananse is aware of the servant's underestimation of him, and he plans to turn the situation to his advantage by taking more in the future.
+   - The use of "these two" and "the four" suggests a negotiation or exchange, typical in Ananse stories where he often manipulates situations to his benefit. The translation maintains the original intent and tone of the Akan text, highlighting Ananse's cleverness and strategic thinking.</t>
+  </si>
+  <si>
+    <t>Translation: The chief is satisfied.
+Footnote:
+1. Literal Translation Mapping:
+   - "Anene" translates to "The chief" in English. In Akan culture, "Anene" refers to a traditional leader or king, who holds a significant position in the community.
+   - "faye" translates to "is satisfied" or "is content." It indicates a state of being pleased or having one's expectations met.
+2. Cultural Context:
+   - In Akan societies, the chief, or "Anene," is a central figure in the community, often involved in decision-making, conflict resolution, and cultural preservation. The satisfaction of a chief can imply that a situation has been resolved favorably or that the community is in a state of harmony.
+   - The expression of satisfaction by a chief can also reflect the successful completion of a communal event, such as a festival, meeting, or negotiation, where the chief's approval is crucial.
+3. Translation Clarification:
+   - The phrase "Anene faye" is a concise way to express that the chief is pleased with a particular outcome or situation. In English, it is translated as "The chief is satisfied," capturing the essence of the chief's contentment without additional context. The satisfaction of a chief can have broader implications for the community, indicating peace, agreement, or success.</t>
+  </si>
+  <si>
+    <t>Translation: On the day of the festival, we will go and perform the customary rites.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Adeekyeye" - "Festival day"
+   - "ye'koye" - "we will go"
+   - "na ayi" - "and perform"
+   - "nnan" - "customary rites"
+2. **Cultural Context**:
+   - In Akan culture, festivals are significant events that often involve various traditional and religious activities. These festivals are times for communities to come together to celebrate, honor ancestors, and perform rituals that are believed to bring blessings and prosperity. The phrase "ayi nnan" refers to the specific traditional rites or ceremonies that are performed during these festivals. These rites can include offerings, prayers, and other ceremonial acts that are integral to the cultural and spiritual life of the community.
+3. **Translation Clarification**:
+   - The phrase "Adeekyeye, ye'koye na ayi nnan" is a statement about participating in a festival and engaging in the associated traditional activities. The translation captures the essence of the original text by conveying the intention to attend and partake in the cultural practices that are customary during such events. The word "nnan" specifically refers to the traditional rites, which are an essential part of the festival experience in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Take these four, and tomorrow we will come and take eight, and I will also take mine."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Anene see" - "Anene said"
+   - "Wo fa nnan yi" - "You take these four"
+   - "na okyena ye'beba" - "and tomorrow we will come"
+   - "na ayi nwotwe" - "and take eight"
+   - "na me so m'afa" - "and I will also take mine"
+2. **Cultural Context**:
+   - In Akan culture, numbers and counting often play a significant role in daily transactions and communal activities. The mention of specific numbers like "four" and "eight" could relate to sharing resources or planning for future needs. The communal aspect is highlighted by the phrase "we will come," indicating a collective action or decision-making process.
+   - The phrase "I will also take mine" suggests a sense of fairness and personal entitlement, which is important in Akan social interactions. It reflects the balance between communal sharing and individual rights.
+3. **Translation Clarification**:
+   - The phrase "Wo fa nnan yi" is a directive, instructing someone to take a specific quantity, which is "four" in this context. The use of "yi" (these) indicates that the items are present and visible.
+   - "Okyena" means "tomorrow," indicating a future action or plan. The use of future tense "ye'beba" (we will come) and "ayi" (take) suggests a planned activity involving more people.
+   - "Me so m'afa" translates to "I will also take mine," emphasizing the speaker's intention to claim their share, which is a common practice in ensuring fairness and equity in group settings.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "If you call me a 'fool,' you take these four, and tomorrow I will take eight."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse see" - "Ananse said"
+   - "Wo bu me 'kwasea" - "You call me 'fool'"
+   - "wo fa nnan yi" - "you take these four"
+   - "na me so okyena m'afa nwotwe" - "and tomorrow I will take eight"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a clever spider who uses wit and cunning to outsmart others. The stories of Ananse, known as "Anansesem," are a significant part of Akan oral tradition and are used to teach moral lessons.
+   - The term "kwasea" translates to "fool" in English, but in the context of Ananse stories, it often implies someone who is underestimated or appears foolish but ultimately proves to be wise or cunning.
+   - The numbers "four" and "eight" in the story may symbolize a strategic exchange or a clever plan where Ananse anticipates gaining more in the future, reflecting his cunning nature.
+3. **Translation Clarification**:
+   - The phrase "wo bu me 'kwasea" is an expression of being underestimated or insulted, which is a common theme in Ananse stories where he turns the tables on those who look down on him.
+   - The exchange of "four" for "eight" suggests a clever deal or a situation where Ananse expects to come out ahead, highlighting his strategic thinking. This reflects the moral of many Ananse stories, where intelligence and patience lead to greater rewards.</t>
+  </si>
+  <si>
+    <t>Translation: "The day of the week is Saturday, and it is the eighth day."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Adeekyeye" translates to "day of the week."
+   - "ye'koye" translates to "is Saturday."
+   - "na" translates to "and."
+   - "ayi" translates to "it is."
+   - "nwotwe" translates to "eighth."
+2. **Cultural Context**:
+   - In Akan culture, the days of the week are significant and often associated with specific names and attributes. Saturday, known as "Memeneda" in Akan, is traditionally considered a day of rest and reflection. The concept of an "eighth day" is not literal in the sense of a calendar week but can refer to a cultural or ceremonial context where days are counted differently, such as in traditional rites or events.
+3. **Translation Clarification**:
+   - The phrase "ayi nwotwe" (it is the eighth day) might seem confusing in a standard seven-day week context. However, in some Akan traditions, certain events or cycles are counted in a way that extends beyond the typical week, leading to references like the "eighth day." This could relate to a specific cultural or religious observance that follows a unique cycle.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Take it, and tomorrow I will also take my share of six."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Anene see" translates to "Anene said."
+   - "Fa" translates to "Take it."
+   - "na okyena" translates to "and tomorrow."
+   - "me so m'afa" translates to "I will also take."
+   - "dunsia" translates to "my share of six."
+2. **Cultural Context**:
+   - In Akan culture, sharing and reciprocity are important values. The phrase reflects a common practice where individuals take turns in sharing resources or benefits. The mention of "dunsia" (six) could imply a specific quantity or portion that is culturally understood as fair or customary in the context of sharing.
+   - The use of "okyena" (tomorrow) indicates a future action, which is a common way to express plans or promises in Akan conversations.
+3. **Translation Clarification**:
+   - The phrase "me so m'afa dunsia" is an expression of reciprocity, indicating that Anene expects to receive an equivalent share in the future. The translation captures the essence of this expectation by using "I will also take my share of six," which implies a mutual understanding of sharing. The number "six" is directly translated from "dunsia," which may have specific significance in the context, such as a standard portion or a symbolic number.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "You call me a 'fool', you take eight, and tomorrow I'll take six."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse see" - "Ananse said"
+   - "Me na wo bu me 'kwasea" - "You call me 'fool'"
+   - "wo so fa nwotwe" - "you take eight"
+   - "na okyena m'afa dunsia" - "and tomorrow I'll take six"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a clever spider who uses his wit to outsmart others. The stories of Ananse, known as "Anansesem," are used to teach moral lessons and reflect on human behavior.
+   - The term "kwasea" translates to "fool" in English, but in the context of Ananse stories, it often implies someone who is underestimated or appears foolish but ultimately proves to be wise or cunning.
+   - The numbers "eight" and "six" in the story may refer to a division of resources or a strategic plan where Ananse allows someone to take more initially, with the intention of gaining an advantage later.
+3. **Translation Clarification**:
+   - The phrase "Me na wo bu me 'kwasea" is an expression of being underestimated or called foolish. In the context of Ananse stories, this often sets the stage for Ananse to reveal his cleverness.
+   - The numbers "eight" and "six" are part of a strategic dialogue, suggesting a plan or a trick. Ananse's statement implies that while someone else may take more now, he has a plan to benefit later, showcasing his cunning nature.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Now that the harvest has begun, the chief told Ananse, "Go and bring the harvested crops, and when you sell them, if there is any profit, don't forget, so your father Ananse should be wise and bring me the harvested crops."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Efei na nsoa no asee" - "Now that the harvest has begun"
+   - "na Anene ka kyeree Ananse se" - "the chief told Ananse that"
+   - "Ko fa nsoa funu bra" - "Go and bring the harvested crops"
+   - "na wo ton a" - "and when you sell them"
+   - "bafua bi'a" - "if there is any profit"
+   - "ntanu" - "don't forget"
+   - "nti wo Agya Ananse gye adwene yi" - "so your father Ananse should be wise"
+   - "na fa nsoa funu yi ma me" - "and bring me the harvested crops"
+2. **Cultural Context:**
+   - In Akan culture, the harvest season is a significant time, often associated with festivals and communal activities. Chiefs play a central role in the community, and their instructions are usually respected and followed. Ananse, a well-known trickster figure in Akan folklore, is often depicted as clever but sometimes mischievous. The mention of Ananse suggests a story that might involve cunning or a moral lesson.
+3. **Translation Clarification:**
+   - The phrase "nsoa funu" refers to "harvested crops," which is a direct reference to the produce gathered during the harvest season. The chief's instruction to Ananse implies a task that involves both responsibility and potential for profit. The mention of "bafua bi'a" (if there is any profit) highlights the expectation of economic gain from the harvest. The phrase "gye adwene yi" (be wise) suggests that Ananse should act prudently, possibly hinting at his reputation for cleverness. The overall message is a directive from the chief to Ananse, emphasizing the importance of fulfilling duties and sharing the benefits with the community leader.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Someday, you will go sell the fish and take your share, and I will also go sell this dead body and take my share."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Dabi" - "Someday"
+   - "wo ko ton adwene no fa" - "you will go sell the fish and take"
+   - "na me so me'ko ton nsoa funu yi m'afa" - "and I will also go sell this dead body and take my share"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider or man who uses his wit to outsmart others. Stories about Ananse are used to teach moral lessons and are a significant part of oral tradition in Akan culture.
+   - The mention of selling fish and a dead body might seem odd, but in the context of Ananse stories, it is common for characters to engage in bizarre or exaggerated scenarios to convey a lesson or moral.
+3. **Translation Clarification:**
+   - The phrase "wo ko ton adwene no fa" refers to the act of selling fish, which is a common trade in many Akan communities, especially those near water bodies. "Adwene" specifically means "fish" in this context.
+   - "Me'ko ton nsoa funu yi m'afa" involves selling a "dead body," which is likely metaphorical or part of a humorous or exaggerated scenario typical of Ananse stories. It is not meant to be taken literally but rather to highlight Ananse's cunning or the absurdity of the situation.</t>
+  </si>
+  <si>
+    <t>Translation: We continued working on the farm.
+Footnote:
+1. Literal Translation Mapping:
+   - "Ye'soasoaye" translates to "We continued."
+   - "koo" translates to "went."
+   - "edwam'" translates to "farm."
+2. Cultural Context:
+   - Farming is a significant part of life in many Akan communities. It is not just an economic activity but also a cultural practice that involves the whole community. The phrase "working on the farm" implies a communal effort, often involving family members or neighbors, and is a common activity in rural areas.
+3. Translation Clarification:
+   - The phrase "Ye'soasoaye koo edwam'" literally means "We continued went farm," which is not grammatically correct in English. The translation "We continued working on the farm" captures the intended meaning, emphasizing the ongoing nature of the activity and the destination (the farm) as the place of work.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Now that Anene has finished everything; he has acquired a lot of money."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Seisei" - "Now"
+   - "na" - "that"
+   - "Anene" - "Anene" (a proper noun, likely a person's name)
+   - "die nnyina asa" - "everything has finished"
+   - "onya" - "he has acquired"
+   - "sika bebre" - "a lot of money"
+2. **Cultural Context:**
+   - In Akan culture, the phrase "die nnyina asa" (everything has finished) can imply that someone has completed a significant task or phase in their life. It often suggests a sense of accomplishment or reaching a milestone. The acquisition of wealth ("sika bebre") following this completion can indicate success or reward for the efforts made. Money is often seen as a symbol of success and stability in many cultures, including Akan.
+3. **Translation Clarification:**
+   - The phrase "everything has finished" is not meant to imply an end in a negative sense but rather the completion of a process or achievement of a goal. The sentence suggests that Anene has successfully completed something significant, leading to financial gain. The translation captures the essence of accomplishment and reward, which is central to the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translation: And then there was Ananse.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na" translates to "And then" or "Now".
+   - "aka" translates to "remains" or "is left".
+   - "Ananse" is a proper noun referring to the character Ananse.
+2. **Cultural Context**:
+   - Ananse, also known as Kwaku Ananse, is a central figure in Akan folklore and is often depicted as a spider. He is a trickster and a symbol of wisdom and cunning. Ananse stories are an integral part of Akan oral tradition and are used to teach moral lessons and cultural values. The phrase "Na aka Ananse" is commonly used in storytelling to indicate that the narrative is about to focus on Ananse, often after other characters or events have been introduced.
+3. **Translation Clarification**:
+   - The phrase "Na aka Ananse" is typically used in the context of storytelling. It signals a transition in the narrative, often suggesting that after other events or characters have been addressed, the focus is now shifting to Ananse. In English, this is effectively captured by the phrase "And then there was Ananse," which maintains the narrative flow and cultural significance of the original Akan expression.</t>
+  </si>
+  <si>
+    <t>Translation: The chief instructed him, "Take this corpse and go around it, and we will bury it."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na Anene ka kyeree no se" - "And the chief said to him that"
+   - "Fa nsoa funu yi ko kyin" - "Take carry corpse this go around"
+   - "na ye'beto" - "and we will bury"
+2. **Cultural Context**:
+   - In Akan culture, chiefs (referred to as "Anene" or "Ohene") hold significant authority and are often involved in important community decisions, including those related to funerals and burials.
+   - The act of carrying a corpse around before burial can be part of traditional funeral rites. It may symbolize a final farewell or a ritual to ensure the spirit's peaceful transition to the afterlife.
+   - Funerals in Akan culture are elaborate events, often involving the entire community, and are seen as a way to honor the deceased and their family.
+3. **Translation Clarification**:
+   - The phrase "Take this corpse and go around it" suggests a ritualistic action that is part of the burial process. The instruction implies a ceremonial aspect, which is common in Akan funeral practices.
+   - "We will bury it" indicates a collective action, reflecting the communal nature of Akan society where such events are shared responsibilities.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse raised his voice and said, "I sell dead bodies!"
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character in Akan folklore)
+   - "maa so" - raised (maa = gave, so = up)
+   - "osee" - said
+   - "Me" - I
+   - "ton" - sell
+   - "nsoa" - dead bodies
+   - "funu" - dead
+   - "o" - an exclamatory particle often used for emphasis
+2. **Cultural Context**:
+   - Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He is famous for his cleverness and cunning, frequently getting into and out of trouble through his wit.
+   - The phrase "I sell dead bodies" is likely part of a larger story or trick. In Akan storytelling, Ananse's declarations often lead to humorous or morally instructive tales. The idea of selling dead bodies could be a metaphor or a setup for a trick or lesson within the story.
+3. **Translation Clarification**:
+   - The phrase "I sell dead bodies" is not meant to be taken literally. In the context of Ananse stories, such statements are often hyperbolic or metaphorical, designed to capture attention or set the stage for a narrative twist. The exclamatory "o" at the end of the sentence adds emphasis, indicating that Ananse is making a bold or surprising statement.</t>
+  </si>
+  <si>
+    <t>English Translation: The village chief was surprised and said, "Where is this servant from, go and call him to come?" Ananse went.
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na odekuro teye" - "And the village chief was surprised"
+     - "Na" - "And"
+     - "odekuro" - "village chief"
+     - "teye" - "was surprised"
+   - "na osee" - "and he said"
+     - "na" - "and"
+     - "osee" - "he said"
+   - "Akoa yi firi he" - "Where is this servant from"
+     - "Akoa" - "servant"
+     - "yi" - "this"
+     - "firi he" - "from where"
+   - "mo nko fre no mma no mmera" - "go and call him to come"
+     - "mo" - "you (plural)"
+     - "nko" - "go"
+     - "fre no" - "call him"
+     - "mma no" - "for him"
+     - "mmera" - "to come"
+   - "Ananse koye" - "Ananse went"
+     - "Ananse" - "Ananse"
+     - "koye" - "went"
+2. **Cultural Context**:
+   - In Akan culture, the "odekuro" or village chief is a respected leader who oversees the affairs of the village. His surprise indicates something unusual or unexpected has occurred.
+   - "Ananse" refers to Kweku Ananse, a well-known character in Akan folklore. Ananse is often depicted as a cunning spider who is involved in various adventures and stories that teach moral lessons.
+   - The use of "akoa" (servant) reflects the hierarchical social structure in traditional Akan society, where roles and duties are clearly defined.
+3. **Translation Clarification**:
+   - The phrase "Akoa yi firi he" is a question about the origin of the servant, indicating curiosity or concern about the servant's background.
+   - "mo nko fre no mma no mmera" is a directive to a group to summon the servant, showing the chief's authority and the expectation of obedience.
+   - The mention of "Ananse" at the end suggests that he is involved in the story, likely as a central character, which is typical in Akan tales where Ananse plays a pivotal role.</t>
+  </si>
+  <si>
+    <t>English Translation: The chief said, "Do you believe that we are foolish in our village; that your neighbor can sell a goat and you won't notice, but you will sell a dead elephant to us?"
+Footnote:
+1. Literal Translation Mapping:
+   - "Odekuro see" - "The chief said"
+   - "Wo gye di se yen a ye'wo kurom' ha ye'ye nkwasea" - "You believe that we in our village here are foolish"
+   - "na wo yonko beton adwene yi, w'anhu" - "that your neighbor can sell a goat and you won't notice"
+   - "na w'abe-ton nsoa funu ama yen?" - "but you will sell a dead elephant to us?"
+2. Cultural Context:
+   - In Akan communities, the chief (Odekuro) is a respected leader whose words carry significant weight. The chief's statement here is a rhetorical question meant to challenge someone's perception or assumption about the community's intelligence or awareness.
+   - Goats and elephants are used symbolically. Goats are common and relatively small, representing everyday transactions or events that might go unnoticed. In contrast, elephants are large and significant, symbolizing major events or actions that are impossible to ignore.
+   - The phrase suggests that the community is not easily deceived, emphasizing the value placed on wisdom and awareness in Akan culture.
+3. Translation Clarification:
+   - The translation captures the essence of the chief's rhetorical question, which is to highlight the absurdity of underestimating the community's intelligence. The use of "foolish" and "dead elephant" in the translation conveys the intended meaning of the original Akan text, where the chief is questioning the audacity of someone trying to deceive the community with something so obvious.</t>
+  </si>
+  <si>
+    <t>Translation: The chief said, "You have done well."
+Footnote:
+1. Literal Translation Mapping:
+   - "Odekuro" translates to "chief" or "leader."
+   - "see" translates to "said."
+   - "Mo" translates to "you" (plural).
+   - "mmo'" translates to "have done well."
+2. Cultural Context:
+   - In Akan culture, the term "Odekuro" refers to a traditional leader or chief who holds authority and respect within a community. Chiefs play a significant role in maintaining cultural traditions, resolving disputes, and leading communal activities.
+   - The phrase "Mo mmo'" is a common expression of praise or appreciation in Akan culture. It is often used to acknowledge collective effort or achievement, reflecting the communal nature of many African societies where group accomplishments are highly valued.
+3. Translation Clarification:
+   - The phrase "Mo mmo'" is an expression of commendation. While the literal translation is "you have done well," it carries a deeper sense of appreciation and recognition of effort. The use of "Mo" indicates that the praise is directed at a group rather than an individual, emphasizing the collective contribution.</t>
+  </si>
+  <si>
+    <t>Translation: And we searched for it.
+Footnote:
+1. Literal Translation Mapping:
+   - "Na" translates to "And" in English.
+   - "ye'fwee" is a contraction of "yɛɛ hwehwɛ," which means "we searched."
+   - "no" translates to "it."
+2. Cultural Context:
+   - In Akan storytelling or conversation, the use of "Na" at the beginning of a sentence often indicates a continuation of a narrative or a sequence of events. It is similar to saying "then" or "and then" in English, which helps to maintain the flow of the story.
+   - Searching for something can be a common theme in Akan folklore and daily life, often symbolizing a quest or the pursuit of something valuable or important.
+3. Translation Clarification:
+   - The phrase "Na ye'fwee no" is a simple past tense construction in Akan, indicating an action that has already been completed. The contraction "ye'fwee" is commonly used in spoken Akan, where words are often shortened for ease of communication.
+   - The object "no" is a pronoun that refers to something previously mentioned or understood in the context, which is why it is translated as "it" in English.</t>
+  </si>
+  <si>
+    <t>English Translation: And Anene said, "Ananse, you have seen, your eyes are dead; you said you wanted to work with a fool, now you see that you are indeed a fool."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "Na Anene see" - "And Anene said"
+   - "Ananse w'ahu" - "Ananse, you have seen"
+   - "w'ani awu" - "your eyes are dead"
+   - "wo se wo'pe 'kwasea ne no aye adwuma" - "you said you wanted to work with a fool"
+   - "w'ahu se wo'a na wo ye 'kwasea" - "now you see that you are indeed a fool"
+2. **Cultural Context**:
+   - Ananse is a well-known character in Akan folklore, often depicted as a cunning spider who is both a trickster and a wise figure. The stories of Ananse are used to convey moral lessons and cultural values.
+   - The phrase "your eyes are dead" is a metaphorical expression in Akan, suggesting that someone has been blind to the truth or reality of a situation.
+   - The concept of working with a fool and realizing one's own foolishness is a common theme in Akan proverbs and stories, emphasizing self-awareness and the consequences of one's choices.
+3. **Translation Clarification**:
+   - The expression "your eyes are dead" does not mean literal blindness but rather a lack of insight or understanding.
+   - The statement reflects a moment of realization or enlightenment where Ananse, who thought he was clever, is confronted with his own foolishness.
+   - The translation captures the essence of the original text, which is a critique of Ananse's decision-making and a reminder of the importance of wisdom and self-reflection.</t>
+  </si>
+  <si>
+    <t>Translation: "This story I am telling, whether it is good or not, take some with you and leave some behind."
+Footnote:
+1. **Literal Translation Mapping**:
+   - "M'anansesem" - "My story"
+   - "a metooye yi" - "that I am telling"
+   - "se eye de o" - "whether it is good"
+   - "se ennye de o" - "whether it is not good"
+   - "momfa bi nko" - "take some with you"
+   - "na momfa bi mmera" - "and leave some behind"
+2. **Cultural Context**:
+   - The phrase "M'anansesem" refers to a traditional storytelling practice in Akan culture, often involving folktales or moral stories. Anansesem literally means "spider stories," referring to Ananse, a trickster figure in Akan folklore.
+   - Storytelling is a communal activity in Akan culture, where stories are shared not just for entertainment but also for imparting wisdom and moral lessons. The storyteller often invites listeners to reflect on the story and derive their own meanings or lessons.
+   - The expression "take some with you and leave some behind" is a common way to encourage listeners to take away the parts of the story that resonate with them personally, while leaving behind what does not apply or is not useful.
+3. **Translation Clarification**:
+   - The translation captures the essence of the original text, emphasizing the participatory nature of storytelling in Akan culture. The phrase "whether it is good or not" suggests that the value of the story is subjective and depends on the listener's perspective.
+   - The invitation to "take some with you and leave some behind" highlights the idea that stories are open to interpretation and that each listener may find different meanings or lessons within the same narrative.</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini</t>
+  </si>
+  <si>
+    <t>Translation: "We say that, we say that."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ye'" translates to "We" 
+   - "nse" translates to "say" 
+   - "se" translates to "that" 
+   - The repetition of "nse se" emphasizes the act of saying or the importance of the statement being made.
+2. **Cultural Context**: 
+   - In Akan culture, repetition is often used for emphasis and to convey a sense of urgency or importance in communication. This phrase could be used in various contexts, such as affirming a belief, making a declaration, or emphasizing a point in a discussion. It reflects the communal nature of Akan society, where collective expressions are valued.
+3. **Translation Clarification**: 
+   - The phrase "Ye' nse se, nse se o" can be understood as a way of reinforcing a message or belief within a group. The use of "o" at the end can serve as an exclamatory particle, adding emotional weight or urgency to the statement. In English, it might be translated more fluidly as "We say this, we say it!" to capture the emphasis and communal aspect of the original phrase.</t>
+  </si>
+  <si>
+    <t>Translation: "Ananse sees that he is going to find a fool, but he himself is the fool."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "ANANSE" = "Ananse" (a character often depicted as a spider in Akan folklore)
+   - "SEE" = "sees"
+   - "O'KO" = "that he is going"
+   - "PE" = "to find"
+   - "'KWASEA" = "a fool"
+   - "NANSO" = "but"
+   - "ONO ARA" = "he himself"
+   - "NA" = "is"
+   - "OYEE" = "the fool"
+2. **Cultural Context:**
+   Ananse is a well-known figure in West African folklore, particularly among the Akan people of Ghana. He is often portrayed as a trickster who uses his intelligence and cunning to outsmart others, but he also embodies human flaws and weaknesses. The story reflects the idea that sometimes, in trying to outsmart others, one may end up being foolish themselves. This proverb serves as a cautionary tale about self-awareness and the consequences of one's actions.
+3. **Translation Clarification:**
+   The phrase emphasizes the irony of Ananse's situation—while he is on a quest to find someone foolish, he fails to recognize that he is the one acting foolishly. This highlights a common theme in proverbs where the pursuit of outsmarting others can lead to one's own downfall. The use of "fool" in this context does not merely refer to a lack of intelligence but can also imply a lack of wisdom or insight into one's own behavior.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse is there, and he said he wants to deceive the fool and make him fall.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "ANANSE" - Ananse (a character often depicted as a spider or a trickster in Akan folklore)
+   - "na" - is/and
+   - "ote ho" - is there
+   - "na" - and
+   - "osee" - he said
+   - "o'pe" - he wants
+   - "'kwasea" - the fool
+   - "ne" - and
+   - "no" - him
+   - "asi" - to make/fall
+   - "nsoa" - fall
+2. **Cultural Context:**
+   Ananse is a central figure in Akan folklore, often representing wisdom, storytelling, and trickery. He is known for his cleverness and ability to outsmart others, often using his wits to navigate challenges. The phrase reflects a common theme in Ananse stories where he seeks to deceive or trick others, particularly those who are gullible or foolish. This narrative serves as a moral lesson about the consequences of naivety and the importance of being wise.
+3. **Translation Clarification:**
+   The translation captures the essence of Ananse's character as a trickster who enjoys outsmarting others, particularly those who are easily deceived. The term "kwasea" translates to "fool," which in this context refers to someone who lacks wisdom or is easily misled. The phrase "make him fall" implies a sense of trickery or deception, which is a hallmark of Ananse's stories. The overall message emphasizes the dynamics of intelligence versus foolishness, a common motif in folklore that teaches listeners to be cautious and aware of their surroundings.</t>
+  </si>
+  <si>
+    <t>Translation: "Okyin, kyin, kyin, you didn't get any."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Okyin" translates to "Okyin" (a term that can refer to a type of bird or a call).
+   - "kyin, kyin" translates to "chirp, chirp" (the sound made by birds).
+   - "wannya bi" translates to "you didn't get any."
+2. **Cultural Context**: 
+   The phrase "Okyin, kyin, kyin" mimics the sound of a bird, which is often used in Akan culture to signify something that is elusive or difficult to catch. The expression can be used in various contexts, often humorously, to indicate that someone has missed an opportunity or failed to obtain something they were seeking. In traditional Akan storytelling or proverbs, birds often symbolize freedom, opportunity, or the fleeting nature of chances.
+3. **Translation Clarification**: 
+   The phrase conveys a sense of disappointment or realization that one has not achieved or received something they were hoping for. The repetition of "kyin" emphasizes the chirping sound, which can evoke a playful or light-hearted tone, despite the underlying message of not having succeeded in obtaining something. The translation captures both the literal meaning and the cultural nuance of missed opportunities in a light-hearted manner.</t>
+  </si>
+  <si>
+    <t>Translation: "And he met Osansa."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "oko" = "he went" or "he goes"
+   - "hyiaa" = "met" (past tense of "to meet")
+   - "Osansa" = "Osansa" (a proper noun, likely a name)
+2. **Cultural Context**: 
+   - In Akan culture, names often carry significant meanings and can reflect the circumstances of a person's birth or their family's heritage. "Osansa" could refer to a specific individual known within a community or a character in a story. The act of meeting someone is often significant in social interactions, indicating the importance of relationships and community ties in Akan society.
+3. **Translation Clarification**: 
+   - The phrase "Na oko hyiaa Osansa" suggests a narrative context where a character is engaging with another character named Osansa. The use of "Na" at the beginning indicates a continuation of a story or event, implying that this meeting is part of a larger sequence of events. The translation captures the essence of the original text while maintaining its narrative flow.</t>
+  </si>
+  <si>
+    <t>Translation: He said, "Let us go to the farm."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osee" translates to "He said."
+   - "Ma yen ko" translates to "Let us go."
+   - "si nsoa" translates to "to the farm."
+2. **Cultural Context**: 
+   - In Akan culture, farming is a significant activity, often associated with community and family gatherings. The phrase suggests a collective effort, emphasizing the importance of working together in agricultural activities, which are vital for sustenance and economic stability in many Akan communities.
+3. **Translation Clarification**: 
+   - The phrase "Let us go to the farm" implies an invitation or suggestion to engage in farming activities. The use of "us" indicates a communal approach, which is a common practice in Akan society where tasks are often shared among family members or community members. The term "nsoa" specifically refers to a farm or agricultural land, highlighting the agricultural lifestyle prevalent in many Akan-speaking regions.</t>
+  </si>
+  <si>
+    <t>Translation: Osansa said, "I have meat to eat."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Osansa" = "Osansa" (a name, possibly a person)
+   - "see" = "said"
+   - "Me" = "I"
+   - "wo" = "have"
+   - "nam" = "meat"
+   - "me di" = "to eat"
+2. **Cultural Context**: 
+   - In Akan culture, food, particularly meat, holds significant importance in social gatherings and celebrations. The phrase indicates not just sustenance but also a form of sharing and hospitality. Meat is often associated with special occasions, and mentioning it can imply a sense of abundance or a festive atmosphere.
+3. **Translation Clarification**: 
+   - The phrase "Me wo nam me di" literally translates to "I have meat to eat," which may imply that the speaker is expressing satisfaction or readiness to partake in a meal. The use of "me di" (to eat) suggests an active engagement with the food, indicating that the speaker is not just in possession of meat but is also prepared to enjoy it. This can reflect a moment of joy or celebration in the context of sharing food with others.</t>
+  </si>
+  <si>
+    <t>Translation: "And at that moment, he met Anene, and he said, 'Let us go to the river.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" - And
+   - "akyiri yi" - at that moment
+   - "na" - then
+   - "oko" - he went
+   - "hyiaa" - met
+   - "Anene" - Anene (a proper name)
+   - "na" - and
+   - "osee" - he said
+   - "Ma" - Let
+   - "yenko" - us go
+   - "si" - to
+   - "nsoa" - the river
+2. **Cultural Context:**
+   - In many Akan communities, rivers hold significant cultural and spiritual importance. They are often seen as places of gathering, socialization, and sometimes ritual. The phrase "Let us go to the river" may imply a communal activity or a significant event, such as a celebration, a meeting, or a traditional ceremony. The act of going to the river can symbolize a journey or a transition in the narrative.
+3. **Translation Clarification:**
+   - The phrase "Let us go to the river" is a common expression that suggests a call to action or an invitation to participate in an activity. In this context, it indicates a moment of decision-making or planning between the characters involved. The use of "us" emphasizes community and togetherness, which is a vital aspect of Akan culture, where collective actions are often prioritized over individual ones.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "I have heard."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Anene" = Anene (a name)
+   - "see" = said
+   - "M'ate" = I have heard (where "M'" is a contraction of "Me" meaning "I" and "ate" means "heard").
+2. **Cultural Context**: 
+   - In Akan culture, communication often involves acknowledging what has been said or shared by others. The phrase "M'ate" indicates that the speaker is not only listening but also processing the information. This reflects the importance of active listening in social interactions within Akan communities.
+3. **Translation Clarification**: 
+   - The phrase "M'ate" can also imply understanding or acknowledgment of a situation or information, not just the act of hearing. Therefore, the translation "I have heard" captures the literal meaning, but it may also carry connotations of comprehension and engagement with the speaker's message.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And this is what Osansa told Anene: 'The trap you set for Ananse, do not, for Ananse says he wants a fool, and he has set the trap and has taken all the money.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na yei na Osansa ka kyeree Anene se," → "And this is what Osansa told Anene:"
+   - "Nsoa a wo'ko ne Ananse asie no, nko," → "The trap you set for Ananse, do not,"
+   - "na Ananse se o'pe 'kwasea," → "for Ananse says he wants a fool,"
+   - "na one no asi nsoa no na wadi sika no nnyina." → "and he has set the trap and has taken all the money."
+2. **Cultural Context:**
+   - In Akan folklore, Ananse is a trickster spider who often represents wisdom and cunning. The stories involving Ananse typically convey moral lessons about intelligence, greed, and the consequences of one's actions. The mention of a "trap" and "fool" reflects the common theme of deception and the idea that those who seek to outsmart others may end up being outsmarted themselves. The character Osansa, who is likely a wise figure, warns Anene about the dangers of underestimating Ananse.
+3. **Translation Clarification:**
+   - The phrase "do not" in the context of the trap suggests a warning against engaging in deceitful practices, as it implies that Ananse is clever enough to turn the situation to his advantage. The term "kwasea" translates to "fool," but in this context, it carries a deeper meaning, indicating someone who is easily deceived or manipulated. The overall message serves as a cautionary tale about the risks of trickery and the potential for unexpected outcomes when dealing with cunning individuals like Ananse.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "You stop your own, and I will take the money completely."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Anene see" - "Anene said"
+   - "Wo die gyae" - "You stop your own"
+   - "na" - "and"
+   - "me na megye" - "I will take"
+   - "sika no nnyina" - "the money completely"
+2. **Cultural Context**: 
+   In Akan culture, proverbs and sayings often convey deeper meanings and reflect social norms. The phrase "Wo die gyae" can imply that one should cease their own actions or pursuits, possibly to allow for a better outcome or to avoid conflict. The context of money in this saying suggests a negotiation or a discussion about financial matters, which is a common theme in interpersonal relationships within the community.
+3. **Translation Clarification**: 
+   The phrase "You stop your own" can be interpreted as a suggestion to cease personal endeavors or interests that may be hindering progress or cooperation. The latter part, "I will take the money completely," indicates a willingness to take responsibility or to claim what is due, which may reflect a sense of trust or expectation in a relationship. The overall message emphasizes collaboration and the importance of prioritizing collective interests over individual ones.</t>
+  </si>
+  <si>
+    <t>Translation: Anene and Ananse went to the bush to cut down a good tree.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene" - Anene (a name, often associated with a character in Akan folklore)
+   - "ne" - and
+   - "Ananse" - Ananse (a well-known spider character in Akan folklore)
+   - "sjim'" - went (the verb "to go" in a past tense form)
+   - "koo" - to the
+   - "wuram'" - bush (or forest)
+   - "ko" - to (indicating purpose)
+   - "twitwaa" - cut down (the verb "to cut down")
+   - "papa" - good (or fine)
+2. **Cultural Context:**
+   Anene and Ananse are characters from Akan folklore, where Ananse is often depicted as a trickster and a wise figure. The act of going to the bush to cut down a tree can symbolize various themes in Akan culture, such as resourcefulness, community building, or the importance of nature. Trees hold significant value in many African cultures, often representing life, growth, and sustenance.
+3. **Translation Clarification:**
+   The phrase "cut down a good tree" implies that the tree is not just any tree but one that is valuable or useful, which may suggest that the characters are seeking something beneficial for their community or themselves. The use of "good" in this context emphasizes the quality and potential utility of the tree, which aligns with the values of sustainability and respect for nature in Akan culture.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene told Ananse, "Give me the knife so that I can cut, and you also take it later."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene" - Anene (a character's name)
+   - "ka" - told
+   - "kyeree" - to show or to indicate
+   - "Ananse" - Ananse (another character's name, often a trickster figure in Akan folklore)
+   - "se" - that
+   - "Fa" - take/give
+   - "sekan" - knife
+   - "ma" - for me
+   - "na" - and
+   - "me" - I
+   - "ntwitwa" - can cut
+   - "na" - and
+   - "wo" - you
+   - "so" - also
+   - "fa" - take
+   - "no" - it
+   - "bere" - later
+2. **Cultural Context:**
+   The characters Anene and Ananse are part of Akan folklore, where Ananse is often depicted as a clever spider who uses his wit to navigate challenges. The request for a knife symbolizes the need for tools or resources to accomplish tasks. In many African cultures, sharing tools or resources is a common practice, reflecting community values and cooperation. The phrase "take it later" suggests a sense of trust and reciprocity in relationships.
+3. **Translation Clarification:**
+   The translation captures the essence of the original Akan text, emphasizing the interaction between the two characters. The phrase "give me the knife so that I can cut" indicates a request for assistance, while "you also take it later" implies a mutual understanding and expectation of sharing resources. This reflects the communal nature of relationships in Akan culture, where individuals often rely on one another for support and collaboration.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Are you calling me a fool? Let me go and think, and you also take your time."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Me na wo bu me 'kwasea?" - "Are you calling me a fool?"
+   - "ma me ntwitwa" - "Let me go and think"
+   - "na wo so fa no bere" - "and you also take your time"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the complexities of human nature. The phrase reflects a common theme in Akan stories where characters engage in dialogue that reveals their wit and intelligence. The mention of being called a "kwasea" (fool) is significant, as it touches on the importance of reputation and intelligence in Akan culture. Being called a fool is a serious insult, and the response indicates a desire for reflection and careful consideration before reacting.
+3. **Translation Clarification:**
+   The phrase "Let me go and think" suggests a moment of introspection, indicating that Ananse values thoughtfulness over impulsive reactions. The second part, "and you also take your time," implies that the speaker is encouraging the other person to reflect on their words and actions as well. This exchange highlights the importance of communication and understanding in relationships, a common theme in many Akan narratives. The overall tone is one of measured response rather than immediate confrontation, which is a valued trait in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse is weaving, and Anene is nearby, and he agrees.
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider)
+   - "e'twitwa" - is weaving
+   - "na" - and
+   - "Anene" - Anene (another character, often associated with wisdom or a counterpart to Ananse)
+   - "te ho" - is nearby
+   - "na" - and
+   - "o'pene" - he agrees
+2. **Cultural Context**:
+   Ananse is a well-known figure in Akan folklore, often representing cleverness and trickery. He is frequently involved in stories that teach moral lessons. Anene, while less prominent, can be seen as a character that complements Ananse, possibly representing wisdom or support. The act of weaving can symbolize creativity, storytelling, or the interconnectedness of life, as weaving threads together can represent the weaving of stories or experiences.
+3. **Translation Clarification**:
+   The phrase captures a moment of collaboration or agreement between two characters, suggesting a shared understanding or partnership in a task. The use of "weaving" may imply that they are working together on a project or that their actions are interconnected, reflecting the communal nature of many Akan stories. The translation maintains the essence of the original text while making it accessible to an English-speaking audience.</t>
+  </si>
+  <si>
+    <t>Translation: "The tree has fallen, and we are gathering it."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Otwitwa" = "The tree has fallen"
+   - "wieye" = "has fallen"
+   - "na" = "and"
+   - "na" = "we"
+   - "ye'kyekyereye" = "are gathering it"
+2. **Cultural Context:**
+   - In many Akan communities, trees hold significant cultural and practical importance. They are often used for various purposes, including building materials, food sources, and medicinal uses. The act of gathering fallen trees can symbolize community cooperation and resourcefulness, especially in rural settings where communal efforts are essential for survival and sustainability.
+3. **Translation Clarification:**
+   - The phrase "Otwitwa wieye" literally refers to the physical act of a tree falling, which can have both literal and metaphorical implications. In a broader sense, it may signify a loss or change in circumstances, while "ye'kyekyereye" emphasizes the collective action of the community in responding to that change. The translation captures both the immediate action and the underlying communal spirit inherent in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Ananse, give me the net, and you also take it in time."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Anene see" - "Anene said"
+   - "Ananse ma me" - "Ananse, give me"
+   - "mfa nsoa" - "the net"
+   - "na wo so fa no" - "and you also take it"
+   - "bere" - "in time"
+2. **Cultural Context**: 
+   The characters Anene and Ananse are rooted in Akan folklore. Ananse, often depicted as a spider, is a trickster figure known for his cleverness and wisdom. He is a central character in many stories that convey moral lessons. The request for a net can symbolize the need for collaboration or sharing resources, which is a common theme in Akan culture, emphasizing community and mutual support.
+3. **Translation Clarification**: 
+   The phrase "give me the net" suggests a request for assistance or resources, while "you also take it in time" implies that the speaker is encouraging the other person to also benefit from the situation. The use of "in time" can indicate that there is a right moment for both parties to engage with the net, highlighting the importance of timing and cooperation in achieving mutual goals.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Who are you to call me a fool?"
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his wisdom and trickery)
+   - "see" - said
+   - "So' ho" - Who are you
+   - "na" - and
+   - "me na" - I (am) the one
+   - "wo bu me" - you call me
+   - "'kwasea" - a fool
+2. **Cultural Context**: 
+   Ananse is a significant figure in Akan folklore, representing intelligence, cunning, and the complexities of human nature. The stories often convey moral lessons, and Ananse's character embodies the struggle between wisdom and foolishness. The phrase reflects a common theme in these tales where characters confront each other over perceived wisdom or foolishness, often leading to humorous or insightful outcomes.
+3. **Translation Clarification**: 
+   The phrase "Who are you to call me a fool?" captures the essence of Ananse's character, who is often challenged by others regarding his cleverness. The use of "fool" here is not merely an insult but a challenge to Ananse's intelligence and wit. The translation maintains the confrontational tone of the original Akan, emphasizing the social dynamics at play in the interaction.</t>
+  </si>
+  <si>
+    <t>Translation: "And you have taken the opportunity."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "ofa" = "you have taken"
+   - "soaye" = "the opportunity"
+2. **Cultural Context**: 
+   - In Akan culture, the concept of "soaye" (opportunity) is often tied to the idea of seizing chances for personal or communal growth. It reflects a proactive attitude towards life and the importance of making the most of favorable circumstances. This phrase can be used in various contexts, such as in discussions about career advancements, personal development, or even in social situations where one is encouraged to take initiative.
+3. **Translation Clarification**: 
+   - The phrase "Na ofa soaye" can imply not just the act of taking an opportunity but also suggests a sense of responsibility and awareness of the potential benefits that come with it. It may be used to commend someone for their initiative or to encourage others to be more proactive in their endeavors. The use of "Na" at the beginning can also indicate a continuation of a previous thought or conversation, emphasizing the importance of the action being discussed.</t>
+  </si>
+  <si>
+    <t>Translation: "Anene ate the leftovers and he agreed."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene" = "Anene" (a name or term for a person)
+   - "dii" = "ate"
+   - "akyire" = "the leftovers" (literally "the behind" or "the remaining")
+   - "na" = "and"
+   - "o'pene" = "he agreed" (literally "he accepted" or "he consented")
+2. **Cultural Context:**
+   - In Akan culture, sharing food and leftovers is a common practice that signifies community and togetherness. The act of eating leftovers can imply a sense of gratitude and appreciation for what is available, reflecting values of resourcefulness and respect for food. The phrase may also suggest a scenario where Anene is partaking in a communal meal, which is a significant aspect of social interactions in many Akan communities.
+3. **Translation Clarification:**
+   - The phrase "Anene dii akyire na o'pene" can be understood in a broader context where Anene not only consumes the leftovers but also shows agreement or acceptance of a situation, possibly related to the meal or the gathering. The use of "akyire" emphasizes the idea of consuming what remains, which can carry connotations of humility and practicality in the face of scarcity or abundance.</t>
+  </si>
+  <si>
+    <t>Translation: When we got home, Anene said, "Let me take a nap, and you can take it later."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ye'baa 'fie" translates to "We got home."
+   - "Anene see" translates to "Anene said."
+   - "Ma me mmeyo nsoa" translates to "Let me take a nap."
+   - "na w'afa no bere" translates to "and you can take it later."
+2. **Cultural Context**:
+   In Akan culture, the concept of rest and taking naps is significant, especially after a long day or after returning home. It is common for individuals to express their need for rest openly, and sharing responsibilities, such as taking turns to rest, reflects communal living and support within families or groups. The phrase indicates a casual and familiar relationship among the speakers, suggesting comfort in expressing personal needs.
+3. **Translation Clarification**:
+   The phrase "Let me take a nap" implies a short period of rest rather than a long sleep, which is culturally understood as a common practice in many West African societies. The second part, "and you can take it later," suggests a willingness to share responsibilities or tasks, indicating a cooperative dynamic. The translation captures the essence of the original Akan text while ensuring that the nuances of communal living and the importance of rest are conveyed.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Never will I be happy, and you too take your time."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his wisdom and trickery)
+   - "see" - said
+   - "Dabi" - Never
+   - "da" - day
+   - "ma" - for me
+   - "nyo" - happy
+   - "na" - and
+   - "wo" - you
+   - "so" - too
+   - "fa" - take
+   - "no" - it
+   - "bere" - time
+2. **Cultural Context**:
+   Ananse is a significant figure in Akan folklore, representing intelligence, cunning, and the complexities of human nature. The phrase reflects a common theme in Akan proverbs and stories, where wisdom is often conveyed through the experiences of Ananse. The expression "Dabi da ma me nyo" suggests a deep sense of dissatisfaction or unhappiness, which can resonate with the struggles of life. The second part, "na wo so fa no bere," implies a shared experience or a call for patience, indicating that both the speaker and the listener are in a similar situation.
+3. **Translation Clarification**:
+   The phrase "Never will I be happy" conveys a strong emotional state, suggesting a sense of hopelessness or resignation. The addition of "and you too take your time" implies that the listener should also be aware of the situation and perhaps not rush into decisions or actions. This reflects a broader understanding of life’s challenges and the importance of patience in facing them. The overall message can be interpreted as a caution against expecting happiness in difficult times and recognizing that others may share in that struggle.</t>
+  </si>
+  <si>
+    <t>Translation: "And Anene went to the place of celebration, and he agreed."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Anene" = "Anene" (a proper name)
+   - "ko" = "went"
+   - "daa" = "to the place of celebration" (literally "to the place of joy")
+   - "ayeya" = "celebration" (referring to a festive gathering)
+   - "na" = "and"
+   - "o'pene" = "he agreed" (literally "he accepted")
+2. **Cultural Context:**
+   - In many Akan communities, celebrations are significant social events that often involve communal gatherings, feasting, and various forms of entertainment. The phrase "place of celebration" suggests a communal space where people come together to mark important occasions, such as festivals, weddings, or other significant life events. The act of agreeing or accepting (o'pene) indicates a willingness to participate in these communal activities, which are vital for social cohesion and cultural identity.
+3. **Translation Clarification:**
+   - The phrase "place of celebration" captures the essence of a joyful gathering, which is central to Akan culture. The use of "agreed" in the translation reflects a positive affirmation of participation, suggesting that Anene is not just a passive attendee but an active participant in the celebration. This highlights the importance of consent and enthusiasm in communal events within the Akan tradition.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "Fool, you say you know wisdom, yet you are dead."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his cleverness)
+   - "see" - said
+   - "Kwasea" - Fool (a term used to address someone perceived as foolish)
+   - "wo se" - you say
+   - "wo nim" - you know
+   - "nyansa" - wisdom
+   - "na" - yet
+   - "wo' wuo no" - you are dead (literally "you have died")
+2. **Cultural Context**:
+   Ananse is a significant figure in Akan folklore, often embodying the traits of cunning and intelligence. The stories featuring Ananse frequently convey moral lessons, and he is known for outsmarting others, including gods and humans. The term "Kwasea" is a colloquial way to refer to someone who is acting foolishly or without wisdom. In this context, the phrase highlights the irony of someone claiming to possess wisdom while facing dire consequences, such as death, which serves as a cautionary tale about the importance of true knowledge and humility.
+3. **Translation Clarification**:
+   The phrase captures a moment of irony and critique, where Ananse is pointing out the contradiction in Kwasea's claim of wisdom juxtaposed with his unfortunate fate. The use of "fool" is not merely an insult but serves to emphasize the folly of overestimating one's own intelligence. The expression "you are dead" can be interpreted both literally and metaphorically, suggesting that the consequences of foolishness can lead to one's downfall, whether in a physical sense or in terms of reputation and respect within the community.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"When Ananse finished the task, Anene said, 'Give me the task, I will go and fetch water, and you will take it later.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse wiee nsoa no" translates to "Ananse finished the task."
+   - "Anene see" translates to "Anene said."
+   - "Ma me mfa nsoa" translates to "Give me the task."
+   - "me nko nsuom'" translates to "I will go and fetch water."
+   - "na w'afa no bere" translates to "and you will take it later."
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the complexities of human nature. The story reflects themes of cooperation and the sharing of responsibilities. In many Akan tales, tasks are often shared among characters, highlighting the importance of community and collaboration.
+3. **Translation Clarification:**
+   - The phrase "nsoa" refers to a task or responsibility, which in this context is implied to be fetching water. The dialogue indicates a division of labor, where Anene is asking to take on the task of fetching water, suggesting a willingness to help or take initiative. The phrase "na w'afa no bere" implies that the original task will be taken up by Ananse later, indicating a trust in Anene to complete the task first. This reflects a common narrative structure in Akan stories where characters support each other in their endeavors.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "No, I will go, and you will take it at the right time."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider and known for his wisdom and trickery)
+   - "see" - said
+   - "Dabi" - No
+   - "na" - and
+   - "me'de'ko" - I will go
+   - "na" - and
+   - "w'afa" - you will take
+   - "no" - it
+   - "bere" - at the right time
+2. **Cultural Context**:
+   Ananse is a significant figure in Akan folklore, representing intelligence, cunning, and the complexities of human nature. Stories featuring Ananse often convey moral lessons or highlight the consequences of one's actions. The phrase reflects a common theme in these tales where Ananse engages in dialogue that reveals his cleverness and strategic thinking. The use of "Dabi" (No) indicates a refusal or a decision to act independently, which is a common narrative device in Ananse stories.
+3. **Translation Clarification**:
+   The phrase "w'afa no bere" can be interpreted as "you will take it at the right time," suggesting a sense of timing and patience. This reflects a cultural understanding that actions should be taken at the appropriate moment, a value often emphasized in Akan proverbs and storytelling. The overall tone of the statement implies a negotiation or an agreement where Ananse is asserting his autonomy while also indicating that the other party will have their opportunity later.</t>
+  </si>
+  <si>
+    <t>Translation: "We have gone to drink water."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ye'ko" = "We have gone"
+   - "duruu" = "to drink"
+   - "nsuo" = "water"
+   - "nom'" = "to drink" (the apostrophe indicates a contraction in the word)
+2. **Cultural Context:**
+   - In many Akan communities, water is not only a basic necessity but also a significant part of social gatherings and rituals. The act of going to drink water can symbolize a break from work or a communal activity. It may also reflect the importance of hydration in the hot climate of Ghana, where the Akan people predominantly reside.
+3. **Translation Clarification:**
+   - The phrase "Ye'ko duruu nsuo nom'" is a straightforward statement indicating that the speaker and others have gone to drink water. It can imply a casual outing or a necessary pause in daily activities. The use of "nom'" emphasizes the action of drinking, which is a common practice in social interactions among the Akan people.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene said, "Father Ananse has a certain animal in the river, and I want to use this net to catch it, and if the animal speaks to me, you will take its death."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene see" - "Anene said"
+   - "Agya Ananse" - "Father Ananse"
+   - "aboa bi" - "a certain animal"
+   - "wo nsuom'" - "in the river"
+   - "na ma me nsim'" - "and I want to use this net"
+   - "me mfa nsoa yi nnum'" - "to catch it with this net"
+   - "na aboa no ka me a" - "and if the animal speaks to me"
+   - "w'afa ne wuo" - "you will take its death"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a spider or a trickster figure. He embodies wisdom, cunning, and the ability to outsmart others. The mention of "Father Ananse" signifies respect and acknowledges his importance in storytelling and moral lessons within the culture. The reference to an animal in the river suggests a connection to nature and the belief in the supernatural, where animals can communicate or possess special significance.
+3. **Translation Clarification:**
+   - The phrase "if the animal speaks to me" implies a belief in the ability of animals to communicate with humans, which is a common theme in folklore. The latter part, "you will take its death," suggests a consequence or a form of sacrifice, which may indicate that the animal's death is necessary for a greater purpose or benefit. This reflects the complex relationship between humans and nature in Akan culture, where animals are often seen as both resources and beings with their own agency.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Ah! If you call me a 'good fool,' I will go and sleep, and if you speak to me, you will take it to your grave."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "A!" - "Ah!"
+   - "wo bu me 'kwasea pa" - "if you call me a 'good fool'"
+   - "me, me de'ko gum'" - "I will go and sleep"
+   - "na oka me a" - "and if you speak to me"
+   - "w'afa no wuo" - "you will take it to your grave"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the complexities of human nature. The phrase "good fool" reflects a cultural nuance where being perceived as foolish can sometimes be a strategic position, allowing one to avoid conflict or gain insight. The warning about taking something "to your grave" suggests that certain words or actions can have serious, lasting consequences, emphasizing the importance of careful speech and the weight of one's words in the Akan culture.
+3. **Translation Clarification:**
+   The phrase "good fool" does not imply that the person is genuinely foolish; rather, it suggests a person who may appear naive or simple but possesses deeper wisdom or understanding. The expression about taking it "to your grave" serves as a metaphor for the permanence of certain statements or actions, indicating that once something is said, it can have lasting repercussions. This reflects a broader theme in Akan proverbs and sayings, where the implications of speech and behavior are often highlighted.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse took the trap and went to hide it, and we came home.
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider or a clever trickster)
+   - "de" - took
+   - "nsoa no" - the trap
+   - "ko" - to go
+   - "guum'" - hide it
+   - "na" - and
+   - "ye'baa" - we came
+   - "'fie" - home
+2. **Cultural Context**:
+   - Ananse is a significant figure in Akan folklore, representing wisdom, storytelling, and the complexities of human nature. The stories often involve Ananse outsmarting others or getting into trouble due to his cleverness. The act of hiding a trap suggests a strategic move, possibly to catch something or someone, which is a common theme in Ananse tales. The mention of returning home indicates a sense of community and family, which is central to Akan culture.
+3. **Translation Clarification**:
+   - The phrase "Ananse de nsoa no ko guum'" implies that Ananse is not just hiding the trap but is doing so with intention, possibly to prepare for a future event or to deceive others. The use of "ye'baa 'fie" emphasizes the collective experience of returning home, which is often a place of safety and belonging in Akan society. The translation captures both the literal meaning and the underlying themes of cunning and community present in the original text.</t>
+  </si>
+  <si>
+    <t>Translation: "Good morning, we are going to the market, and we have two ideas."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Adeekyeye" translates to "Good morning."
+   - "ye'ko" translates to "we are going."
+   - "fwee nsoa no" translates to "to the market."
+   - "na" translates to "and."
+   - "ayi adwene mmienu" translates to "we have two ideas."
+2. **Cultural Context:**
+   - In Akan culture, greetings are an essential part of daily interactions, and "Adeekyeye" is a common way to greet someone in the morning. The phrase indicates a friendly and respectful approach to communication. The mention of going to the market reflects the importance of markets in Akan society, where they serve as central hubs for trade, social interaction, and community bonding. The reference to having "two ideas" suggests a collaborative or planning aspect, which is significant in communal decision-making processes.
+3. **Translation Clarification:**
+   - The phrase "we are going to the market" implies not just a physical journey but also a social engagement, as markets are places where people gather to exchange goods and ideas. The "two ideas" could refer to plans or strategies related to their market visit, indicating that the speakers are not just going for shopping but also have specific intentions or discussions in mind. This reflects a proactive approach to their outing, emphasizing the importance of planning in Akan culture.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene said, "Ananse, take these two, and tomorrow we will come and take four, and I will also take mine."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene see" - "Anene said"
+   - "Ananse" - "Ananse" (a character in Akan folklore)
+   - "wo fa mmienu yi" - "you take these two"
+   - "na okyena" - "and tomorrow"
+   - "ye'beba" - "we will come"
+   - "na ayi nnan" - "and take four"
+   - "na me so m'afa" - "and I will also take mine"
+2. **Cultural Context:**
+   Ananse is a well-known trickster figure in Akan folklore, often depicted as a spider. He embodies wisdom, cunning, and the ability to outsmart others. The dialogue reflects a common theme in Akan stories where characters negotiate or make plans, often involving sharing resources or responsibilities. The mention of taking "two" and "four" suggests a transaction or agreement that is typical in communal settings, where sharing and cooperation are valued.
+3. **Translation Clarification:**
+   The phrase "wo fa mmienu yi" directly translates to "you take these two," indicating a directive or request. The use of "na" (and) connects the actions, showing a sequence of events. The phrase "ye'beba" implies a future action, indicating that the characters are planning to return. The structure of the sentence reflects a common conversational style in Akan, where plans are made collaboratively. The phrase "na me so m'afa" emphasizes inclusivity, indicating that the speaker also has a stake in the outcome, which is a significant aspect of communal life in Akan culture.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Ah! This servant, you call me 'a good fool'; take these two, and I will also take four tomorrow."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "A!" - "Ah!"
+   - "akoa yi" - "this servant"
+   - "wo bu me" - "you call me"
+   - "'kwasea pa" - "'a good fool"
+   - "wo fa mmienu yi" - "take these two"
+   - "na me so" - "and I will also"
+   - "okyena" - "tomorrow"
+   - "m'afa nnan no" - "take four"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a trickster who uses his wit and intelligence to navigate challenges. The phrase "a good fool" reflects a common theme in many cultures where a seemingly foolish character possesses hidden wisdom or cleverness. In this context, Ananse is engaging in a playful exchange, highlighting the dynamics of servitude and cleverness. The mention of taking two and four may symbolize a negotiation or a clever deal, which is a recurring motif in Ananse stories.
+3. **Translation Clarification:**
+   The phrase "a good fool" can be interpreted in various ways, depending on the context. It may imply that the servant is perceived as foolish for being naive or overly trusting, yet there is an underlying suggestion that this foolishness may be advantageous in certain situations. The numbers mentioned (two and four) could represent a bargaining tactic, where Ananse is cleverly maneuvering to gain more than he initially offers. This reflects the cleverness often attributed to Ananse in folklore, where he outsmarts others through wit rather than brute strength.</t>
+  </si>
+  <si>
+    <t>Translation: "The moon is shining."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Anene" translates to "moon."
+   - "faye" translates to "is shining" or "shines."
+2. **Cultural Context**: 
+   - In Akan culture, the moon holds significant importance, often associated with timekeeping, agriculture, and various cultural rituals. The phases of the moon can influence farming activities and traditional ceremonies. The phrase "Anene faye" may be used to describe a beautiful night or to signify a time for gathering and storytelling under the moonlight.
+3. **Translation Clarification**: 
+   - The phrase "Anene faye" is a simple yet poetic expression that captures the beauty of the moonlight. It can be used in various contexts, such as in poetry, songs, or everyday conversation, to evoke feelings of tranquility and appreciation for nature. The translation "The moon is shining" conveys the literal meaning but may not fully capture the cultural reverence for the moon in Akan traditions.</t>
+  </si>
+  <si>
+    <t>Translation: "It is a celebration; we are gathering to eat and drink."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Adeekyeye" translates to "celebration" or "festivity."
+   - "ye'koye" translates to "we are gathering" or "we are coming together."
+   - "na" translates to "to" or "in order to."
+   - "ayi" translates to "eat."
+   - "nnan" translates to "and drink."
+2. **Cultural Context:**
+   - In Akan culture, celebrations often involve communal gatherings where food and drink are shared. These events can be for various reasons, such as weddings, festivals, or significant life events. The act of gathering to eat and drink symbolizes unity and community spirit, which are highly valued in Akan society.
+3. **Translation Clarification:**
+   - The phrase "ye'koye" emphasizes the collective action of coming together, which is a central theme in many Akan celebrations. The use of "nnan" (to drink) alongside "ayi" (to eat) highlights the importance of both food and drink in social gatherings, reinforcing the idea that such events are not just about nourishment but also about social bonding and enjoyment.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene said, "Take these four, and tomorrow we will come and collect the seven, and I will also take mine."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Anene see" - "Anene said"
+   - "Wo fa nnan yi" - "Take these four"
+   - "na okyena ye'beba" - "and tomorrow we will come"
+   - "na ayi nwotwe" - "and collect the seven"
+   - "na me so m'afa" - "and I will also take mine"
+2. **Cultural Context:**
+   In many Akan communities, the act of sharing and collecting items is often tied to communal relationships and responsibilities. The mention of "four" and "seven" could refer to specific items of value, such as crops, goods, or even responsibilities that are to be shared among community members. The phrase indicates a planned collaboration, which is a common practice in Akan culture, emphasizing the importance of community and mutual support.
+3. **Translation Clarification:**
+   The phrase "Take these four" suggests that Anene is giving or assigning four items to someone, indicating a sense of trust and responsibility. The use of "tomorrow we will come" implies a future commitment to return, which reflects the importance of planning and cooperation in Akan society. The final part, "and I will also take mine," indicates that Anene is also participating in this exchange, reinforcing the idea of shared responsibility and collective action.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse said, "If you call me a fool, you will take these four, and I will also take eight tomorrow."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse see" - "Ananse said"
+   - "Wo bu me 'kwasea" - "If you call me a fool"
+   - "wo fa nnan yi" - "you will take these four"
+   - "na me so" - "and I will also"
+   - "okyena" - "tomorrow"
+   - "m'afa nwotwe" - "take eight"
+2. **Cultural Context**: 
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the ability to outsmart others. The phrase reflects a common theme in Ananse stories where he engages in clever exchanges that often involve wit and a moral lesson. The numbers mentioned (four and eight) may symbolize a balance of power or a clever negotiation tactic, as Ananse often uses his intelligence to turn situations to his advantage.
+3. **Translation Clarification**: 
+   The phrase "If you call me a fool" suggests a challenge or provocation, indicating that the speaker is not easily insulted and is ready to respond. The mention of "four" and "eight" implies a form of bargaining or a playful competition, where Ananse is asserting that he will not only accept the insult but will also come back stronger. The use of "tomorrow" indicates a future consequence or retaliation, which is a common narrative device in Ananse tales, emphasizing the idea of patience and strategic thinking.</t>
+  </si>
+  <si>
+    <t>Translation: "The celebration is here, and we are preparing for it."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Adeekyeye" translates to "celebration" or "festivity."
+   - "ye'koye" translates to "we are preparing" or "we are getting ready."
+   - "na" translates to "and."
+   - "ayi" translates to "it is here" or "it has arrived."
+   - "nwotwe" translates to "for it" or "for the celebration."
+2. **Cultural Context:**
+   - In Akan culture, celebrations often refer to significant events such as festivals, weddings, or communal gatherings. These events are marked by preparation and communal participation, emphasizing the importance of togetherness and shared joy. The phrase indicates a sense of excitement and readiness within the community as they come together to honor a special occasion.
+3. **Translation Clarification:**
+   - The phrase captures not just the act of preparing but also the anticipation and communal spirit associated with celebrations in Akan culture. The use of "ye'koye" emphasizes collective action, suggesting that the preparation is a shared effort among community members. The term "Adeekyeye" encompasses a wide range of festivities, making the translation adaptable to various contexts depending on the specific celebration being referenced.</t>
+  </si>
+  <si>
+    <t>Translation: Anene said, "Take it, and tomorrow I will also take my share."
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Anene" - Anene (a name)
+   - "see" - said
+   - "Fa" - Take
+   - "na" - and
+   - "okyena" - tomorrow
+   - "me so" - I also
+   - "m'afa" - will take my share
+   - "dunsia" - my share (or portion)
+2. **Cultural Context**: 
+   In Akan culture, sharing and communal living are highly valued. The phrase reflects the importance of reciprocity in relationships, where individuals are expected to share resources and support one another. The mention of "tomorrow" indicates a future commitment to reciprocate, which is a common practice in many African cultures, emphasizing trust and mutual support.
+3. **Translation Clarification**: 
+The phrase "Fa, na okyena me so m'afa dunsia" can be understood as Anene encouraging someone to take something (likely food or a resource) with the assurance that they will also partake in it later. The use of "dunsia" specifically refers to a share or portion, which highlights the communal aspect of sharing resources. The translation captures both the literal meaning and the underlying cultural significance of sharing and reciprocity in the Akan community.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "You call me a fool, but you also take the seven, and tomorrow I will take the ten."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Me na wo bu me 'kwasea" - "You call me a fool"
+   - "wo so fa nwotwe" - "but you also take the seven"
+   - "na okyena m'afa dunsia" - "and tomorrow I will take the ten"
+2. **Cultural Context:**
+   Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the ability to outsmart others. The phrase reflects a common theme in Ananse stories where he confronts those who underestimate him or take advantage of him. The numbers mentioned (seven and ten) may symbolize varying degrees of value or cleverness in a negotiation or competition, highlighting the idea that appearances can be deceiving.
+3. **Translation Clarification:**
+   The phrase "You call me a fool" suggests that the speaker is being underestimated or disrespected. The subsequent part, "but you also take the seven," implies that the other person is also engaging in questionable behavior, perhaps taking advantage of a situation. The final part, "and tomorrow I will take the ten," indicates that the speaker has a plan to outsmart the other person, suggesting that they will ultimately gain more than what is currently being taken. This reflects a common narrative in which the underestimated character ultimately prevails.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Now that the rope has been cut, Anene told Ananse, 'Go and bring the burnt rope, and when you sell it, you will get some money, so your father Ananse should accept this idea and bring me that burnt rope.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Efei" - Now
+   - "na" - that
+   - "nsoa no" - the rope
+   - "ase" - has been cut
+   - "na" - and
+   - "Anene" - Anene (a character's name)
+   - "ka" - said
+   - "kyeree" - told
+   - "Ananse" - Ananse (another character's name)
+   - "se" - that
+   - "Ko" - Go
+   - "fa" - bring
+   - "nsoa funu" - burnt rope
+   - "bra" - come
+   - "na" - and
+   - "wo ton a" - when you sell it
+   - "bafua bi'a" - you will get some money
+   - "ntanu" - so
+   - "nti" - therefore
+   - "wo Agya Ananse" - your father Ananse
+   - "gye adwene yi" - should accept this idea
+   - "na" - and
+   - "fa nsoa funu yi ma me" - bring me that burnt rope.
+2. **Cultural Context:**
+   The characters Ananse and Anene are part of Akan folklore, where Ananse is often depicted as a trickster spider who embodies wisdom and cunning. The act of cutting a rope can symbolize the end of a connection or a resource, while the burnt rope may represent something that has been used up or wasted. In this context, the dialogue reflects a negotiation or a request for something that may seem worthless but could still hold value in a different light, showcasing the resourcefulness often celebrated in Akan stories.
+3. **Translation Clarification:**
+   The phrase "nsoa funu" literally translates to "burnt rope," which may not have a direct equivalent in English. In the context of the story, it implies a resource that has been damaged but can still be utilized or sold for some benefit. The dialogue emphasizes the importance of seeing potential value in what may appear to be useless, a common theme in many folktales that encourages creativity and resilience. The mention of "your father Ananse" indicates a familial relationship that adds depth to the characters' interactions, suggesting a reliance on wisdom passed down through generations.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "No, you go and sell the idea, and I will also go and sell this dead rat I have."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Ananse see" - "Ananse said"
+   - "Dabi" - "No"
+   - "wo ko ton adwene no fa" - "you go and sell the idea"
+   - "na me so" - "and I also"
+   - "me'ko ton nsoa funu yi m'afa" - "I will go and sell this dead rat I have"
+2. **Cultural Context:**
+   - Ananse is a well-known character in Akan folklore, often depicted as a spider and a trickster. He embodies wisdom, cunning, and the ability to navigate complex situations. The phrase reflects a common theme in Ananse stories where he often engages in clever negotiations or exchanges. The mention of selling a "dead rat" can symbolize the idea of making the best out of a bad situation or turning something seemingly worthless into an opportunity.
+3. **Translation Clarification:**
+   - The phrase "sell the idea" suggests that one person is being encouraged to promote or market a concept or plan. The "dead rat" metaphorically represents something that may not have value at first glance but can be leveraged for gain. This reflects a broader theme in many cultures where individuals must find ways to capitalize on their circumstances, no matter how dire they may seem. The dialogue captures a playful yet strategic interaction typical of Ananse's character, highlighting the importance of resourcefulness and wit in overcoming challenges.</t>
+  </si>
+  <si>
+    <t>Translation: "We have come to a consensus."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Ye" = We
+   - "soasoaye" = consensus/agreement
+   - "koo" = have come
+   - "edwam'" = to a conclusion/decision
+2. **Cultural Context**: 
+   In Akan culture, reaching a consensus is a significant aspect of community decision-making. It reflects the value placed on collective agreement and harmony within the group. This phrase may be used in various contexts, such as family discussions, community meetings, or organizational settings, where the input of all members is considered essential before arriving at a decision.
+3. **Translation Clarification**: 
+   The term "soasoaye" specifically denotes a state of agreement that is reached after discussion and deliberation, rather than a unilateral decision. The phrase emphasizes the collaborative nature of the decision-making process, which is a core principle in many Akan communities. The translation "We have come to a consensus" captures this collaborative spirit, indicating that all parties involved have participated in the discussion and have agreed on the outcome.</t>
+  </si>
+  <si>
+    <t>Translation: "Now that Anene has everything; he has acquired a lot of wealth."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Seisei" = Now
+   - "na" = that
+   - "Anene" = Anene (a personal name)
+   - "die" = everything
+   - "nnyina" = has
+   - "asa" = acquired
+   - "onyaa" = he has
+   - "sika" = wealth/money
+   - "bebre" = a lot
+2. **Cultural Context:**
+   - The name "Anene" is a common Akan name and can refer to a person who is perceived as successful or fortunate. In Akan culture, wealth is often associated with hard work, wisdom, and sometimes, divine favor. The phrase suggests a moment of recognition or celebration of Anene's achievements, which may be significant in a community where communal success is valued.
+3. **Translation Clarification:**
+   - The phrase "Seisei na Anene die nnyina asa" implies a current state of affairs where Anene has reached a point of success and abundance. The use of "nnyina" (has) and "asa" (acquired) indicates that this is a culmination of efforts or circumstances leading to his current wealth. The translation captures both the literal meaning and the underlying sentiment of pride and acknowledgment of Anene's accomplishments.</t>
+  </si>
+  <si>
+    <t>Translation: "And then it was Ananse."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" translates to "And then."
+   - "aka" translates to "it was" or "remained."
+   - "Ananse" refers to the character Ananse, who is a spider in Akan folklore.
+2. **Cultural Context**: 
+   - Ananse is a significant figure in West African folklore, particularly among the Akan people of Ghana. He is often depicted as a trickster and a wise figure who uses his intelligence to outsmart others. Ananse stories are used to convey moral lessons and cultural values, making him a central character in many traditional tales.
+3. **Translation Clarification**: 
+   - The phrase "Na aka Ananse" can be understood as introducing a story or a situation involving Ananse. It often signifies a transition in storytelling, indicating that Ananse is about to play a crucial role in the narrative. The use of "And then" suggests a continuation of events, typical in oral storytelling traditions where Ananse's cleverness and adventures are recounted.</t>
+  </si>
+  <si>
+    <t>Translation: "And Anene told him, 'Take this firewood and go cook, and we will eat.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" = "And"
+   - "Anene" = "Anene" (a proper name)
+   - "ka" = "told"
+   - "kyeree" = "him"
+   - "se" = "that"
+   - "Fa" = "Take"
+   - "nsoa" = "this"
+   - "funu" = "firewood"
+   - "yi" = "this"
+   - "ko" = "go"
+   - "kyin" = "cook"
+   - "na" = "and"
+   - "ye'beto" = "we will eat"
+2. **Cultural Context:**
+   In many Akan communities, cooking is often a communal activity, and sharing food is a significant part of social interactions. The act of sending someone to gather firewood and prepare a meal reflects the importance of collaboration and hospitality in Akan culture. Firewood is a common fuel source for cooking traditional meals, and the phrase indicates a routine domestic task.
+3. **Translation Clarification:**
+   The phrase "Fa nsoa funu yi ko kyin" can be understood as a directive to take the firewood and prepare a meal, which is a common expectation in family or community settings. The use of "ye'beto" implies a future action, indicating that the speaker and the listener will share the meal together, emphasizing the communal aspect of eating in Akan culture.</t>
+  </si>
+  <si>
+    <t>Translation: Ananse was very clever; he said, "I will sell you a dead snake!"
+**Footnote:**
+1. **Literal Translation Mapping**:
+   - "Ananse" - Ananse (a character from Akan folklore, often depicted as a spider)
+   - "maa so" - was very clever
+   - "osee" - he said
+   - "Me ton" - I will sell
+   - "nsoa" - you (singular)
+   - "funu" - dead
+   - "o!" - (exclamation, often used for emphasis)
+2. **Cultural Context**:
+   Ananse is a significant figure in Akan folklore, representing wisdom, cunning, and the complexities of human nature. Stories about Ananse often convey moral lessons and reflect the values and beliefs of the Akan people. The phrase "I will sell you a dead snake" can be interpreted as a metaphor for deception or trickery, as selling something that is dead implies a lack of value or usefulness. This reflects the cleverness of Ananse, who often uses his wit to navigate challenges and outsmart others.
+3. **Translation Clarification**:
+   The phrase captures Ananse's characteristic wit and cunning nature. The use of "dead snake" symbolizes something that is not only worthless but also potentially dangerous if one is deceived into thinking it has value. The exclamation "o!" adds emphasis to his statement, highlighting the playful yet deceptive nature of Ananse's character. This line exemplifies the themes of trickery and intelligence that are prevalent in Ananse stories.</t>
+  </si>
+  <si>
+    <t>Translation: "And the chief was angry, and he said, 'Where does this servant come from, why don’t you call him to come here?' Ananse replied."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na" - And
+   - "odekuro" - chief
+   - "teye" - was angry
+   - "na" - and
+   - "osee" - he said
+   - "Akoa" - servant
+   - "yi" - this
+   - "firi" - come from
+   - "he" - where
+   - "mo" - you (plural)
+   - "nko" - do not
+   - "fre" - call
+   - "no" - him
+   - "mma" - to come
+   - "no" - here
+   - "mmera" - here
+   - "Ananse" - Ananse (a character)
+   - "koye" - replied
+2. **Cultural Context:**
+   - In Akan culture, the role of a chief (odekuro) is significant, as they are seen as leaders and authority figures within the community. The chief's anger indicates a breach of protocol or respect, which is important in traditional settings. Ananse is a well-known character in Akan folklore, often depicted as a trickster and a wise figure. His interactions often carry moral lessons or highlight social norms.
+3. **Translation Clarification:**
+   - The phrase "Akoa yi firi he" literally translates to "Where does this servant come from?" which reflects the chief's surprise or displeasure at the presence of Ananse. The use of "mo nko fre no mma no mmera?" translates to "why don’t you call him to come here?" indicating that the chief expects respect and proper communication. The dialogue captures a moment of tension and authority, typical in stories involving Ananse, who often finds himself in tricky situations due to his cleverness.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+The chief said, "You believe that if we are in your town, we are foolish; but your friend who is thinking this, have you not seen, and will you not bring a dead person to us?"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Odekuro see" - "The chief said"
+   - "Wo gye di se" - "You believe that"
+   - "yen a ye'wo kurom' ha" - "if we are in your town"
+   - "ye'ye nkwasea" - "we are foolish"
+   - "na wo yonko beton adwene yi" - "but your friend who is thinking this"
+   - "w'anhu" - "have you not seen"
+   - "na w'abe-ton nsoa funu ama yen?" - "and will you not bring a dead person to us?"
+2. **Cultural Context:**
+   In Akan culture, the role of the chief (Odekuro) is significant as a leader and a figure of authority. The chief often addresses issues of respect, wisdom, and community values. The phrase "if we are in your town, we are foolish" reflects a common sentiment where outsiders may be judged or looked down upon by locals. The mention of "bringing a dead person" is a metaphorical expression implying that the friend’s thoughts or actions are misguided or harmful, suggesting that they are bringing negativity or death to the community.
+3. **Translation Clarification:**
+   The translation captures the essence of the chief's admonition towards the person who holds a dismissive view of outsiders. The chief is challenging the notion that being from a different place equates to foolishness. The rhetorical question about bringing a dead person serves to highlight the absurdity of the friend's perspective, suggesting that such negative thoughts are detrimental to the community. This reflects a broader theme in Akan discourse where wisdom and communal harmony are valued over divisive or derogatory attitudes.</t>
+  </si>
+  <si>
+    <t>Translation: The chief said, "Do not do it."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Odekuro" = "The chief"
+   - "see" = "said"
+   - "Mo" = "You" (plural)
+   - "mmo'" = "do not"
+   - "no" = "it"
+2. **Cultural Context**: In Akan culture, the chief (or "Odekuro") holds a significant position of authority and respect within the community. When a chief speaks, their words carry weight and are often seen as guidance or a directive for the people. The phrase "Mo mmo' no" reflects a communal aspect of Akan society, where the chief addresses the collective group rather than individuals, emphasizing the importance of unity and adherence to communal norms.
+3. **Translation Clarification**: The phrase "Do not do it" is a direct command from the chief, indicating a prohibition against a specific action. The context in which this statement is made can vary widely; it could relate to social behavior, cultural practices, or community decisions. The use of "Mo" indicates that the chief is addressing multiple people, reinforcing the collective responsibility of the community in following the chief's guidance.</t>
+  </si>
+  <si>
+    <t>Translation: "And we are removing it."
+**Footnote:**
+1. **Literal Translation Mapping**: 
+   - "Na" = "And"
+   - "ye'" = "we" (the pronoun "ye" is often contracted with the following verb)
+   - "fwee" = "remove" or "take away"
+   - "no" = "it" (referring to a specific object or subject previously mentioned)
+2. **Cultural Context**: 
+   - The phrase "Na ye'fwee no" can be used in various contexts, such as discussing the removal of an object, a person from a situation, or even metaphorically, like removing a problem or obstacle. In Akan culture, communal actions are often emphasized, and the use of "we" signifies collective effort or agreement among a group.
+3. **Translation Clarification**: 
+   - The phrase is straightforward but can imply different nuances depending on the context. For instance, if used in a discussion about cleaning or organizing, it would refer to physically removing items. However, in a metaphorical sense, it could refer to addressing issues or challenges within a community or group. The use of "Na" at the beginning indicates a continuation of a previous thought or action, suggesting that this removal is part of a larger narrative or plan.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+And Anene said, "Ananse, you have seen, your eyes are open; if you say you want to work with a fool, you have seen that you are a fool yourself."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "Na Anene see" - "And Anene said"
+   - "Ananse w'ahu" - "Ananse, you have seen"
+   - "w'ani awu" - "your eyes are open"
+   - "wo se" - "if you say"
+   - "wo'pe 'kwasea ne no aye adwuma" - "you want to work with a fool"
+   - "w'ahu se" - "you have seen that"
+   - "wo'a na wo ye 'kwasea" - "you are a fool yourself"
+2. **Cultural Context:**
+   The phrase reflects a common Akan proverb that emphasizes the importance of wisdom and discernment in choosing one's companions or associates. In Akan culture, the concept of 'kwasea' (fool) is often used to describe someone who lacks wisdom or good judgment. The saying serves as a cautionary reminder that associating with foolish individuals can lead to one's own downfall or foolishness. Ananse, a character from Akan folklore known for his cleverness and trickery, is often used in stories to convey moral lessons.
+3. **Translation Clarification:**
+   The translation captures the essence of the original Akan text, which warns against the consequences of associating with foolish people. The phrase "your eyes are open" suggests awareness or enlightenment, while the latter part of the statement implies that one’s choices reflect their own wisdom or lack thereof. The use of Ananse in this context highlights the interplay between intelligence and foolishness, suggesting that even the clever can be led astray by poor choices in companionship.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"My story that I am telling, whether it is good or not, take some and leave some."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - "M'anansesem" = "My story"
+   - "a metooye yi" = "that I am telling"
+   - "se eye de o" = "whether it is good"
+   - "se ennye de o" = "whether it is not good"
+   - "momfa bi nko" = "take some"
+   - "na momfa bi mmera" = "and leave some"
+2. **Cultural Context:**
+   The phrase reflects a common practice in storytelling within Akan culture, where the storyteller acknowledges that their narrative may not resonate with everyone. It emphasizes the subjective nature of stories and experiences, suggesting that listeners should take what they find valuable and disregard what does not apply to them. This approach fosters a sense of personal interpretation and engagement with the narrative.
+3. **Translation Clarification:**
+   The phrase "take some and leave some" implies that the audience is encouraged to discern and select elements of the story that are relevant or meaningful to them. It highlights the interactive nature of storytelling in Akan culture, where the audience is not just passive listeners but active participants who can interpret and apply the lessons or morals of the story in their own lives.</t>
+  </si>
+  <si>
+    <t>o3-mini</t>
+  </si>
+  <si>
+    <t>Translation:
+  “We say, ‘It is indeed so!’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ye’” comes from “yɛ” meaning “we are” or “we say.”
+ • “nse” is a variant form of the verb “to say” or “declare” in context.
+ • “se” functions as a conjunction meaning “that.”
+ • The repeated “nse se” emphasizes the act of saying, and the particle “o” at the end adds a sense of finality or emphasis (similar to an exclamation).
+2. Cultural Context:
+ In Akan expression, repetition is often used to stress certainty and communal agreement. The structure “Ye’ nse se, nse se o” mimics a call-and-response or a rhetorical affirmation common in proverbs and everyday speech. The ending “o” is an emphatic particle that captures the expressive tone of the language, inviting the listener to acknowledge the truth of the statement.
+3. Translation Clarification:
+ The translation “We say, ‘It is indeed so!’” seeks to carry both the literal meaning and the emphatic, cultural nuance of the original. The repetition of “nse se” is rendered as an emphatic affirmation in English (“indeed so”), capturing the intended certainty and communal assent that is characteristic of Akan oral tradition.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse said, ‘A warrior who calls others fools is himself a fool.’”
+Footnote:
+1. Literal Translation Mapping:
+ • “ANANSE SEE” – “Ananse said” (Ananse is a well‐known folk character; “see” translates as “said”).
+ • “O'KO” – “the warrior” (literally one who engages in battle or conflict).
+ • “PE” – “calls” (indicating the act of labeling or accusing).
+ • “‘KWASEA” – “a fool” (a derogatory term for someone foolish).
+ • “NANSO” – “but” (used to contrast the two parts of the proverb).
+ • “ONO ARA NA” – “he alone” or “indeed he alone” (emphasizing that the same person is being referred to).
+ • “OYEE ‘KWASEA” – “is a fool” (asserting that the individual in question is foolish).
+2. Cultural Context:
+ In Akan folklore, Ananse is a ubiquitous trickster and wise storyteller known for dispensing insightful proverbs. This particular saying uses the character of Ananse to comment on hypocrisy: it criticizes those who are quick to label others as foolish while ignoring their own shortcomings. In the cultural setting, respect for wisdom and self-awareness is highly valued, and the proverb serves as a warning against arrogance and self-deception.
+3. Translation Clarification:
+ The proverb is not merely a statement about warriors; it uses the image of a warrior—often associated with strength and honor—to highlight that even those who appear brave or dominant can be ignorant of their own faults. The translation clarifies that the act of calling someone else a fool does not demonstrate insight or wisdom. Instead, it reveals that the accuser (in this case, the so-called “warrior”) is the one displaying foolishness. This kind of moral lesson is typical of Akan proverbs, which often urge self-reflection before passing judgment on others.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse is the one who listens to himself; and he said that a fool never holds his head up high.”
+Footnote:
+1. Literal Translation Mapping:
+ • “ANANSE” – Refers to Ananse, a well-known figure in Akan folklore (the spider often associated with cunning and wisdom).
+ • “na ote ho” – Literally “and listens to himself” (ote = “listens/hears”; ho = “self/about oneself”).
+ • “na osee” – “and he said” (osee is the past form of “to say”).
+ • “o'pe” (ɔpɛ) – “likes” or “desires,” though contextually it is part of the expression.
+ • “kwasea” – “fool” or “idiot.”
+ • “ne no asi nsoa” – A phrase conveying that “his head is not held high” (with “asi” deriving from “to be set/placed” and “nsoa” suggesting “low” or “drooping”).
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, often depicted as a spider who uses his wit—frequently in paradoxical or humorous ways—to solve problems or teach lessons. The proverb contrasts the self-assured, even reflective, nature of Ananse (“the one who listens to himself”) with the behavior of a fool, who, by not holding his head high, symbolizes a lack of self-respect or dignity. In Akan thought, maintaining one’s poise and self-regard is important, and the imagery of a drooping head serves as a metaphor for shame, foolishness, or the inability to stand up to challenges.
+3. Translation Clarification:
+ The translation conveys not just the literal meanings of the words but also the intended proverbial message. “Listens to himself” suggests one who is self-aware or confidently reflective—an attribute associated with Ananse’s cunning. In contrast, the description of the fool as one who “never holds his head up high” implies a failure to maintain dignity or pride. Although the word “ɔpɛ” literally means “desires” or “likes,” in context it helps form the expression that criticizes foolish behavior. This translation seeks to capture both the literal content and the cultural wisdom embedded in the original Akan proverb.</t>
+  </si>
+  <si>
+    <t>Translation:
+"Talk, talk, talk, and you get nothing."
+Footnote:
+1. Literal Translation Mapping:  
+ • “Okyin” appears as a call to speak or chatter. The repetition—“kyin, kyin”—serves to emphasize continual or excessive talking.  
+ • “Wannya” is derived from the verb “nya” (to get or obtain), here in a negative form meaning “does not get.”  
+ • “Bi” means “any” or “a thing,” reinforcing that nothing is gained despite all the talk.
+2. Cultural Context:  
+ In Akan oral tradition, repetition is a common stylistic device used to stress a message or character trait. This proverb warns against empty or excessive talk that yields no tangible results. It reflects a cultural value that emphasizes action over mere words and serves as a caution against boasting or promising without following through.
+3. Translation Clarification:  
+ The translation “Talk, talk, talk, and you get nothing” seeks to capture both the literal meaning and the emphatic, rhythmic quality of the original Akan expression. The repetitive “talk” in English mirrors the original’s repetition while conveying the underlying message that incessant chatter or boasting is futile if not backed by action.</t>
+  </si>
+  <si>
+    <t>Translation: Then Oko met Osansa.
+Footnote:
+1. Literal Translation Mapping:
+ • Na – Translates as “then” or “and then,” indicating a sequence in narrative events.
+ • oko – This is used as a proper noun here, referring to a character named Oko.
+ • hyiaa – Derived from the verb “hyia” meaning “to meet”; “hyiaa” is the past tense form, meaning “met.”
+ • Osansa – Another proper noun representing a character named Osansa.
+2. Cultural Context:
+ In Akan storytelling, sequencing words like “Na” are crucial for setting the stage for events, much like in oral traditions where timing and order matter. Personal names (here, Oko and Osansa) often carry significance and may evoke aspects of identity, familial lineage, or even destiny in Akan culture. This style of brief, impactful narrative is common in Akan tales, where actions and events are recounted succinctly to build a vivid oral history.
+3. Translation Clarification:
+ The translation “Then Oko met Osansa” captures both the literal meaning and the narrative flow of the original Akan text. The word “Na” indicates a transition or a new episode in the story, while “hyiaa” clearly establishes the past occurrence of the meeting. The names remain untranslated because they are identifiers for the individuals involved, preserving the authenticity and character references from the source text.</t>
+  </si>
+  <si>
+    <t>Translation: 
+  Osee, let’s go to Nsoa.
+Footnote:
+1. Literal Translation Mapping:
+  • “Ma” – “let” or “allow”
+  • “yen” – “us” (first person plural)
+  • “ko” – “go”
+  • “si” – used here as an action marker that can imply “proceed toward” or “set one’s course to”
+  • “nsoa” – rendered directly as “Nsoa,” which appears to be a proper noun or specific place/name
+2. Cultural Context:
+  In Akan, using an imperative structure such as “Ma yen” (let us) reflects an inclusive, communal call to action. This form is common when a speaker is rallying a group to move together toward a goal or destination. The mention of “Nsoa” suggests a known locality, event, or institution within the community, highlighting the cultural importance of shared activities and decisions.
+3. Translation Clarification:
+  The translation preserves the imperative tone and the communal invitation of the original text. While most words have direct equivalents (let, us, go), the term “nsoa” is retained as-is because it likely refers to a specific name or concept that does not have an alternative in English. Further context from the source community might shed additional light on the significance of “Nsoa.”</t>
+  </si>
+  <si>
+    <t>Translation:
+Osansa said, "I have meat; I eat (it)."
+Footnote:
+1. Literal Translation Mapping:
+ • Osansa – a personal name, indicating who is speaking.
+ • see – translates as "said."
+ • Me – translates as "I."
+ • wo – corresponds to "have."
+ • nam – translates as "meat."
+ • di – means "eat."
+When combined literally, the sentence reads “I have meat; I eat.”
+2. Cultural Context:
+In Akan culture, meat is often a symbol of wealth, prosperity, or success because it is considered a valuable and desirable part of one’s sustenance. The expression “I have meat; I eat” can signify self-reliance and contentment with one’s own resources. It implies that one makes use of what one has and need not covet what belongs to others, reflecting an attitude of confident self-sufficiency and the importance of personal provision.
+3. Translation Clarification:
+The sentence is straightforward with a subject–verb–object construction in both Akan and English. However, the phrase “me wo” in Akan requires understanding that it implies possession (“I have”), while “me di” means “I eat.” The translation “I have meat; I eat (it)” captures the original meaning without embellishment. The repetition emphasizes the speaker’s assertion of self-sufficiency, culturally resonating as a proverb-like statement reminding listeners of the virtue of using one’s own resources.</t>
+  </si>
+  <si>
+    <t>Translation:
+"Later, the man met Anene, and he said, 'Let us go have a drink.'"
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Na" – "And" or "Then"  
+ • "akyiri yi" – "later" or "afterwards"  
+ • "na" – "and" (used as a connector)  
+ • "oko" – "the man" (referring to the subject)  
+ • "hyiaa" – "met"  
+ • "Anene" – Proper noun (name of the person)  
+ • "na" – "and" (again a connector)  
+ • "osee" – "said"  
+ • "Ma yenko" – "Let us go"  
+ • "si nsoa" – "have a drink" (with "nsoa" referring to drinks, typically alcoholic beverages)
+2. Cultural Context:
+ In Akan culture, social interactions and meetings are often punctuated by informal invitations to share drinks. Such expressions not only serve as a way to initiate a social gathering but also reflect the communal and hospitable nature of interactions. The invitation "Ma yenko si nsoa" is indicative of camaraderie and the cultural importance of spending time together over drinks.
+3. Translation Clarification:
+ The phrase "Ma yenko si nsoa" might literally prompt questions regarding the word "si." In this context, however, it is best understood idiomatically as "have a drink." The translation captures both the literal meaning and the colloquial use of the phrase in Akan, maintaining the informal tone of an invitation among friends.</t>
+  </si>
+  <si>
+    <t>Translation:
+Anene said, "I have heard."
+Footnote:
+1. Literal Translation Mapping:
+ • "Anene" – A proper noun (a person’s name), retained as is.
+ • "see" – Translates directly to "said."
+ • "M'ate" – A contraction of "me ate," meaning "I have heard" (with "ate" derived from the verb "to hear").
+2. Cultural Context:
+ In Akan conversation, acknowledging what has been heard is important for affirming understanding and respect. The brief response "M'ate" not only indicates that the speaker has listened, but also subtly conveys that the message was received and internalized—a common stylistic trait in Akan communication which values succinct, respectful acknowledgment.
+3. Translation Clarification:
+ The phrase "M'ate" is rendered as "I have heard" rather than simply "I heard" to capture the completeness implied in the original Akan form. This translation choice reflects the speaker’s emphasis on having fully taken in the information, a nuance that is culturally and contextually significant in Akan speech.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+“And this is what Osansa said to Anene: ‘That scheme you undertook with Ananse was yours alone; for as Ananse remarked, “Fool,” it was you who set the scheme in motion and ended up pocketing all the money.’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Na yei na Osansa ka kyeree Anene se,”  
+  – “And thus/this is what Osansa said to Anene:”  
+ • “Nsoa a wo'ko ne Ananse asie no, nko,”  
+  – “That scheme (nsoa) which you carried out (wo'ko) with Ananse – the deed (asie) – was solely/alone (nko) yours.”  
+ • “na Ananse se o'pe 'kwasea,”  
+  – “and Ananse said, ‘Fool’ (‘kwasea’ being an insulting term).”  
+ • “na one no asi nsoa no na wadi sika no nnyina.”  
+  – “and it was you (one no) who took on the scheme (asi nsoa) and ended up with all the money (wadi sika no nnyina).”
+2. Cultural Context:
+ • This passage is steeped in Akan folklore where characters like Ananse (the trickster spider) play pivotal roles. Ananse is widely known for his cunning and deceptive ways, often engaging in schemes that result in moral lessons about accountability and mischief. The dialogue between Osansa and Anene reflects a narrative style common in Akan storytelling, in which characters are rebuked or taught lessons through vivid imagery and proverbial language.
+ • The use of the term “kwasea” (fool) is a familiar insult in Akan culture, often employed to highlight poor judgment or moral lapse. The narrative implies that the scheme was not only ill-conceived but also that its fallout—specifically, the wrongful acquisition of money—rests solely on the person’s imprudence.
+ • Such tales serve as cautionary lessons, reminding listeners of the importance of wisdom, responsibility, and the potential personal costs of deceitful endeavors.
+3. Translation Clarification:
+ • “Nsoa” has been rendered as “scheme” to capture the nuance of a plotted or deceptive act, which fits the context of Ananse’s well-documented trickery.
+ • “Wo'ko” is translated as “undertook” to indicate the active role taken by Anene in the scheme.
+ • “Asie” is interpreted contextually as “the deed” or “the act” inherent in the scheme.
+ • “Nko” means “alone” or “solely,” emphasizing personal responsibility.
+ • “Kwasea” is directly translated as “fool,” an epithet used to reprimand poor judgment.
+ • “Wadi sika no nnyina” is understood as “ended up pocketing all the money,” a phrase that succinctly captures the consequence of the fool’s actions in this narrative.
+This expanded footnote aims to illuminate both the literal word-by-word mapping and the broader cultural and contextual nuances underlying the translation.</t>
+  </si>
+  <si>
+    <t>Translation:
+Anene said, "You stop, and I alone will take all the money."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Anene” – A proper name left unchanged.
+ • “see” – Translates directly as “said.”
+ • “Wo” – Means “you.”
+ • “die” – A particle following “Wo” included in the command; it emphasizes the addressed person’s action.
+ • “gyae” – Means “stop” or “cease.”
+ • “na” – Translates as “and” or “for.”
+ • “me na” – Emphasizes “I alone” or “only I”; it indicates exclusivity.
+ • “megye” – Means “I will take” or “I will receive.”
+ • “sika” – Translates to “money.”
+ • “no” – The definite article “the.”
+ • “nnyina” – Means “all” or “entire.”
+2. Cultural Context:
+ • In conversational Akan, direct commands are common and the structure “na me na” stresses personal responsibility or entitlement. It reflects scenarios where individuals assert their exclusive right or decision—potentially in negotiations, disputes, or business settlements.
+ • The use of a command addressed to “you” (with “die gyae”) can be interpreted as a way of politely but firmly urging someone to desist from interfering, highlighting a social norm of clearly defined roles or responsibilities.
+ • Names like “Anene” help ground the statement in a personal context, common in storytelling, proverbs, or dramatic exchanges.
+3. Translation Clarification:
+ • The particle “die” does not have a direct equivalent in English, so it is rendered as part of the imperative “You stop” in order to preserve the force of the command.
+ • The phrase “na me na” is rendered as “and I alone” to emphasize that only the speaker will take action regarding the money.
+ • Overall, the translation maintains both the directness and the authoritative tone of the original Akan text while ensuring clarity for an English-speaking audience.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+“Anene and Ananse quickly went to the farm to cut down a big tree.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Anene” – A proper name left untranslated.
+ • “ne” – Literally “and.”
+ • “Ananse” – A well‐known proper name (the trickster spider in Akan folklore).
+ • “sjim’” – A colloquial or dialect contraction suggesting “quickly” or “promptly” (implying they set off without delay).
+ • “koo” – Derived from “kɔ,” meaning “went” or “set off.”
+ • “wuram’” – A dialect form referring to a familiar place such as “the farm” or “compound” (often associated with one’s home or land in Akan contexts).
+ • “ko” – “to” (indicating purpose or direction).
+ • “twitwaa” – A form of the verb meaning “cut” or “chopped.”
+ • “papa” – Literally “big” (used here to describe the tree’s size or stature).
+2. Cultural Context:
+ • The names Anene and Ananse invoke familiar characters from Akan storytelling, especially Ananse, who is central to many folktales as a clever trickster.
+ • Activities such as going to the farm and cutting down a tree are common narrative elements in Akan proverbs and folk stories, symbolizing labor, change, or the undertaking of a significant task.
+ • The use of contracted forms (sjim’, wuram’, twitwaa) reflects everyday spoken Akan, giving the line an authentic, conversational flavor typical of oral traditions.
+3. Translation Clarification:
+ • The word “sjim’” does not have a direct English equivalent; it has been rendered as “quickly” to capture the sense of immediacy implied by the original.
+ • “Wuram’” is interpreted as “the farm” based on contextual clues; this reflects a place familiar to the speakers where practical work like tree cutting would take place.
+ • “Papa” can mean “good” or “large” in Akan; context here suggests that it emphasizes the tree’s impressive or significant size, so “big” was chosen.
+ • Overall, the translation blends a word‐for‐word mapping with cultural and contextual understanding, ensuring the English rendering remains faithful to both the literal meaning and the spirit of the Akan expression.</t>
+  </si>
+  <si>
+    <t>English Translation:
+Anene called out to Ananse, “Give me the knife so that I can cut, and you, take it when the time is right.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Anene ka kyeree Ananse se” – “Anene called out to Ananse, saying”: 
+  – “Anene” and “Ananse” are the names of the speakers.
+  – “ka” means “said” and “kyeree” implies “called out to.”
+  – “se” introduces the quoted speech.
+ • “Fa sekan ma me” – “Give me the knife”:
+  – “Fa” means “give” (or “bring”).
+  – “sekan” is the word for “knife.”
+  – “ma me” translates as “for me.”
+ • “na me ntwitwa” – “so that I can cut”:
+  – “na” means “and” or “so that.”
+  – “me ntwitwa” conveys “I will cut” or “I can cut.”
+ • “na wo so fa no bere” – “and you, take it when the time is right”:
+  – “wo so” means “you as well.”
+  – “fa no” again uses “fa” (take or give) with “no” referring to the knife.
+  – “bere” literally means “time” but here implies “at the proper time” or “when the time is ripe.”
+2. Cultural Context:
+ • The passage comes from an Akan narrative featuring well-known figures—Ananse, the trickster spider, and Anene—who frequently appear in folklore and proverbs. Dialogues like this are a vehicle for moral lessons and practical wisdom. 
+ • The knife (“sekan”) in Akan culture can be seen as a tool of transformation or separation, symbolizing decisive action or the division of tasks/responsibilities.
+ • The exhortation to “take it when the time is right” reflects the cultural value of acting at the proper moment, emphasizing patience and timing in decision-making and communal endeavors.
+3. Translation Clarification:
+ • Some Akan terms, such as “ntwitwa” (to cut) and “bere” (time), carry layered meanings that extend beyond their literal translations. “Ntwitwa” can suggest making a decisive change or division, while “bere” implies not just any moment, but a moment of opportunity.
+ • The translator’s choices aim to preserve the original proverb’s dual focus on action (using the knife to cut) and timing (taking action when opportune), which is central to many Akan moral and practical teachings.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “Do you think I’m a fool? If that’s so, go ahead and cut me, and take your time doing it!”
+──────────────────────────────
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Me na wo bu me ’kwasea?” literally renders as “Am I the one you call a fool?” Here, “me” means “I,” “wo bu me” means “you judge me/call me,” and “’kwasea” is a term for “fool.”
+ • “ma me ntwitwa” breaks down as “let me be cut.” The verb “twitwa” means “to cut,” so “ma me ntwitwa” is a challenge inviting one to cut or slice.
+ • “na wo so fa no bere” translates word-for-word as “and you too take it time” or “take your time with it.” It implies that the action should be carried out leisurely.
+2. Cultural Context:
+ • Ananse is a well-known trickster figure in Akan folklore, famous for his clever, ironic, and sometimes paradoxical remarks. His speech often carries layers of meaning and provokes the listener to reconsider conventional judgments.
+ • In Akan storytelling, challenging an insult (like being called a fool) by daring the accuser to prove it (even by a drastic act such as “cutting”) is both a display of defiance and wit. It reflects a cultural affinity for using humor and irony to confront criticism.
+ • The invitation to “take your time” further emphasizes the irony – suggesting that if the accuser truly sees him as foolish, they might as well proceed slowly, exposing the absurdity of their judgment.
+3. Translation Clarification:
+ • The translation preserves the confrontational and ironic tone of the original Akan. Ananse is not merely accepting an insult but is mocking the seriousness with which it is delivered.
+ • “Cut me” is taken literally in the text, though its underlying intent is metaphorical: it challenges the accuser to act on their claims.
+ • The overall effect is to show that an insult, even one as sharp as calling someone a “kwasea” (fool), can be defused and inverted through wit and humor, a hallmark of Ananse’s character in folklore.</t>
+  </si>
+  <si>
+    <t>Translation: 
+  "Ananse is twisted, and Anene is around, and he approves."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Ananse" – The proper name referring to the famous spider character in Akan folklore.
+ • "ɛtwitwa" (“e'twitwa”) – Literally derived from the verb meaning “to twist” or “to become twisted,” suggesting being entangled or caught in one’s own schemes.
+ • "na" – A conjunction meaning “and.”
+ • "Anene" – Another proper name; while less commonly encountered than Ananse, it functions here as a character within the proverb.
+ • "te ho" – Literally “is present” or “stands around,” indicating physical or metaphorical presence.
+ • "ɔpene" (“o'pene”) – From the verb meaning “to approve” or “to be pleased with,” rendered here as “he approves.”
+2. Cultural Context:
+ Akan folklore is rich with tales of Ananse, the spider renowned for his cunning and trickery. The juxtaposition of Ananse with a character named Anene (whose role may vary by context) evokes familiar motifs in Akan proverbs—often illustrating lessons about cleverness, misadventure, or the unforeseen consequences of one’s actions. The idea of being “twisted” can serve both as a literal physical state and a metaphor for being entangled in one’s devious plans, whereas the presence and approval of another figure (Anene) might comment on the social acceptance of such behavior or the inevitability of witnessing its outcomes in a community.
+3. Translation Clarification:
+ In translating the line, the forms “e'twitwa” and “o'pene” have been rendered into “is twisted” and “approves” to preserve both their literal meanings and their idiomatic resonance in Akan storytelling. The word “te ho” has been translated as “is around” to capture the sense of presence implied in the original. While subtle nuances in the Akan language (such as the potential for double meanings in words like “twitwa”) can be challenging to render precisely into English, this translation aims to maintain both the descriptive imagery and the proverb’s proverbial tone.</t>
+  </si>
+  <si>
+    <t>English Translation:
+  "Though it has been cut, it has been mended."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Otwitwa" – Derived from the root meaning “to cut” or “to sever.”
+ • "wieye" – Connotes that the action (being cut) is complete or finished.
+ • "na" – A conjunction meaning “but” or “and.”
+ • "ye'kyekyereye" – Comes from a word meaning “to mend” or “to stitch up.”
+2. Cultural Context:
+ In Akan proverbial language, imagery from everyday activities such as cutting and stitching is common. Textiles and their repair symbolize resilience and the ability to restore what is broken in both tangible and abstract ways. This proverb suggests that despite a situation that appears to be damaged or irreparably separated (cut), there is hope and potential for healing and restoration (mending). Such expressions are often used to encourage perseverance in the face of adversity.
+3. Translation Clarification:
+ While the literal mapping gives us “It is cut… it has been mended,” the more natural English rendering is “Though it has been cut, it has been mended.” This phrasing maintains the contrast between the initial damage and the subsequent repair, conveying the idea succinctly and idiomatically for English speakers.</t>
+  </si>
+  <si>
+    <t>Translation:
+Anene said, “Ananse, let me have some of the drink, and you too, take it slow.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Anene see” – “Anene said” (with “see” functioning as “said” in Akan).
+ • “Ananse” – the name of the well‐known trickster spider in Akan folklore.
+ • “ma me” – literally “give me” or “allow me.”
+ • “mfa nsoa” – literally “take the drink”; here “nsoa” refers to an alcoholic beverage (often palm wine) while “mfa” is the imperative form suggesting the act of taking.
+ • “na” – “and.”
+ • “wo so” – “you too” or “as for you.”
+ • “fa no bere” – literally “take it time,” rendered idiomatically as “take it slow” or “enjoy it at your leisure.”
+2. Cultural Context:
+ In Akan oral traditions, characters like Ananse (the spider) are central to folklore and often appear in parables and proverbs with moral or humorous lessons. Sharing drink—typically palm wine—is a common social practice, symbolizing fellowship and hospitality. The line reflects a casual, wise approach to sharing and enjoying life, where one person asks for his share of the drink while advising the other to take their time, perhaps hinting at the importance of moderation and balanced participation in communal activities.
+3. Translation Clarification:
+ The translation has been adapted to preserve the original’s informal tone and cultural nuance. While “mfa nsoa” and “fa no bere” are mapped very literally, they have been rendered as “have some of the drink” and “take it slow” respectively to capture the idiomatic expression in English. The adjustment ensures that both the literal meaning and the social context embedded in the Akan line are clearly conveyed to an English-speaking audience.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Ananse said, "Are you out of your mind, and are you calling me a fool?"
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Ananse" – Refers to the legendary spider and trickster figure in Akan folklore.
+ • "see" – Translates as "said."
+ • "So' ho" – Literally implies questioning one’s state of mind; rendered idiomatically here as "Are you out of your mind?"
+ • "na me na wo bu me" – Literally translates to "and am I the one you call me," clarified in natural English as "are you calling me."
+ • "'kwasea" – A derogatory label meaning "fool" or "idiot."
+2. Cultural Context:
+ Ananse is a central character in Akan folklore, celebrated for his wit and cunning. His speech often carries a playful yet provocative tone, challenging others with humor and irony. This line is typical of his style, as he retorts sharply and humorously when confronted or insulted. The usage of "'kwasea" highlights how insults in Akan narrative traditions are interwoven with humor and a playful mocking attitude.
+3. Translation Clarification:
+ The translation aims to capture both the literal meaning and the cultural flavor of the original text. "Are you out of your mind?" is used instead of a more literal "are you crazy?" to better reflect the rhetorical and teasing tone that Ananse is known for. Similarly, "fool" is used as the closest equivalent to "'kwasea" in order to convey the dismissive and slightly taunting nature of the insult in context.</t>
+  </si>
+  <si>
+    <t>Translation: And uncle is well.
+Footnote:
+1. Literal Translation Mapping:
+ • Na   = “And”
+ • ofa  = “uncle” (a kinship term used for a paternal or maternal uncle)
+ • soaye = “is well” (a compound rendering of “so” and “ayɛ,” meaning “well” or “in good condition”)
+2. Cultural Context:
+ In Akan culture, family members—especially elders and uncles (ɔfa)—are addressed with respect. The phrase is a common, informal way to inquire about or state the well‐being of a relative. Kinship terms hold significant weight in daily communication, and affirming someone’s wellness is both a greeting and a status report that reflects the importance of familial ties.
+3. Translation Clarification:
+ The translation interprets “ofa” as “uncle” based on standard usage in Akan kinship language, and “soaye” as an idiomatic expression meaning “is well.” Although the phrase is succinct, its full meaning relies on contextual familiarity with Akan courtesy expressions. The chosen rendering “And uncle is well” preserves the original’s respectful tone and concise structure.</t>
+  </si>
+  <si>
+    <t>Translation: "Anene ate later and he liked it."
+──────────────────────────────
+Footnote:
+1. Literal Translation Mapping:
+ • “Anene” – Treated as a proper noun referring to a person (or character) named Anene.
+ • “dii” – The past tense of “to eat,” translated as “ate.”
+ • “akyire” – Literally means “later” or “afterwards.”
+ • “na” – A conjunction meaning “and.”
+ • “o'pene” (ɔpene) – Literally means “he liked” or “he approved.”
+2. Cultural Context:
+ In Akan proverbial expressions, everyday actions like eating often serve as metaphors for broader life lessons. Here, the act of eating later may imply that patience or waiting has its own rewards, and the subsequent approval (“liked it”) suggests satisfaction with the result. Such expressions reflect values of deliberation and satisfaction once one has had time to consider or enjoy something fully.
+3. Translation Clarification:
+ The translation “Anene ate later and he liked it” remains as faithful as possible to the structure and literal meanings of the original Akan text. The timing (“later”) coupled with the personal response (“liked it”) is preserved to capture both the sequence of events and the implied moral that sometimes, delaying gratification or action results in a more favorable outcome.</t>
+  </si>
+  <si>
+    <t>Translation:
+“We have arrived home. Anene said, ‘Pour me a drink, for you’ve taken too long.’”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ye’baa ’fie” – Literally translates as “We have come home” (ye’baa: “we arrived”; fie: “home”).
+ • “Anene see” – Literally means “Anene said” (see is a reported speech tag equivalent to “said”).
+ • “Ma me mmeyo nsoa” – Literally “Give me my drink” or “pour me a drink.” Here, “ma me” means “give me” and “mmeyo nsoa” is understood in context to refer to a beverage (often an alcoholic drink in Akan settings).
+ • “na w'afa no bere” – Literally “and you have taken the time” or “for you’ve taken so long.” The phrase emphasizes that the addressee spent a lengthy period, prompting the request.
+2. Cultural Context:
+ In Akan culture, hospitality and the sharing of drinks (often palm wine or other local brews) are important social rituals when people return home. The speaker’s request for a drink underscores both a desire to relax after a journey and an acknowledgment of the other person’s delay. Such interactions are laced with expectations about timeliness, respect, and the ceremonial role of sharing libations in social gatherings.
+3. Translation Clarification:
+ The translation strives to capture both the literal sense and the underlying nuance. “Ye’baa ’fie” is rendered as “We have arrived home” to denote a return, while “Ma me mmeyo nsoa” is interpreted as a casual request to have a drink poured, reflecting common social behavior in Akan-speaking communities. Finally, “na w'afa no bere” is translated as “for you’ve taken too long,” conveying mild reproach over the delay, a nuance that the oral delivery and tone in Akan would emphasize.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, "Never take me lightly—and take your time with it."
+──────────────────────────────
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • "Dabi" – Translates as "never."  
+ • "da" – Works with "dabi" to stress an absolute negation.  
+ • "ma me" – Literally means "to me" or "for me."  
+ • "nyo" – Implies treating someone as insignificant or not worth serious attention.  
+ • "na" – Means "and."  
+ • "wo so" – Connotes "you too" or “elsewhere on your part.”  
+ • "fa no bere" – Literally means “take it time,” indicating to proceed slowly or deliberately.
+2. Cultural Context:
+Ananse is a central figure in Akan folklore, celebrated as a cunning trickster whose seemingly humble nature conceals deep wisdom and insight. In many traditional stories, Ananse uses his wits to outsmart opponents and to remind others not to underestimate him. This line echoes that theme, asserting that even if one might be tempted to disregard him ("take me lightly"), such haste or oversight is foolish; proper care and patience are required when dealing with matters (or with him). This reflects broader Akan cultural values of humility, caution, and the recognition that wisdom often resides in the underappreciated.
+3. Translation Clarification:
+The phrase “ma me nyo” is rendered as “take me lightly” in order to convey the idea of being undervalued or dismissed. Although a literal breakdown might yield a starker “don’t consider me important,” the translation has been adjusted to capture the nuance and conversational tone typical in Akan proverbs. Similarly, “fa no bere” is directly translated as “take your time with it,” suggesting a measured, thoughtful approach rather than a rushed one. Together, the parts of the proverb emphasize respect, careful consideration, and the importance of not underestimating someone—especially someone as wily as Ananse.</t>
+  </si>
+  <si>
+    <t>Translation:
+"And Anene always pursues excellence because he truly desires it."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Na – "And" (serving as a conjunction linking ideas)
+ • Anene – A proper name (Anene)
+ • ko – Literally "go" or "pursue/fight", here used in a metaphorical sense meaning to actively seek
+ • daa – "always" (indicating constancy)
+ • ayeya – A term implying excellence or superior quality
+ • na – "and"
+ • o'pene – A contracted form from "ɔpɛ ne", meaning "he desires it" or "he values it very much"
+2. Cultural Context:
+Akan expressions often use vivid imagery and repetition to stress personal qualities and moral values. In this sentence, the act of “going” (ko) is imbued with a sense of passion and commitment—a common motif in Akan proverbs and moral teachings. Excellence (ayeya) is highly valued, and the phrase emphasizes that one’s pursuit of excellence is driven by inner desire or passion. This reflects a broader cultural appreciation for persistent self-improvement and the celebration of personal ambition.
+3. Translation Clarification:
+While “ko” typically means "go" or "fight," in this context it metaphorically suggests a vigorous and ongoing pursuit rather than a literal battle. Similarly, “ayeya” is translated as “excellence” to capture the idea of superior qualities or achievements, and “o'pene” is rendered as “because he truly desires it” to convey the depth of personal commitment. Together, the sentence celebrates a steadfast, self-motivated commitment to high standards, a sentiment deeply rooted in Akan cultural and moral thought.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “Fool, you claim to know wisdom, but you’re dead.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Ananse – The well‐known trickster figure in Akan folklore.
+ • see – “said.”
+ • Kwasea – Literally “fool” or “idiot.”
+ • wo se – “you say/claim.”
+ • wo nim nyansa – “you know wisdom” (i.e., you are wise).
+ • na – “but.”
+ • wo’wuo no – Literally “you (are) death,” using the term “wuo” for “death.” In this context it serves as a pointed, figurative comment implying a lack of real wisdom.
+2. Cultural Context:
+ In Akan oral traditions, Ananse is a central character who often employs wit and irony to expose the shortcomings of others. The statement reflects a common cultural motif where claiming wisdom without embodying it is met with scorn. The use of “wuo” (death) is a dramatic way of saying that such a person’s claim is lifeless or empty—in effect, their supposed wisdom is as good as dead. This criticism emphasizes humility and the respect for true wisdom in the culture.
+3. Translation Clarification:
+ While “wuo” literally means “death,” in this proverb it is used figuratively to underscore that the person’s claimed wisdom is void or lifeless. The translation “but you’re dead” is understood not as a comment on physical life but as a reprimand indicating that the person’s wisdom is nonexistent or inactive. The translation balances literal word-for-word meaning with the proverb’s intended figurative impact in Akan discourse.</t>
+  </si>
+  <si>
+    <t>Translation:
+“After Ananse had finished the net, Anene said, ‘Hand me the net; I’m off to the river so that you’ll get it in time.’”
+Footnote:
+1. Literal Translation Mapping
+ • “Ananse” – The well‐known spider character in Akan folklore.
+ • “wiee” – “finished” or “completed.”
+ • “nsoa” – Rendered here as “net” (the object that Ananse was working on).
+ • “Anene see,” – “Anene said,” where “see” is a form of “said.”
+ • “Ma me mfa nsoa,” – Literally “Give me (to me) take the net,” rendered as “Hand me the net.”
+ • “me nko nsuom’” – Literally “I go to the water,” here understood as “I’m off to the river.”
+ • “na w'afa no bere.” – Literally “and you have taken it time,” interpreted as “so that you’ll get it in time” (i.e. at the proper moment).
+2. Cultural Context
+ • Ananse is a central figure in Akan folklore, known for his wit and trickery. Tales about Ananse often involve everyday objects that take on symbolic significance—in this case, a net. Nets in such stories can symbolize resourcefulness, the importance of timing, or the relationship between planning and execution.
+ • The dialogue reflects a cultural storytelling style where clever wordplay and the proper sequencing of actions (like going to fetch water at the right time) are key to imparting moral lessons or practical wisdom.
+3. Translation Clarification
+ • The word “nsoa” is interpreted here as “net” based on its context in traditional narratives where Ananse is involved in craft or trickery. Although “nsoa” might have other meanings in different contexts, here it fits the narrative.
+ • “nsuom’” is read as “the water” (commonly understood as a river or body of water); in many Akan stories, going to the water is a common motif for fetching or preparing something.
+ • The phrase “w'afa no bere” is rendered as “you’ll get it in time,” combining the literal sense of “time” with the culturally imbued idea that actions must be done at the proper moment.
+ • Overall, the translation aims to preserve both the literal content and the cultural flavor of the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Ananse said, “No, I’ll be going; you’ve had your time.”
+Expanded Footnote:
+1. Literal Translation Mapping
+ • “Ananse” – The name of the trickster spider character in Akan folklore, unaltered in translation.
+ • “see” – Literally “said.”
+ • “Dabi” – Translates as “No.”
+ • “na” – A conjunction meaning “and” or “but.”
+ • “me'de'ko” – A contraction of “mɛde kɔ” which literally means “I will go.”
+ • “w'afa no bere” – “w'afa” comes from “afa” meaning “have taken” and “no bere” means “the time.”
+2. Cultural Context
+ In Akan folklore, Ananse is a famous character known for his wit and cleverness. His statements often carry a double meaning or serve as a subtle rebuke. In this line, Ananse dismisses further delay or discussion—implying that while he is ready to move on, the other party has already used up their allotted time. The expression “you’ve had your time” echoes a cultural idiom meaning that someone’s opportunity to speak, act, or delay has passed.
+3. Translation Clarification
+ The translation not only presents the literal meaning of the words but also conveys Ananse’s tone of finality and gentle reprimand. Rather than a blunt dismissal, saying “you’ve had your time” reflects a culturally nuanced way of indicating that the other person has, perhaps inadvertently, overstayed their welcome. This rendering preserves both the intent and the flavor of the original Akan expression.</t>
+  </si>
+  <si>
+    <t>Translation: “We went to drink water.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Ye'ko” – Composed of “Yɛ” (we) and “ko” (go), literally meaning “we went.”
+ • “duruu” – The past tense of “duro,” meaning “arrived” or “reached.”
+ • “nsuo” – Means “water.”
+ • “nom” – The verb “to drink” in its past form, here implying the act of drinking.
+2. Cultural Context:
+ In Akan culture, fetching water is often portrayed as a communal activity and an everyday task, reflecting the rhythms of daily life. Phrases like this, found in folk narratives and common speech, evoke a sense of shared responsibility and the simplicity of routine actions. The line might be used in storytelling to emphasize community actions, self-reliance, or the small but vital tasks that bind the community together.
+3. Translation Clarification:
+ The original Akan sentence employs a compact structure that conveys both movement and purpose in a single phrase. While “Ye'ko” and “duruu” sequentially indicate “we went” and “arrived,” the final phrase “nsuo nom” clearly states the action’s purpose, that is, “drinking water.” In rendering the sentence into English, the translator combined these elements into the natural-sounding sentence “We went to drink water,” ensuring that both the process (the journey) and the intended action (drinking water) are preserved.</t>
+  </si>
+  <si>
+    <t>Translation:
+Anene said, “Father Ananse, there is an animal in the water; let me drink this water, and if that animal touches me, then you have taken its death.”
+───────────────────────────── 
+Footnote:
+1. Literal Translation Mapping:
+ • “Anene” – the speaker’s name.
+ • “see” – “said.”
+ • “Agya” – “Father” (an honorific addressing a respected elder).
+ • “Ananse” – the well‐known folkloric figure.
+ • “aboa bi” – “an animal” (aboa = animal; bi = a/some).
+ • “wo nsuom’” – “is in the water” (wɔ = “is/exists”; nsuom’ is a dialectal form of “nsuo,” meaning water).
+ • “na” – “and” or “then.”
+ • “ma me nsim’” – “let me” (ma = “allow”; me = “me”; nsim’ is understood contextually as an action such as to dip or partake).
+ • “me mfa nsoa yi nnum’” – “drink this water” (me mfa = “I take/use”; nsoa (a variant of nsuo) = “water”; yi = “this”; nnum’ = “drink” in the imperative form).
+ • “na aboa no ka me a” – “and if that animal touches me” (aboa no = “that animal”; ka me a = “touches me” or “comes into contact with me”).
+ • “w’afa ne wuo” – “you have taken its death” (w’afa = “you have taken/have claimed”; ne wuo = “its death,” with “wuo” meaning death).
+2. Cultural Context:
+ In Akan folklore, figures like Ananse appear frequently in stories that use animals and cunning language to convey lessons or stipulations. This line is typical of a folkloric negotiation or wager, where conditions are set involving nature and responsibility. The speaker’s proposal—that he be allowed to drink the water despite the presence of a potentially dangerous animal, with the provision that if harmed the addressee (Father Ananse) will be considered responsible for the animal’s death—reflects common cultural themes such as risk, accountability, and the clever use of language. It also demonstrates the interplay between literal description and metaphorical judgment found in traditional Akan proverbs and storytelling.
+3. Translation Clarification:
+ • The translator has rendered “nsuom’” and “nsoa” as “water” despite dialectal variations. In some Akan dialects the word for water (normally “nsuo”) may appear slightly differently.
+ • The phrase “ma me nsim’ me mfa nsoa yi nnum’” is rendered as “let me drink this water,” capturing both the request and the action intended by the speaker.
+ • Finally, the clause “na aboa no ka me a, w’afa ne wuo” is structured to emphasize a condition: if contact is made (i.e. if the animal touches the speaker), responsibility for the animal’s demise falls upon the addressee. The translation strives to maintain the original’s conditional logic and cultural nuance.
+This expanded footnote aims to illuminate both the word‑for‑word correspondence and the cultural storytelling elements embedded in the Akan text.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “Ah! If you think of me as a complete fool, then I’ll go and beat you up—and if you dare speak to me, you’ll have brought death upon yourself.”
+Footnote:
+1. Literal Translation Mapping:
+ • “wo bu me 'kwasea pa” – Literally, “you count me a fool” (with “kwasea” meaning “fool” and “pa” used as an intensifier to imply “complete” or “absolute”).
+ • “me de'ko gum'” – Literally, “I will go (me de kɔ) gum” which idiomatically means “I’ll go and beat you up,” with “gum” referring to a tool or method of beating.
+ • “na oka me a, w'afa no wuo” – Literally, “and if you speak (oka) to me, you’ve taken (w’afa) death (wuo),” implying that speaking to him will lead to deadly consequences.
+2. Cultural Context:
+ In Akan folklore, Ananse is a renowned trickster figure whose sayings and proverbs are rich in metaphor and hyperbole. This line is typical of his witty, almost tongue‐in-cheek style, where a seemingly absurd threat is used both humorously and to underscore the seriousness of respect. The use of exaggerated terms and actions (like “beating up” and “bringing death”) is a common method in oral traditions to make a point or warn against insolence.
+3. Translation Clarification:
+ The translation captures Ananse’s warning in a straightforward English rendering. Rather than being a literal promise of violence, the words are meant to emphasize that underestimating or disrespecting him—as if he were a mere fool—carries severe consequences. The phrase “you’ll have brought death upon yourself” is used idiomatically in English to echo the hyperbolic—and culturally nuanced—tone of the original proverb.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Ananse took the rope and ran off in a flash, and we arrived home.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – The proper name of the famed spider trickster in Akan folklore.
+ • “de” – “took” or “carried.”
+ • “nsoa no” – “the rope” (with “no” marking the definiteness of the noun).
+ • “ko” – “went” or “ran.”
+ • “guum” – An onomatopoeic expression implying rapid speed (“in a flash”).
+ • “na” – “and.”
+ • “ye'baa” – “we arrived” or “we came.”
+ • “‘fie” – “home” (the place where one belongs).
+2. Cultural Context:
+ Ananse is a central character in Akan folklore, known for his cleverness and trickery. Tales featuring Ananse often carry moral lessons, social criticism, or cautionary wisdom. The use of descriptive, rhythmic expressions like “guum” reflects the rich oral tradition of the Akan people, where sound and cadence enhance storytelling. The arrival “home” at the end of the line may symbolize safety or the resolution of a problem after an adventurous or chaotic event, a common theme in traditional Ananse stories.
+3. Translation Clarification:
+ The translator opted for “the rope” for “nsoa” based on context and traditional Ananse narratives—many of which involve a rope as a key prop—though regional variations might allow for other interpretations. The term “guum” does not have a direct English equivalent; “in a flash” was chosen to capture its dynamic, onomatopoeic sense of rapid movement. Similarly, “ye'baa 'fie” was rendered as “we arrived home” to maintain both the literal meaning and the narrative style reminiscent of oral storytelling.</t>
+  </si>
+  <si>
+    <t>Translation:
+  "Adeekyeye, let us go rid ourselves of that troublesome one, and cast away our double-mindedness."
+Footnote:
+1. Literal Translation Mapping:
+ • "Adeekyeye" – A term of address that can be understood as “precious one” or an exclamation calling attention.
+ • "yɛ'ko" – Literally “we go,” used here in an exhortatory sense as “let’s go.”
+ • "fwee" – Means “remove” or “cast aside.”
+ • "nsoa no" – Refers to “that troublesome (or problematic) one.” The term “nsoa” can denote a person or influence deemed undesirable.
+ • "na" – Simply “and.”
+ • "ayi" – Means “remove” or “take away.”
+ • "adwene mmienu" – Literally “two minds,” an expression that implies double-mindedness or indecision.
+2. Cultural Context:
+ In Akan thought, unity of purpose and clear-mindedness are virtues. The admonition against “two minds” reflects the cultural value placed on decisiveness and commitment. Meanwhile, dismissing a “troublesome” element (nsoa) underscores the importance of removing negative influences from one’s path—a common theme in Akan proverbs and admonitions.
+3. Translation Clarification:
+ The translation preserves the original’s imperative tone and layered meaning. “Adeekyeye” sets a warm, respectful tone while urging the listener to take decisive action—removing a problematic influence and abandoning indecision. “Double-mindedness” here is not just literal but conveys a broader warning against divided focus or wavering commitment, a sentiment deeply embedded in Akan cultural wisdom.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Anene said, "Ananse, you take these two, and tomorrow there will be four, and I, too, have taken my share."
+Footnote:
+1. Literal Translation Mapping:
+ • “Anene see” – “Anene said.”  
+ • “Ananse,” – the name “Ananse,” a well-known character in Akan folklore.  
+ • “wo fa mmienu yi” – “you take these two” (where “mmienu” means “two” and “yi” indicates these).  
+ • “na okyena ye'beba” – “and tomorrow there will be” (with “okyena” meaning “tomorrow” and “ye'beba” a contraction meaning “there will come/be”).  
+ • “na ayi nnan” – “and (there will be) four” (with “nnan” signifying “four”).  
+ • “na me so m'afa” – “and I, too, have taken my share” (where “me so” means “I also” and “m'afa” means “have taken mine”).
+2. Cultural Context:
+ In Akan folklore, Ananse is a celebrated trickster figure often involved in stories that impart moral lessons. The use of specific numbers (two and four) may reflect traditional narrative devices or proverbial wisdom common in Akan storytelling. Such phrases are sometimes used in contexts that involve fair division, cunning plans, or moral tests, underscoring community values like sharing and the consequences of actions.
+3. Translation Clarification:
+ The translation aims to preserve both the literal meaning and the underlying cultural tone. “Anene said” introduces the speaker, while the instructions to Ananse are kept direct (“you take these two”). The mention of “tomorrow there will be four” implies an expected increase or change, and “I, too, have taken my share” indicates that the speaker has already acted, signifying participation in a collective arrangement. This nuanced phrasing is maintained to reflect the original narrative style and its socio-cultural implications.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “Ah, you servant, you really consider me a complete fool; you take these two, and tomorrow I’ll take those four.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Ananse see,” – “Ananse said,” introducing the speaker.
+ • “A! akoa yi,” – “Ah, you servant,” where “akoa” is a term referring to a subordinate or someone in a lower position.
+ • “wo bu me 'kwasea pa;” – “you really consider me a complete fool;” here, “bu” means “consider” or “regard,” “me” is “me,” and “kwasea” directly translates as “fool,” with “pa” used for emphasis.
+ • “wo fa mmienu yi,” – “you take these two,” with “fa” meaning “take” and “mmienu” standing for “two.”
+ • “na me so okyena m'afa nnan no.” – “and tomorrow I’ll take those four,” where “okyena” means “tomorrow,” “m'afa” translates as “I will take,” and “nnan” is “four” (with “no” marking the definite form).
+2. Cultural Context:
+ Ananse is a central figure in Akan folklore, renowned as a trickster whose clever—often paradoxical—remarks teach moral lessons. In this line, the dialogue encapsulates a typical interaction where Ananse uses irony and wordplay, challenging perceptions of foolishness and wisdom. The reference to splitting items into “two” and “four” reflects common narrative devices in folktales where negotiations or divisions of goods serve as metaphors for cunning plans or moral lessons. Addressing someone as “akoa” may carry a nuance of superiority or ironic endearment, while calling oneself a “kwasea” (fool) in this context is a rhetorical move that turns the tables, inviting the listener to reflect on misjudgment and the dynamics of cleverness versus naivety.
+3. Translation Clarification:
+ While “akoa” literally means “servant,” it is used here in an exclamatory, possibly ironic sense. Similarly, although “kwasea” straightforwardly means “fool,” in the context of Ananse’s speech it is a self-referential remark that hints at the irony of being underestimated. The numbers “two” and “four” are not arbitrary but serve as important plot elements, suggesting a tactical division of rewards—a common theme in Ananse stories where a seemingly unequal exchange ultimately reveals deeper cunning and moral insight.</t>
+  </si>
+  <si>
+    <t>Translation: "The great ones flourish."
+Expanded Footnote:
+1. Literal Translation Mapping
+ • Anene: Literally rendered as “the great ones” or “the distinguished ones.” In Akan, adjectives like “ene” can be used to emphasize size, importance, or prominence.
+ • Faye: Translates to “flourish” or “live on,” indicating thriving, continuity, or vigorous life.
+2. Cultural Context
+ Akan society places high value on elders, ancestors, and figures of authority—often referred to indirectly as “the great ones.” This phrase resonates with cultural ideals of respect, prosperity, and the enduring legacy of those who have paved the way for future generations. It evokes the belief that greatness, whether in character or deed, continues to influence and prosper through time.
+3. Translation Clarification
+ The translation “The great ones flourish” is not just a word-for-word rendering but also an attempt to capture the spirit and cultural significance embedded in the original Akan phrase. While “anene” literally refers to those held in high regard (often elders or revered figures), “faye” conveys the notion of thriving or persisting in life. Thus, the translation reflects both the literal meaning and the broader cultural commentary on the enduring nature of greatness in Akan thought.</t>
+  </si>
+  <si>
+    <t>Translation: “Beautiful thing, let’s go and pick out four.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Adeekyeye” – Composed of “ade” (thing) and “ekyeye” (a modifier suggesting beauty or preciousness), rendering “beautiful thing.”
+ • “ye'koye” – A contracted form of “yɛ kɔ” meaning “let’s go” or “we are going.”
+ • “na” – Literally “and.”
+ • “ayi nnan” – “ayi” originates from “yi,” meaning “pick” or “choose,” and “nnan” means “four.”
+2. Cultural Context:
+ In Akan speech, descriptive terms like “adeekyeye” are often used as both literal descriptors and forms of respectful address, imbuing the object or subject with admiration. The specific mention of “four” (nnan) is culturally significant, as numbers in many West African traditions are imbued with symbolic meaning—often representing completeness or balance in rituals, communal games, or decision-making processes. This line could be part of a traditional instruction or call to action in a communal or ceremonial setting.
+3. Translation Clarification:
+ The original text uses natural, contracted forms typical in everyday Akan conversation, which can make a literal word-for-word rendering challenging. “Let’s go and pick out four” reflects an imperative or collective decision-making tone inherent in the speech, while “beautiful thing” acts as an affectionate or respectful address. Without additional context, this translation aims to preserve both the literal meanings of the elements and their nuanced cultural implications.</t>
+  </si>
+  <si>
+    <t>Translation:
+Anene said, “You take these four, and tomorrow we will come to take eight, and I have taken my share.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Anene see,” – “Anene said,” (with “see” corresponding to “said”)
+ • “Wo fa nnan yi,” – “You take these four,” 
+  – “Wo” = “you”
+  – “fa” = “take”
+  – “nnan” = “four”
+  – “yi” = “these”
+ • “na okyena ye'beba” – “and tomorrow we will come”
+  – “na” = “and”
+  – “okyena” = “tomorrow”
+  – “ye'beba” = “we will come” (contracted form of “yɛbɛba”)
+ • “na ayi nwotwe,” – “and (to take) eight,” 
+  – “ayi” = “take” (implying the action of taking)
+  – “nwotwe” = “eight”
+ • “na me so m'afa.” – “and I have taken my share.”
+  – “me so” = “I too” or “as for me”
+  – “m'afa” = “I have taken (mine)”
+2. Cultural Context:
+ In Akan discourse, numbers such as four (nnan) and eight (nwotwe) are often used when discussing shares, distribution, or portions in communal or transactional settings. This kind of phrasing can be found in market negotiations, harvest divisions, or even proverbial speeches, where one party outlines the distribution and timing of obtaining portions. The speaker’s declaration “I have taken my share” underscores a sense of entitlement and finality, emphasizing that the speaker has already fulfilled their part of the agreement.
+3. Translation Clarification:
+ The translation stays as literal as possible while capturing the intended meaning of the original Akan. The phrase “you take these four” instructs the listener to claim a portion immediately; “tomorrow we will come to take eight” indicates that additional portions will be collected later; and “I have taken my share” confirms that the speaker has already claimed what was rightfully theirs. The structure mirrors the step-by-step plan often communicated in traditional Akan settings.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, "You call me a fool; you take these four, and tomorrow I’ll take eight."
+Footnote:
+1. Literal Translation Mapping:
+ • Wo – “you”
+ • bu – “call” or “consider”
+ • me – “me”
+ • 'kwasea – “fool” (an insulting term meaning “idiot”)
+ • wo – “you”
+ • fa – “take”
+ • nnan – “four”
+ • yi – “these”
+ • na – “and”
+ • me so – “as for me”
+ • okyena – “tomorrow”
+ • m’afa – “I’ll take”
+ • nwotwe – “eight”
+2. Cultural Context:
+ Ananse is a well-known trickster figure in Akan folklore, renowned for his wit and clever repartee. His sayings and proverbs often employ wordplay and numerical symbolism to deliver lessons about human nature, cautioning against underestimation or short-sighted judgments. This particular line humorously contrasts the immediate gain (“taking four”) with a promise of a greater outcome in the future (“taking eight”), reflecting the clever and often unexpected reversals characteristic of Ananse’s character.
+3. Translation Clarification:
+ The translation converts the Akan structure into natural English while maintaining the humor and the implied lesson. The phrase “You call me a fool” sets the tone of defiant self-assurance, and the contrast between the numbers “four” and “eight” is preserved to highlight Ananse’s cunning promise of future advantage.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+“A thing of quality is admirable, and it attracts respect.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Adeekyeye”: This is a compound where “ade” means “thing” and “ekyeye” suggests “of good quality” or “well-made.”  
+ • “ye'koye”: A contracted form of “yɛ koye,” literally rendered as “is praiseworthy” or “admirable.”  
+ • “na”: A straightforward conjunction meaning “and.”  
+ • “ayi nwotwe”: The phrase “ayi” implies “it brings” or “gathers,” while “nwotwe” conveys “respect” or “admiration.”
+2. Cultural Context:
+In Akan culture, proverbs and aphorisms are used to express deep values and observations about life. This line emphasizes the importance placed on quality—whether in objects, deeds, or character. A good or well-made thing, by its inherent excellence, naturally earns admiration and respect. The proverb reflects a cultural appreciation for craftsmanship, integrity, and excellence that leads to social esteem.
+3. Translation Clarification:
+The translation renders the proverb in an idiomatic English style: “A thing of quality is admirable, and it attracts respect.” Although the literal components refer to “thing” and “quality,” the underlying meaning appeals to any matter—whether a tangible object or a commendable act—that is distinguished by excellence. The choice of “admirable” and “attracts respect” aims to capture both the evaluative and consequential aspects embedded in the original Akan expression.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Anene said, “Take it, for tomorrow I too will have dunsia.”
+Footnote:
+1. Literal Translation Mapping:
+ • Anene – A proper name, unchanged in translation.
+ • see – Translated as “said.”
+ • Fa – Translated as “Take it.”
+ • na – A conjunction meaning “for” or “and.”
+ • okyena – Means “tomorrow.”
+ • me so – Literally “I too.”
+ • m’afa – “I will have” (indicating a future acquisition).
+ • dunsia – A noun referring to a particular item or commodity; the exact meaning may depend on context.
+2. Cultural Context:
+ In Akan expressions, similar phrases often convey reassurance or optimism about the future even when something is taken or lost at present. By saying “Take it, for tomorrow I too will have dunsia,” the speaker implies that while a present opportunity or item is being relinquished, another opportunity or similar asset will be available in the future. This reflects a common cultural theme of resilience and the belief in the continuity of fortune, a sentiment deeply rooted in everyday life and proverbs.
+3. Translation Clarification:
+ The translation aims to preserve both the structure and the underlying sentiment of the original Akan text. Although “dunsia” does not have a direct English equivalent, it has been kept as is to respect its cultural and contextual significance. The phrase is rendered in a way that captures the promise of future gain, mirroring the original’s blend of literal instruction (“Take it”) and future assurance (“...tomorrow I too will have dunsia”).</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse said, “It is I you call a fool—but you even take my ‘nwotwe’—and tomorrow I’ll have acquired dunsia.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse se,” – “Ananse said,” (introducing the speaker, a famous folkloric trickster)
+ • “Me na wo bu me 'kwasea,” – Literally, “I am the one you call ‘kwasea’.” Here, “me” means “I,” “wo bu me” means “you call me” or “label me,” and “'kwasea’” is a term meaning “fool” or “idiot.”
+ • “wo so fa nwotwe,” – Literally, “and you also take nwotwe.” In this phrase, “wo so” means “you also” and “fa” means “take” or “appropriate.” The word “nwotwe” is used metaphorically; while its literal referent may be obscure to non-Akan speakers, it functions in the saying as a minor or trivial thing that is being seized.
+ • “na okyena m'afa dunsia.” – Literally, “and tomorrow I will have acquired dunsia.” Here, “okyena” means “tomorrow,” “m’afa” means “I shall have gotten” or “acquired,” and “dunsia” denotes a reward, benefit, or a form of wealth/status that will come to him.
+2. Cultural Context:
+ • Ananse is a central figure in Akan folklore—often portrayed as a clever, sometimes mischievous trickster whose cunning and wit turn challenging situations to his favor. 
+ • The language of the proverb employs common Akan insults (like “kwasea”) and uses peculiar items or terms (such as “nwotwe” and “dunsia”) that, while not always translating directly, evoke culturally resonant imagery. “Kwasea” is widely understood as calling someone foolish or simple-minded.
+ • The proverb encapsulates the idea that although one may be disparaged or even momentarily taken advantage of, fortune may soon change. It’s a reminder of resilience, wit, and the inevitability of a turnaround—a theme deeply embedded in many Ananse stories and much of Akan wisdom.
+3. Translation Clarification:
+ • The translator has aimed to retain the original’s layered meaning: the speaker (Ananse) acknowledges the insult (“kwasea”) and the act of seizing or misusing something trivial (“nwotwe”), but confidently predicts a reversal of his fortunes when he will acquire something valuable (“dunsia”) by tomorrow.
+ • Because “nwotwe” and “dunsia” are culturally loaded terms that do not have exact English equivalents, they are rendered “as is” to preserve their idiomatic and metaphorical nuance. The translator has provided contextual hints so that English readers understand these terms function symbolically within the proverb rather than literally.
+ • The sentence structure highlights a contrast between present disparagement and future success, a common motif in Akan proverbs and folktales, emphasizing that current setbacks may be the precursor to an unexpected reward.</t>
+  </si>
+  <si>
+    <t>Below is the translation of the Akan text into English, followed by an expanded footnote.
+─────────────────────────────  
+English Translation:
+“Then, when the nail had fallen, Anene called out to Ananse saying, ‘Go fetch the head of the nail; and if you hit it—so that it splinters a little—since your father, Ananse, has approved of this idea, bring that nail head to me.’”
+─────────────────────────────  
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Efei” – “Then” or “Now.”
+ • “na nsoa no asee” – “and the nail had fallen” (nsoa = nail; no = the; asee = fell).
+ • “na Anene ka kyeree Ananse se” – “and Anene said, calling out to Ananse” (ka = said; kyeree = addressed or called out; se = saying).
+ • “Ko fa nsoa funu bra” – “Go fetch (or bring) the nail’s head” (Ko = Go; fa … bra = bring/get; nsoa = nail; funu = head).
+ • “na wo ton a” – “and if you hit it” (wo ton = you hit or pound).
+ • “bafua bi'a, ntanu” – “so that it splinters a little” (bafua bi'a, ntanu is rendered here to capture a caution that when struck it may fracture or split to some extent; the phrase literally indicates that a minor flaw or splitting may occur when you hit it).
+ • “nti wo Agya Ananse gye adwene yi” – “since/therefore your father, Ananse, has approved this idea” (nti = therefore/because; wo Agya = your father; Ananse = Ananse; gye adwene = accepts/approves the idea; yi = this).
+ • “na fa nsoa funu yi ma me” – “and bring me that nail head” (fa = get/bring; nsoa funu = nail’s head; yi = this; ma me = for me).
+2. Cultural Context:
+ • The passage is set within a context of Akan folklore and proverb narratives where characters like Ananse (the spider, known for cunning and wit) often feature in tales of trickery, problem‐solving, and wisdom. Although Ananse is sometimes depicted as a mischievous figure, he is also a repository of clever ideas.
+ • The reference to “nail’s head” is more than a literal object; it may serve as a metaphor for precision or an essential component in the task at hand. In many oral traditions, seemingly trivial objects (like a nail or its head) are imbued with symbolic meaning.
+ • The exchange highlights the importance of following a plan despite potential imperfections (“if you hit it—so that it splinters a little”), showing that even when the outcome is less than perfect, endorsement from a respected figure (in this case, “your father, Ananse”) gives the action its merit.
+3. Translation Clarification:
+ • The phrase “bafua bi'a, ntanu” was rendered as “so that it splinters a little.” Although the individual words might suggest slight damage or splitting upon hitting, the intent in the narrative is to acknowledge that minor flaws may occur during the execution of a plan. The translation captures both the literal and nuanced meaning.
+ • Notice that “Agya Ananse” (Father Ananse) is used in a respectful and authoritative manner. In Akan storytelling, familial titles and honorifics reinforce the respect due to elders or clever, established characters.
+ • The overall tone preserves the instructive and somewhat proverb-like style characteristic of Akan oral traditions, where even commands carry embedded wisdom and cultural insights.
+─────────────────────────────  
+This translation and footnote aim to not only convey the literal meaning of the text but also to provide insight into its cultural and linguistic nuances.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Ananse said, “No, you go and sell your brain, and I, too, will sell this useless hand that I’ve got.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Dabi” – Translates literally as “No.”
+ • “wo” – Means “you.”
+ • “ko tɔn” – Literally “go sell” (using “tɔn” which means “sell”).
+ • “adwene” – Means “brain” or “mind.”
+ • “no” – The definite article “the.”
+ • “fa” – Can be read as “take” or “deal with.”
+ • “na” – Translates as “and.”
+ • “me so” – Means “I too.”
+ • “me’ko tɔn” – Literally “I will go sell.”
+ • “nsoa” – A variant of “nsa,” meaning “hand.”
+ • “funu” – An adjective here suggesting worthlessness or uselessness.
+ • “yi m’afa” – Means “that I have got” (literally “I have obtained”).
+ Thus, word‐for‐word, the sentence builds the idea: “No, you go sell the brain, and I too will sell the useless hand I have obtained.”
+2. Cultural Context:
+ • Ananse is a famous trickster figure in Akan folklore, known for his witty, humorous, and often paradoxical statements.
+ • In many Akan proverbs and Ananse stories, body parts (like the brain and hand) are used metaphorically to comment on the value of one’s intellectual versus manual abilities.
+ • The line plays on the idea that if one is willing to ‘sell’ one’s mind (i.e., undervalue or abandon one’s intellect), then one’s physical assets (even if deemed “useless”) are also for sale. This irony is typical of Ananse’s style; it humorously criticizes the idea of devaluing one’s innate qualities.
+3. Translation Clarification:
+ • The translator has chosen “sell” for “tɔn” to keep the commercial exchange imagery common in Akan expressions.
+ • “Adwene” is rendered as “brain” to capture its metaphorical reference to intellect, while “nsa” is translated as “hand”—both parts often symbolically representing one’s mental and physical faculties.
+ • The descriptor “funu” is interpreted as “useless” to reflect an ironic or self-deprecating tone. Although the term may carry nuanced local connotations, “useless” was selected as it best conveys the humorous devaluation intended in the proverb.
+ • Overall, the translation aims to preserve the wit, cultural depth, and idiomatic flavor of the original Akan line while making it accessible to an English-speaking audience.</t>
+  </si>
+  <si>
+    <t>Translation: “We support one another—go to work!”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ye'soasoaye”: This element is parsed as a contraction where “ye” means “we,” and the embedded “soa” suggests “help/support” while “aye” indicates “do” or “one another” (implying mutual action). In a literal sense, it communicates “we help (or support) each other.”
+ • “koo”: This is the imperative “go.”
+ • “edwam'”: This is a contracted or colloquial form of “adwuma,” which means “work.”
+2. Cultural Context:
+ Akan culture places a strong emphasis on community and collective effort. The idea of mutual support (“we support one another”) is central to many proverbs and everyday sayings in Akan society. Moreover, the call to “go to work” reflects the high value placed on diligence, responsibility, and active contribution to communal life. The expression, therefore, encapsulates both the spirit of communal care and the ethic of hard work.
+3. Translation Clarification:
+ The original text is phrased in a colloquial and contracted form typical of spoken Akan, where words are merged for brevity. “Ye'soasoaye” condenses the idea of mutual assistance, while “edwam'” is an abbreviated form of “adwuma” (work). The translation aims to capture both the literal meaning and the underlying cultural ethos—encouraging the community to support one another and to take action by proceeding to work.</t>
+  </si>
+  <si>
+    <t>Translation: "Now, Anene has finished everything; he has received a great deal of money."
+Footnote:
+1. Literal Translation Mapping:
+ • Seisei – "Now"
+ • na – serving as a temporal or linking particle ("now that" or "as")
+ • Anene – a proper name (referring to the person in question)
+ • die – "that" or "which"
+ • nnyina – "all" or "everything"
+ • asa – "has ended" or "is finished"
+ • onyaa – "received" or "got"
+ • sika – "money"
+ • bebre – "a lot" or "a great deal"
+2. Cultural Context:
+ The sentence reflects a common Akan narrative style where the completion of one’s affairs (or the finalization of business) is closely linked with the attainment of wealth. In Akan culture, the orderly conclusion of matters is often celebrated as it is seen as paving the way for prosperity. Additionally, using a person's name (here, Anene) highlights personal responsibility or achievement in reaching success.
+3. Translation Clarification:
+ The phrase "Seisei na Anene die nnyina asa" is rendered as "Now, Anene has finished everything" to capture both the immediacy ("Seisei") and the complete conclusion ("nnyina asa") of all matters concerning Anene. The second clause "onyaa sika bebre" is translated as "he has received a great deal of money," directly conveying that, as a result or at the same time, a considerable amount of money has come his way. The structure preserves the cause–effect or time sequence implicit in the original Akan expression.</t>
+  </si>
+  <si>
+    <t>Translation: And Ananse has spoken.
+Footnote:
+1. Literal Translation Mapping:
+ • "Na" – Translates as "And" or "Then," serving as a conjunction.
+ • "aka" – Is the perfect form of "ka," meaning "has spoken" or "spoke."
+ • "Ananse" – A proper noun referring to the well-known folklore character, Ananse.
+2. Cultural Context:
+ Ananse is a central trickster figure in Akan folklore, often depicted as a spider. The character is renowned for using cleverness and wit to overcome challenges. In many traditional stories, the line "Na aka Ananse" signals the conclusion of a narrative or a twist that highlights Ananse’s clever nature.
+3. Translation Clarification:
+ The phrase has been rendered literally as "And Ananse has spoken" to preserve both the structure and the cultural nuance. While simple in structure, this translation carries with it the weight of a narrative tradition where Ananse’s words often impart wisdom, moral lessons, or a subtle critique, depending on the context of the story.</t>
+  </si>
+  <si>
+    <t>Translation:
+“Then Anene said to the one he had called, ‘Take this funu nsoa over to Kyin, and we will beat it.’”
+Footnote:
+1. Literal Translation Mapping:
+ • “Na” – “Then” or “And then”
+ • “Anene” – a proper name (Anene)
+ • “ka” – “said”
+ • “kyeree no” – “to the one he called/summoned” (with “kyeree” suggesting a beckoning or summoning action and “no” serving as the object marker)
+ • “se” – “that” (introducing the quoted speech)
+ • “Fa” – “Take” (an imperative command)
+ • “nsoa funu yi” – “this funu nsoa” (the words “nsoa” and “funu” denote a specific object; their literal meanings are maintained as terms referring to that object)
+ • “ko” – “go”
+ • “kyin” – (a directional or locative term, retained here as “Kyin” which may refer to a specific place or direction)
+ • “na” – “and”
+ • “ye'beto” – “we will beat it” (a contraction of “yɛ beto” indicating a future action)
+2. Cultural Context:
+ In Akan narratives—often found in folklore, proverbs, or instructional tales—direct commands may involve specific items whose names (like “nsoa” and “funu”) carry contextual or symbolic significance. The direction “Kyin” might refer to a customary location or a traditional point of reference. Acts such as “beating” an object can be part of ritual preparations, communal games, or metaphorical expressions in storytelling. Retaining these terms in translation preserves the cultural flavor and invites further inquiry into their local meanings and applications.
+3. Translation Clarification:
+ Since “nsoa funu” and “Kyin” are culturally embedded terms and may not have direct equivalents in English, they are transliterated. The translator has rendered the overall sentence to reflect both the literal commands and the implied cultural setting. “Beto” is understood in context as “beat,” which may reference a physical action (such as pounding or striking) common in various Akan cultural practices.
+This translation thus seeks to remain as faithful as possible both to the literal structure of the Akan sentence and to its cultural underpinnings.</t>
+  </si>
+  <si>
+    <t>Translation:
+Ananse continued; he said, “I don’t like bad alcohol, oh!”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Ananse” – The proper name, referring to the well‐known trickster figure in Akan folklore.
+ • “maa so” – Literally “continued” or “went on.”
+ • “osee” – Translates as “he said.”
+ • “Me” – Means “I.”
+ • “ton” – A verb here conveying “dislike” or “reject” (implying a refusal or aversion).
+ • “nsoa” – The term for “alcohol.”
+ • “funu” – An adjective meaning “bad” or “poor quality.”
+ • “o” – A colloquial exclamation particle used for emphasis.
+2. Cultural Context:
+ In Akan folklore, Ananse is a central character known for his clever, sometimes mischievous, ways. His comments, even if seemingly simple, often carry a humorous or instructive twist that reflects cultural attitudes. Alcohol—in many West African settings—is not just a drink but part of social and ritual life. Criticizing “bad alcohol” might be a tongue‐in‐cheek remark highlighting standards and personal pride, while the exclamation “o!” adds an informal, emphatic flavor to the statement, common in everyday Akan speech.
+3. Translation Clarification:
+ The translation interprets “ton” as “don’t like” to capture Ananse’s clear rejection, and “funu” is rendered as “bad” to describe substandard alcohol. The overall tone is informal and expressive, mirroring the conversational style of the original. Although nuances of tone and cultural slang can be challenging to capture perfectly in English, the translation aims to preserve both the meaning and the flavor of the spoken language in the original Akan text.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Then the town elder composed himself and said, “Where did this servant come from? Why didn’t you go and call him so that he wouldn’t come?” Ananse was clever.
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Na” – “Then” or “And then.”
+ • “odekuro” – Literally “old/town man,” interpreted as the town elder or an authoritative elder.
+ • “teye” – Conveys a state of composure or proper bearing; here it sets the scene by noting the elder’s calm or dignified posture.
+ • “na osee” – “And he said,” introducing the spoken words.
+ • “Akoa” – Literally “servant” or “worker,” referring to the individual being questioned.
+ • “yi” – “This.”
+ • “firi he” – “Come from where?” (a direct inquiry about the origin of the servant)
+ • “mo nko fre no” – “You (plural) go call him,” an imperative addressing the group.
+ • “mma no mmera” – “So that he does not come” (a request to prevent his arrival).
+ • “Ananse koye” – “Ananse was clever,” with “koye” denoting cleverness or cunning—an attribute commonly associated with Ananse in folklore.
+2. Cultural Context:
+ Akan folklore frequently features Ananse, the trickster spider, whose cleverness and cunning are central to many traditional stories. The town elder’s authoritative role reflects the high regard for seniority and communal leadership in Akan society. The command addressed to the group (“mo nko fre no”) underscores the communal responsibility and the emphasis on order and respect within the community. The entire exchange is typical of moral tales where the behavior of individuals (and their roles) is examined in light of community expectations.
+3. Translation Clarification:
+ The translation strives to maintain both the narrative tone and the cultural nuances of the original Akan. “Akoa” is translated as “servant,” though in some contexts it might also imply a subordinate or messenger. “Odekuro” is rendered as “town elder” to capture the respect and authority inherent in his role. “Teye,” while it could mean “sit” or “behave,” is interpreted here as the elder maintaining his composure. Lastly, “Ananse koye” is translated as “Ananse was clever,” directly referencing his well-known characteristic of craftiness in Akan folklore.</t>
+  </si>
+  <si>
+    <t>Translation:
+Odekuro said, “Do you really believe that we in your town are fools? And haven’t you noticed that your friend—with that thick, concrete mind—has already become a rotten burden for us?”
+──────────────────────────────
+Footnote:
+1. Literal Translation Mapping:
+ • “Wo gye di se” – “You believe that”
+ • “yen a ye'wo kurom' ha” – “we who are in your town here” (i.e. “we in your town”)
+ • “ye'ye nkwasea” – “are fools/idiots”
+ • “na” – “and”
+ • “wo yonko” – “your friend/companion”
+ • “beton adwene” – literally “concrete (or stone-like) mind,” implying a dull or thick-headed mind
+ • “w'anhu” – “you haven’t seen”
+ • “w'abe-ton” – “you have added” or “you have come to place upon”
+ • “nsoa funu” – “a rotten (or stinking) burden” (suggesting something burdensome and negative)
+ • “ama yen” – “for us”
+2. Cultural Context:
+ In Akan discourse, terms like “nkwasea” (fool) and “beton adwene” (literally “concrete mind”) carry strong weight as insults. They are not mere comments on intelligence but also serve to shame someone publicly within the community. The passage reflects an admonition from an elder (Odekuro) challenging someone’s assumption or treatment of his own community; it criticizes not only a perceived foolishness in others but also implies that the friend’s lack of insight is bringing disgrace or extra burden to them. Such expressions emphasize communal accountability and respect in Akan culture.
+3. Translation Clarification:
+ While a word‐for‐word translation would render “beton adwene” as “concrete mind,” a culturally sensitive English version opts for “thick, concrete mind” to evoke the idea of stubborn, dull thinking. Similarly, “nsoa funu” is interpreted as “a rotten burden” instead of a literal “load of stench,” better conveying the metaphorical weight and negative impact the person has on the community. The translation balances literal phrasing with idiomatic expressions to preserve both meaning and cultural nuance.</t>
+  </si>
+  <si>
+    <t>Translation:
+Odekuro said, "Leave him alone."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • Odekuro – A proper noun; in this context it is the name or title of the speaker.
+ • see – Literally “said.”
+ • mo – The plural form of “you.”
+ • mmo' – An imperative form derived from the verb meaning “to leave” or “to let be.”
+ • no – A pronoun referring to “him” (or “it”) as the object.
+Combined literally, the sentence maps to “Odekuro said, ‘You leave him alone.’”
+2. Cultural Context:
+ In Akan discourse, direct commands like this are common, especially when a respected figure or elder (as indicated by the name “Odekuro”) is addressing a group. The use of the plural “mo” affirms that the instruction is meant for multiple people, emphasizing a collective responsibility to refrain from interfering or harming the person referred to. Such a directive reflects cultural values of respect, protection, and communal care.
+3. Translation Clarification:
+ The translator has rendered “mmo'” as the imperative “leave” to best capture the tone and intent of the original command. The slight contraction in the Akan form (“mmo'”) is interpreted as an instruction to “leave him alone,” taking into account the linguistic brevity and oral style characteristic of Akan commands. The translation preserves the directness and authority of the original speech while ensuring it is clear and natural in English.</t>
+  </si>
+  <si>
+    <t>Translation: “And we got rid of it.”
+Footnote:
+1. Literal Translation Mapping:
+ • “Na” translates as “And” (a conjunction linking the statement to preceding context).
+ • “yɛ” means “we.”
+ • “fwee” is rendered as “got rid of” – a verb indicating the act of discarding or dismissing something.
+ • “no” is a definite marker referring to “it.”
+2. Cultural Context:
+ In Akan storytelling and everyday speech, actions like discarding or dismissing something often carry both a literal and a metaphorical meaning. The phrase “Na yɛ'fwee no” might be used to convey that after discussing or confronting an issue, the speaker and their group decided to remove it from their concern or context. This reflects a cultural tendency in Akan communication to signify closure or a decisive action against a problem or unwanted element.
+3. Translation Clarification:
+ The term “fwee” can imply physically throwing something away or figuratively letting go of an issue. In this context—and without additional surrounding text—the natural interpretation is that “we got rid of it,” capturing the sense of an action completed in a definitive manner. This rendering aims to stay true to both the literal phrasing and the cultural connotations embedded in the Akan expression.</t>
+  </si>
+  <si>
+    <t>Translated Text:
+Then Anene said, “Ananse, you’ve seen that your eyes have gone dead; you say that if you want a fool to work, you’ve seen that you yourself are the fool.”
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “Na Anene see,” – “Then Anene said,” introducing a spoken statement.
+ • “Ananse w'ahu, w'ani awu;” – Literally, “Ananse, you have seen, your eyes have died.” Here, “w'ahu” means “you have seen/observed” and “w'ani awu” literally translates as “your eyes are dead,” an idiomatic way to note a loss of proper judgment or perception.
+ • “wo se wo'pe 'kwasea ne no aye adwuma,” – Literally, “you say that if you desire a fool to work.” “Wo se” is “you say,” “wo'pe” conveys “you want/desire,” and “‘kwasea” means “fool.” The phrase “ne no aye adwuma” implies that the fool is indeed engaged in work.
+ • “w'ahu se wo'a na wo ye 'kwasea.” – Literally, “you have seen that if that is so, then you are the fool.” The repetition of “w'ahu” (you have seen) emphasizes the observation, and the final phrase directly identifies the speaker as foolish.
+2. Cultural Context:
+This proverb reflects a common theme in Akan folklore where characters like Ananse (the spider) and those around him are used to impart moral lessons about self-awareness and the nature of foolishness. The expression “your eyes have gone dead” is not a literal statement but an idiom suggesting that someone’s judgment or perception has failed. Similarly, questioning someone’s decision to employ a fool implies that, in doing so, they reveal their own lack of discernment—a caution against self-deception and misplaced expectations.
+3. Translation Clarification:
+Certain Akan idioms, such as “w'ani awu” (your eyes have died), carry implied meanings about diminished awareness rather than a physical state. Likewise, the term “‘kwasea” not only labels a person as a fool but also conveys a deeper critique of imprudent behavior. The translation strives to balance the literal word meanings with the proverbial and cultural nuance, ensuring that the original’s admonitory tone and metaphorical structure are maintained in English.</t>
+  </si>
+  <si>
+    <t>Translation:
+"My story that I am now telling goes: Whether it is good or whether it isn’t, take some and leave some."
+Expanded Footnote:
+1. Literal Translation Mapping:
+ • “M'anansesem” – Literally “my Ananse story.” In Akan, “anansesem” refers to the traditional folktales associated with the spider Ananse, symbolizing wisdom and cunning.
+ • “a metooye yi” – Translates as “that I am now telling (or singing).” The phrase emphasizes the act of narrating a story.
+ • “se eye de o” – Literally “if it is good, oh!” where “eye” means “it is good” and the exclamation “o” adds emphasis.
+ • “se ennye de o” – Literally “if it is not good, oh!” with “ennye” meaning “it is not.”
+ • “momfa bi nko” – Translates as “take some only,” instructing the listener or reader to accept a portion.
+ • “na momfa bi mmera” – Means “and do not take it all,” advising against accepting everything indiscriminately.
+2. Cultural Context:
+ Akan oral tradition highly values storytelling, especially through Ananse tales, which are not only entertaining but carry moral and practical lessons. The proverb advises careful discernment: regardless of the quality of the story (or situation), one should take what is beneficial and leave behind what is not useful. This reflects a broader cultural wisdom emphasizing moderation, critical evaluation, and the selective adoption of ideas rather than an uncritical full acceptance.
+3. Translation Clarification:
+ The translation has been rendered to preserve both the literal meaning and the underlying advice inherent in the original text. “Take some and leave some” encapsulates the idea of extracting value selectively. Even if a narrative (or advice) might have both good and less desirable elements, the listener is encouraged to adopt only the aspects that are truly beneficial. This nuanced approach reflects the traditional wise counsel embedded within Akan proverbs and underscores the valued practice of thoughtful reflection before adopting ideas wholesale.</t>
+  </si>
+  <si>
+    <t>o1-mini</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Indeed, it is so."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **"Ye' nse se"** translates directly to **"It is not so."**
+   - **"nse se o"** serves as an emphatic repetition, reinforcing the statement's affirmation.
+2. **Cultural Context:**
+   - In Akan culture, repetition is a common rhetorical device used to emphasize certainty and agreement. Phrases like "nse se o" are employed to strengthen the speaker's assertion, reflecting the community's value on clear and emphatic communication.
+3. **Translation Clarification:**
+   - Although the literal translation of **"Ye' nse se"** suggests a negation (**"It is not so."**), within cultural and contextual usage, the phrase acts as an affirmative statement. Therefore, translating it as **"Indeed, it is so."** accurately conveys the intended meaning, aligning with the emphasis and affirmation present in the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Ananse saw the man buying 'Kwasea', but it was only he himself who was 'Kwasea'.¹"
+---
+¹ **Footnote:**
+1. **Literal Translation Mapping:**
+   - **ANANSE SEE**: "Ananse saw"
+   - **O'KO**: "the man"
+   - **PE 'KWASEA**: "buying 'Kwasea'"
+   - **NANSO**: "but" or "however"
+   - **ONO ARA NA OYEE 'KWASEA**: "it was only he himself who was 'Kwasea'"
+2. **Cultural Context:**
+   - **Ananse** is a prominent figure in Akan folklore, often portrayed as a clever spider known for his wit and sometimes deceptive behavior. He symbolizes intelligence, strategy, and the complexities of human nature.
+   - **'Kwasea'** in Akan typically refers to laziness or idleness. It can also imply someone who avoids work or responsibility, sometimes used metaphorically to describe unproductive behavior.
+3. **Translation Clarification:**
+   - The proverb conveys a message about self-awareness and hypocrisy. While Ananse observes another person exhibiting lazy behavior ('Kwasea'), he recognizes that he too engages in the same trait. This highlights the universal tendency to notice others' flaws while being blind to one's own, emphasizing the importance of introspection and consistency in behavior.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse is present, and he says he enjoys deceiving others with his tricks.
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **ANANSE:** Ananse (the spider), a central figure in Akan folklore known for his wisdom and trickery.
+   - **na:** and/he/she (as a conjunction or subject marker).
+   - **ote ho:** is present/is around.
+   - **na osee:** and he says.
+   - **o'pe:** he likes/enjoys.
+   - **'kwasea ne no asi nsoa:** deceiving others with his tricks (where "'kwasea" refers to deceit or trickery, and "asi nsoa" implies acting upon or implementing something).
+2. **Cultural Context:**
+   Ananse is a quintessential character in Akan mythology, often depicted as a spider. He embodies the traits of cunning, intelligence, and sometimes deceit. Stories of Ananse are used to convey moral lessons, explain natural phenomena, and entertain. His role as a trickster allows him to outwit others, highlighting themes of wisdom, survival, and the complexities of human behavior.
+3. **Translation Clarification:**
+   The phrase "'kwasea ne no asi nsoa" directly relates to Ananse's penchant for trickery. While "kwasea" can be interpreted as deceit or cunning, "asi nsoa" emphasizes the act of implementing or executing these tricks. Thus, the translation captures not just the act of deceiving but also Ananse's enjoyment and habitual nature in using his wits to manipulate situations or others.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Stop hiding, you have nothing."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Okyin**: "Stop" or "Cease"
+   - **kyin, kyin**: Repetition of the verb "to hide"
+   - **wannya bi**: "You have nothing" (`wannya` meaning "nothing" or "do not have," and `bi` serving as an indefinite pronoun meaning "something" or "anything")
+2. **Cultural Context:**
+   - In Akan culture, proverbs and expressions often use repetition for emphasis. The phrase "kyin, kyin" reinforces the action of hiding, indicating not just a single instance but a persistent or habitual behavior.
+   - This expression can be used in various contexts, such as urging someone to stop avoiding responsibility, to come forward and face a situation, or to cease deceptive behavior.
+3. **Translation Clarification:**
+   - While the literal translation captures each word's meaning, the intended nuance is better conveyed in English as "Stop hiding, you have nothing." This reflects both the command to cease hiding and the accusatory tone that the person hiding lacks anything substantial or worthy.
+   - The repetition of "kyin" is not directly translated but is implied in the emphatic tone of the English translation.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"Then the husband met Osansa."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** = Then
+   - **Oko** = Husband
+   - **Hyiaa** = Met
+   - **Osansa** = Osansa (a deity)
+2. **Cultural Context:**
+   Osansa is a prominent deity in Akan mythology, revered as the god of war, thunder, and leadership. Encounters with Osansa in stories often symbolize pivotal moments of conflict, decision-making, or divine intervention. Such meetings can represent significant turning points in narratives, reflecting the deity's influence on human affairs and societal structures.
+3. **Translation Clarification:**
+   The word "Na" in Akan can serve multiple functions, including "and," "but," or as a temporal marker meaning "then." In this context, "Na" is best translated as "Then" to convey the sequence of events naturally in English. Additionally, "Osansa" is kept untranslated as it is a proper noun referring to a specific deity, preserving the cultural and mythological significance in the translation.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Osee said, "Let us go prepare the meal."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Osee:** A personal name, likely referring to an individual.
+   - **Ma yen:** "Let us" (`Ma` = "Let" and `yen` = "us" or "we").
+   - **Ko:** "Go."
+   - **Si:** "Prepare" or "make."
+   - **Nsoa:** "Meal" or "food."
+2. **Cultural Context:**
+   In Akan culture, communal meals are significant social events that reinforce community bonds and cooperation. The act of preparing meals together is often viewed as a collective responsibility, emphasizing teamwork and unity within the group.
+3. **Translation Clarification:**
+   While the literal translation of "Ma yen ko si nsoa" breaks down to "Let us go prepare the meal," the phrase captures not just the action of preparing food but also the cultural emphasis on communal effort and togetherness. Therefore, the translation maintains the essence of collaboration inherent in the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"The elephant says, 'I walk my own path.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Osansa* – "The elephant"
+   - *see* – "says"
+   - *Me wo nam me di* – "I walk my own path."
+     - *Me* – "I"
+     - *wo* – "on"
+     - *nam* – "path"
+     - *me di* – "I walk"
+2. **Cultural Context:**
+   In Akan culture, the elephant (*osansa*) symbolizes strength, wisdom, and leadership. Elephants are revered for their intelligence and social structures, often representing resilience and steadfastness. The proverb reflects the cultural value placed on individuality and self-determination, emphasizing the importance of forging one's own path rather than following others.
+3. **Translation Clarification:**
+   While the literal translation conveys the direct meaning, the underlying message encourages personal independence and perseverance. It suggests that one should stay true to their own journey and decisions, even in the face of challenges. This aligns with English expressions like "marching to the beat of your own drum" or "following your own path," highlighting the universal theme of self-reliance.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"So later, the man met Anene, and he said, 'Let us go set sail.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na**: So / Then
+   - **akyiri yi**: later
+   - **na**: and
+   - **oko**: the man
+   - **hyiaa**: met
+   - **Anene**: (a personal name)
+   - **na osee**: and he said
+   - **"Ma yenko si nsoa."**: "Let us go set sail."
+2. **Cultural Context:**
+   - In Akan culture, names like Anene hold significant meaning and may reflect familial lineage or characteristics.
+   - Setting sail ("si nsoa") can symbolize embarking on a new journey or undertaking a significant endeavor, reflecting themes of adventure or transition common in Akan storytelling.
+   - The interaction between the man and Anene may depict traditional social interactions where decisions about journeys or communal activities are made collaboratively.
+3. **Translation Clarification:**
+   - The phrase "si nsoa" is translated as "set sail," which captures the metaphorical sense of beginning a journey. While "nsoa" directly relates to sailing or boating, in context, it may metaphorically represent embarking on any significant endeavor.
+   - The translation maintains the conversational tone of the original text, ensuring that the imperative "Ma yenko" ("Let us go") reflects a proposal or invitation, which is essential for understanding the dynamics between the characters.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene said, "I understand."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Anene**: A personal name.
+   - **see**: Literally translates to "said" in this context.
+   - **"M'ate."**: Literally means "I have heard."
+2. **Cultural Context:**
+   - In Akan culture, names like Anene are commonly used in dialogues to represent individuals in conversations or narratives.
+   - The phrase "M'ate" is often used in everyday conversations to signify understanding or acknowledgment, reflecting a confirmatory response in communication.
+3. **Translation Clarification:**
+   - While "M'ate" literally translates to "I have heard," its contextual meaning aligns more closely with "I understand" in English. This interpretation ensures the translated sentence accurately conveys the intended message and maintains the conversational tone of the original Akan text.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And this is how Osansa told Anene that, 'The load you are going to leave with Ananse is only, and Ananse says he does not like mischief, and the one who took the load has already spent all the money on it.'"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na yei na** → "And this is how"
+   - **Osansa ka kyeree Anene se** → "Osansa told Anene that"
+   - **Nsoa a wo'ko ne Ananse asie no** → "The load you are going to leave with Ananse"
+   - **nko** → "only"
+   - **na** → "and"
+   - **Ananse se o'pe 'kwasea** → "Ananse says he does not like mischief"
+   - **na one no asi nsoa no na wadi sika no nnyina** → "and the one who took the load has already spent all the money on it."
+2. **Cultural Context:**
+   In Akan folklore, **Ananse** is a well-known spider character renowned for his intelligence and trickery. **Osansa** is another significant deity, often associated with leadership and wisdom. The interaction between Osansa and Anane (a variant of Ananse) reflects traditional narratives where wisdom is shared, and the traits of characters like Ananse are highlighted to convey moral lessons about trust and the responsible handling of resources.
+3. **Translation Clarification:**
+   - The term **"nko"** is translated as "only" to emphasize the limited nature of the load being entrusted.
+   - **"Kwasea"** directly translates to "mischief," but in the cultural context, it implies deceit or trickery, which is why it's rendered as "does not like mischief" to convey Ananse's aversion to causing trouble.
+   - The phrase **"nnyina"** suggests completeness or entirety, hence "has already spent all the money" accurately captures the intended meaning.
+   - The overall structure maintains the conversational tone between Osansa and Anene, preserving the original message's intent and cultural nuances.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene says, "If you die and give up, then I will collect all the money."¹
+---
+**Footnote:**
+¹
+1. **Literal Translation Mapping:**
+   - **Wo** – "You"
+   - **die** – "die"
+   - **gyae** – "give up" or "stop"
+   - **na** – "and" or "then"
+   - **me na** – "I will"
+   - **megye** – "collect"
+   - **sika no** – "the money"
+   - **nnyina** – "all"
+2. **Cultural Context:**
+   In Akan culture, expressions regarding life, responsibility, and ownership often reflect deeper social and familial relationships. Anene's statement suggests a scenario where she asserts authority or responsibility over financial matters contingent upon another person's inability or decision to continue managing them. This can reflect themes of trust, inheritance, and the distribution of assets within family structures.
+3. **Translation Clarification:**
+   The sentence conveys a conditional situation: if the addressed individual "dies" (which can metaphorically mean ceases to act or withdraws) and "gyae" (gives up or stops), then Anene will take full control of the financial resources ("collect all the money"). The use of "nnyina" emphasizes the totality of the money involved, indicating that Anene intends to assume complete ownership or management in the specified circumstance.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Anene and Ananse went into the forest to cut down a big tree."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Anene ne Ananse**: "Anene and Ananse"
+   - **sjim' koo**: Likely a dialectal variation of "sɛm kɔ," translating to "went to" or "went into"
+   - **wuram' ko twitwaa papa**:
+     - **wuram'**: "the forest"
+     - **ko**: "go"
+     - **twitwaa**: "cut down"
+     - **papa**: "big" or "large"
+2. **Cultural Context:**
+   - **Ananse**: A prominent figure in Akan folklore, Ananse is often depicted as a spider and serves as a symbol of wisdom, cunning, and storytelling. He is a trickster character who plays pivotal roles in many traditional stories, teaching lessons about intelligence and resourcefulness.
+   - **Anene**: Likely a human character in the story, representing ordinary individuals who interact with mythical or folklore figures like Ananse.
+   - **Forest (wuram)**: In Akan culture, the forest is a significant setting often associated with adventure, challenges, and the unknown. It serves as a backdrop for many folk tales where characters undergo trials or seek important resources.
+3. **Translation Clarification:**
+   - The phrase "sjim' koo" appears to be a dialectal or colloquial variation of "sɛm kɔ," meaning "went to" or "went into." This reflects regional linguistic nuances within the Akan language.
+   - The action of cutting down a "big tree" ("twitwaa papa") may hold symbolic meaning, potentially representing the undertaking of a significant task or the transformation of a natural resource within the narrative.
+   - The collaboration between Anene and Ananse suggests a partnership between the human and the folklore character, which is a common theme in Akan stories, highlighting the interplay between everyday life and traditional beliefs.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene told Ananse, "Take a knife for me and I will cut it, and you also take the time."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Anene ka kyeree Ananse se* → "Anene told Ananse that"
+   - *Fa sekan ma me na me ntwitwa* → "Take a knife for me and I will cut it"
+   - *na wo so fa no bere* → "and you also take the time."
+2. **Cultural Context:**
+   In Akan folklore, Ananse the spider is a central character known for his wisdom and cunning. Anene is often portrayed as a counterpart or counterpart figure to Ananse, representing different traits or roles within the stories. The act of sharing tools and time reflects communal values and cooperation, which are significant in Akan society. Using tools like a knife (*sekan*) is common in daily life for various tasks, symbolizing the importance of sharing resources to achieve collective goals.
+3. **Translation Clarification:**
+   The phrase emphasizes cooperation and the sharing of responsibilities. "Take a knife for me and I will cut it" suggests delegating a task, while "you also take the time" implies that both parties need to contribute their efforts and time to complete the task effectively. This underscores the Akan value of teamwork and mutual support in accomplishing objectives.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Why do you judge me as a 'kwasea'? Give me some time, and you also take your time."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse see**: "Ananse said"
+   - **Me na wo bu me 'kwasea?**: "Why do you judge me as a 'kwasea'?"
+   - **Ma me ntwitwa, na wo so fa no bere.**: "Give me some time, and you also take your time."
+2. **Cultural Context:**
+   - **Ananse**: A central figure in Akan folklore, Ananse is often depicted as a spider and embodies traits of wisdom, cunning, and trickery. Ananse stories are used to convey moral lessons and cultural values.
+   - **'Kwasea'**: This is a colloquial term in Akan that derogatorily refers to a city dweller or someone perceived as lacking traditional wisdom and cultural values. It contrasts rural or traditional lifestyles with urban, possibly more Westernized ones.
+3. **Translation Clarification:**
+   - The term **'kwasea'** is retained in its original form within the translation because it encapsulates specific cultural nuances that lack a direct English equivalent. This preserves the intended derogatory connotation and cultural significance of the term within the dialogue.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Ananse is cutting while Anene is present, and he pays."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: Refers to the trickster spider figure from Akan folklore, known for his cunning and wit.
+   - **e'twitwa**: Translates to "is cutting."
+   - **na**: Means "and."
+   - **Anene te ho**: Literally "Anene is present" or "Anene is there."
+   - **na o'pene**: Translates to "and he pays."
+2. **Cultural Context:**
+   - **Ananse** is a central character in Akan stories, embodying intelligence, resourcefulness, and sometimes deceit. These tales often convey moral lessons or explain natural phenomena.
+   - **Anene** could represent another character within the story or symbolize a specific trait or consequence related to Ananse's actions. In many Ananse stories, other characters play roles that either aid or challenge Ananse, leading to various outcomes that reflect societal values.
+3. **Translation Clarification:**
+   - The sentence likely illustrates a scenario where Ananse is undertaking an action ("cutting") with Anene observing or involved, resulting in Ananse facing the consequences ("he pays"). This reflects common themes in Ananse stories where his cleverness leads to complex situations. The translation maintains the literal meanings while conveying the implied interactions and outcomes characteristic of Akan storytelling.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"The division is complete, and now we have distributed it."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Otwitwa:** Translates to "the division" or "the cutting."
+   - **wieye:** Means "is complete" or "has finished."
+   - **na na:** Equivalent to "and now" or "therefore."
+   - **ye'kyekyereye:** Translates to "we have distributed" or "we have shared."
+2. **Cultural Context:**
+   - In Akan culture, communal activities frequently involve the division and distribution of resources, such as during harvests, festivals, or collective projects. The phrase likely refers to the completion of a communal division process, such as allocating resources or responsibilities, followed by their distribution among community members.
+3. **Translation Clarification:**
+   - While "otwitwa" directly means "the division," it contextually refers to the completion of a specific communal task or process. "Ye'kyekyereye" emphasizes the act of distributing or sharing what has been divided. Thus, the translation captures both the completion of the division and the subsequent distribution within the community.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene says, "Ananse, let me not take deceit, and you also take your time."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Anene see:** "Anene says"
+     - *Anene* refers to a person or character named Anene.
+     - *see* translates to "says."
+   - **"Ananse ma me mfa nsoa, na wo so fa no bere."**
+     - *Ananse* – Refers to the spider figure Ananse from Akan folklore, symbolizing wisdom and trickery.
+     - *ma me mfa nsoa* – "let me not take deceit" (*ma me* = "let me," *mfa* = "not take," *nsoa* = "deceit" or "twist").
+     - *na wo so fa no bere* – "and you also take your time" (*na* = "and," *wo so* = "you also," *fa* = "take," *no bere* = "your time").
+2. **Cultural Context:**
+   - **Ananse in Akan Folklore:** Ananse is a central character in many Akan stories, often portrayed as a cunning spider who uses his wits to overcome challenges. He embodies both wisdom and deceit, serving as a teacher of moral lessons.
+   - **Proverbial Message:** The statement reflects a common theme in Akan proverbs where wisdom advises against deceitful behavior. It emphasizes the value of honesty and patience, suggesting that deceit may lead to complications, while taking one's time ensures thoughtful and sincere actions.
+3. **Translation Clarification:**
+   - The phrase "mfa nsoa" is interpreted as "take deceit," capturing the essence of avoiding dishonest actions. While *nsoa* can have multiple meanings depending on context, within this proverb, it aligns with negative connotations associated with deceit.
+   - Addressing "Ananse" directly personalizes the message, possibly indicating a dialogue or a lesson directed at someone exhibiting cunning behavior. The translation maintains the imperative mood, urging both Ananse and the listener to embrace honesty and patience.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse said, "On your part, why do you call me a 'kwasea'?"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: Refers to the spider, a central figure in Akan folklore known for his wit and cunning.
+   - **see**: Translates to "said" or "says."
+   - **So' ho**: Literally means "your side" or "from your perspective."
+   - **na me na wo bu me**: Breaks down to "why do you call me."
+   - **'kwasea'**: A term meaning "deceiver" or "unfaithful person."
+2. **Cultural Context:**
+   In Akan mythology, Ananse the Spider is a renowned trickster figure who often uses his intelligence to navigate challenges and outsmart others. The term "kwasea" carries a strong negative connotation, labeling someone as deceitful or untrustworthy. This exchange highlights a common theme in Akan stories where Ananse faces criticism or mistrust from others due to his scheming nature, reflecting societal attitudes towards cunning behavior.
+3. **Translation Clarification:**
+   The phrase "So' ho" is contextually translated to "on your part" to convey the perspective from which the accusation is coming. While "kwasea" is retained in its original form to preserve its cultural significance and nuanced meaning, it is understood within the translation as a derogatory label. This approach ensures that the translation remains faithful to the original text's intent and cultural depth.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"And it has been done."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** – "And" or "Then"
+   - **Ofa** – Derived from "ofaa," meaning "to surpass" or "to overcome"
+   - **Soaye** – "Has done" or "has been done"
+   Combining these, the literal translation is "And it has been overcome" or "Then it was done."
+2. **Cultural Context:**
+   In Akan culture, expressions often carry deeper meanings related to perseverance and the completion of tasks despite challenges. The phrase "Na ofa soaye" is commonly used to signify the successful completion of an endeavor after overcoming obstacles. It embodies the cultural value of resilience and the importance of seeing tasks through to their conclusion.
+3. **Translation Clarification:**
+   While the literal translation emphasizes overcoming or completing something, the contextual meaning aligns closely with "And it has been done," capturing both the action and the successful resolution implied in the original Akan phrase. This ensures that the translation conveys not just the words but also the underlying sentiment of accomplishment.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Anene acted unfairly and made a mistake."
+---
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Anene**: A personal name.
+   - **dii**: Past tense of "to do," meaning "did" or "acted."
+   - **akyire**: Literally translates to "back" or "behind." In this context, it implies acting behind someone's back or behaving unfairly.
+   - **na**: Conjunction meaning "and."
+   - **ɔpene**: Derived from "pene," meaning "fault" or "mistake." The prefix "ɔ" denotes "he/she," making it "he/she made a mistake."
+2. **Cultural Context**
+   - In Akan culture, actions taken "akyire" (behind someone's back) are viewed negatively as they breach trust and integrity. Such behavior can lead to social discord and personal accountability for mistakes resulting from deceitful actions. The phrase underscores the importance of transparency and fairness in interpersonal relationships within the community.
+3. **Translation Clarification**
+   - While the literal components translate directly to actions involving "back" or "behind," the idiomatic meaning conveys unfair or deceitful behavior. Therefore, "acted unfairly" appropriately captures the essence of "dii akyire." Additionally, "made a mistake" succinctly translates "ɔpene," maintaining the sentence's original intent and cultural nuance in natural English.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"We have come home," Anene says, "Give me my breakfast, and you may take your time."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ye'baa 'fie:** "We have come home."
+     - *Ye'baa* = "We have come"
+     - *'fie* = "home"
+   - **Anene see:** "Anene says."
+     - *Anene* = A personal name
+     - *see* = "says" or "said"
+   - **Ma me mmeyo nsoa:** "Give me my breakfast."
+     - *Ma me* = "Give me"
+     - *mmeyo* = "breakfast" (morning meal)
+     - *nsoa* = "my"
+   - **na w'afa no bere:** "and you may take your time."
+     - *na* = "and"
+     - *w'afa* = "you may take"
+     - *no* = "it"
+     - *bere* = "time"
+2. **Cultural Context:**
+   - In Akan culture, breakfast (mmeyo) is an important meal that signifies the start of the day. Family members often gather to share the morning meal, emphasizing the value of togetherness and routine.
+   - The phrase reflects a common household dynamic where children request their meals before adults proceed with their daily activities. It underscores respect for family hierarchy and the importance of feeding one another as a sign of care.
+3. **Translation Clarification:**
+   - The term *"mmeyo"* specifically refers to the morning meal or breakfast, highlighting the time of day and the routine nature of the request.
+   - The expression *"na w'afa no bere"* conveys a polite request, where Anene is asking to be served first, allowing others the flexibility to take their time afterward. This reflects a courteous and considerate attitude within the household.
+   - The name "Anene" is preserved in the translation to maintain the personal address and context of the statement.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse says, "Never let me suffer, and you also take your time."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Dabi da**: "Never"
+     - *Dabi* means "no" or "never," and *da* can emphasize the negation.
+   - **ma me nyo**: "let me suffer"
+     - *Ma me* translates to "let me" or "allow me," and *nyo* can mean "suffering" or "hardship."
+   - **na wo so fa no bere**: "and you also take your time"
+     - *Na* means "and," *wo so* translates to "you also," *fa* means "take," *no* refers to "it," and *bere* means "time."
+2. **Cultural Context:**
+   - **Ananse** is a central figure in Akan folklore, often depicted as a wise and cunning spider. Stories featuring Ananse convey moral lessons, emphasizing values like wisdom, patience, and the importance of avoiding unnecessary suffering.
+   - The phrase reflects a common theme in Ananse tales where the character seeks to avoid hardship while encouraging others to be patient and considerate.
+3. **Translation Clarification:**
+   - While the literal words translate directly to "Never let me suffer, and you also take your time," the essence captures Ananse's plea to avoid unnecessary difficulties and to approach matters with patience. The translation aims to preserve both the literal meaning and the underlying cultural significance of the original Akan expression.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Anene always engages in battle with determination."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** – and/was
+   - **Anene** – [Proper noun, likely a personal name]
+   - **ko** – fight/battle
+   - **daa** – always
+   - **ayeya** – war/conflict
+   - **na** – and
+   - **o'pene** – he/she leads or is determined
+2. **Cultural Context:**
+   - In Akan culture, names often carry significant meanings and may reflect the characteristics or destiny of a person. The act of engaging in battle ("ko") is metaphorical, representing overcoming challenges or striving for success. Determination is a highly valued trait, symbolizing resilience and leadership within the community.
+3. **Translation Clarification:**
+   - The original Akan sentence emphasizes Anene's continual involvement in struggles or challenges, highlighting his or her persistent determination. While a word-for-word translation might not fully capture the nuanced meaning, the rendered English translation conveys the essence of unwavering commitment and leadership in facing conflicts or obstacles.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Kwasea, you say you have wisdom, but your death."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse see:** "Ananse says"
+   - **"Kwasea, wo se wo nim nyansa, na wo' wuo no."**
+     - **Kwasea:** A proper noun, referring to a person's name.
+     - **wo se:** "you say" or "you claim"
+     - **wo nim nyansa:** "you have wisdom" or "you know wisdom"
+     - **na wo' wuo no:** "but your death" or "and your death"
+2. **Cultural Context:**
+   Ananse is a prominent figure in Akan folklore, often depicted as a wise and cunning spider who embodies both wisdom and trickery. In Akan stories, Ananse frequently engages with other characters to impart moral lessons or highlight human follies. The interaction with Kwasea likely serves as a narrative device to explore themes of wisdom, pride, and mortality. Kwasea, possibly representing an individual who prides himself on his intelligence, is being reminded of the inevitable nature of death despite one's wisdom.
+3. **Translation Clarification:**
+   The original Akan sentence juxtaposes Kwasea's claim of possessing wisdom ("wo se wo nim nyansa") with the mention of his death ("na wo' wuo no"). The conjunction "na" can imply contrast or addition, suggesting that despite Kwasea's wisdom, there is an inevitable outcome—his death. The translation maintains this contrast to preserve the original intent, emphasizing that wisdom alone may not alter one's fate. Additionally, the verb "see" in Akan translates to "says" in English, indicating that Ananse is conveying a message or reproach to Kwasea.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"After Ananse had completed the ordeal, Anane said, 'Let me not take on the ordeal; I will go to the river and you will handle it during this time.'"
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Ananse:** The central character, a spider figure from Akan folklore known for his wit and cunning.
+   - **wiewe:** Finished or completed.
+   - **nsoa no:** The ordeal or hardship.
+   - **Anene see:** Anane said.
+   - **"Ma me mfa nsoa":** "Let me not take on the ordeal."
+   - **"me nko nsuom":** "I will go to the river."
+   - **"na w'afa no bere":** "And you will handle it during this time."
+2. **Cultural Context**
+   In Akan mythology, Ananse is a prominent trickster figure who often engages in various challenges and tasks (nsoa). The interaction between Ananse and Anane reflects common themes in Akan culture, such as the distribution of responsibilities and the negotiation of roles within a community or narrative. The mention of the river (nsuom) is significant, as rivers often symbolize sources of life, sustenance, and places of important decisions in many African cultures, including the Akan.
+3. **Translation Clarification**
+   - **"nsoa":** While directly translated as "ordeal" or "hardship," in this context, it refers to a specific challenging task or responsibility that Ananse has undertaken.
+   - **"nsuom":** Translates to "river," which may carry symbolic meaning beyond its literal sense, representing a place of refuge, contemplation, or essential resource.
+   - **Dialogue Nuance:** Anane's refusal to take on the ordeal and her offer to go to the river suggests a strategic delegation, highlighting themes of cooperation and clever problem-solving typical of Ananse stories.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse says, "No, I am not taking you, but you have wasted your time."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Dabi**: No
+   - **na**: and/but
+   - **me'de'ko**: I am taking you
+   - **w'afa**: you have taken/wasted
+   - **no**: the
+   - **bere**: time
+2. **Cultural Context:**
+   In Akan folklore, Ananse is a central figure known as a trickster spider who embodies both wisdom and cunning. Ananse's stories often convey moral lessons about human behavior, responsibility, and the consequences of one's actions. This particular line illustrates themes of accountability and the importance of not shirking one's duties.
+3. **Translation Clarification:**
+   While "me'de'ko" directly translates to "I am taking you," in this context, it implies rejecting responsibility or involvement. The phrase "w'afa no bere" means "you have wasted your time," suggesting that the other party has failed to utilize their time effectively. Thus, the translation captures Ananse's refusal to take on a role or task because the other person has not managed their time properly.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"We go to drink water when it arrives."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ye'ko** – "We go"
+   - **duruu** – "when it arrives"
+   - **nsuo** – "water"
+   - **nom'** – "drink"
+2. **Cultural Context:**
+   In Akan communities, access to clean water is essential and often governed by communal practices and seasonal changes. The phrase reflects the collective responsibility and routine of fetching water, which may be influenced by factors such as rainfall, water availability, and shared water sources like wells or streams. This practice underscores the importance of water in daily life and the coordinated efforts required to secure it.
+3. **Translation Clarification:**
+   While the literal translation is "We go when the water arrives to drink," it is rendered more naturally in English as "We go to drink water when it arrives." This phrasing maintains the original meaning while ensuring clarity and readability in the target language.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene says, "Father Ananse has a certain animal in the water, so grant me the strength so I don't have to fetch this animal five times, and if the animal catches me, you have taken his life."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Anene see**: Anene says
+   - **"Agya Ananse aboa bi wo nsuom'**: "Father Ananse has a certain animal in the water
+   - **na ma me nsim**: and grant me the strength
+   - **me mfa nsoa yi nnum'**: so I don't have to fetch this animal five times
+   - **na aboa no ka me a, w'afa ne wuo."**: and if the animal catches me, you have taken his life."
+2. **Cultural Context:**
+   - **Ananse**: In Akan folklore, Ananse is a spider deity known for his wisdom and cunning. He often features in proverbs and stories that convey moral lessons or explain natural phenomena.
+   - **Symbolism of the Animal in Water**: Water bodies in Akan culture are often seen as places of mystery and challenges. An animal in the water can symbolize a daunting task or an obstacle that one must overcome with courage and persistence.
+3. **Translation Clarification:**
+   - The phrase emphasizes seeking divine or paternal support (from Father Ananse) to handle persistent challenges ("fetch this animal five times"). The mention of the animal catching the speaker and the consequence ("you have taken his life") underscores the seriousness of the plea and the potential risks involved in facing the challenge without adequate strength or support.
+   - The number "five" may have symbolic significance, possibly indicating repeated attempts or enduring multiple challenges before success is achieved.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse says, "Oh! If you call me a 'good thief', I will go to the gum, and if you speak ill of me, you will die."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Ananse see,* → "Ananse says,"
+   - *"A! wo bu me 'kwasea pa,* → "Oh! If you call me a 'kwasea pa',"
+   - *me, me de'ko gum'* → "me, I will go to the gum,"
+   - *na oka me a, w'afa no wuo."* → "and if you speak ill of me, you will die."
+2. **Cultural Context:**
+   In Akan folklore, Ananse is a prominent trickster figure, often depicted as a spider, who embodies wisdom, cunning, and sometimes deceit. The term **'kwasea pa'** combines **'kwasea'** (a mischievous or cunning person) with **'pa'** (good), translating to **'good thief'** or **'lovable rogue'**. This reflects the dual nature of Ananse’s character—both clever and morally ambiguous. The mention of **'gum'** likely refers to a place of work or trade, possibly symbolizing Ananse’s domain where he engages in his cunning activities. The threat of death emphasizes the high stakes of reputation and honor within the community, highlighting the serious consequences of tarnishing someone's character.
+3. **Translation Clarification:**
+   The phrase **"de'ko gum"** translates directly to **"go to gum,"** where **'gum'** may denote a specific marketplace or area associated with commerce and interaction in Akan society. This implies that Ananse is asserting his readiness to take action or defend his reputation. The overall message conveys a warning: if someone labels Ananse a 'good thief,' he is prepared to retaliate, potentially leading to severe repercussions. This reflects common themes in Akan proverbs and stories, where reputation and social standing are paramount, and defamation can lead to significant consequences.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse takes the nsoa and goes to the market, and we went home.^1
+---
+^1 **Footnote**
+**1. Literal Translation Mapping:**
+- **Ananse**: Refers to the spider character from Akan folklore, renowned for his wisdom and trickery.
+- **de**: Takes
+- **nsoa no**: The "nsoa" (a specific item or goods; exact meaning may vary based on context)
+- **ko guum'**: To the market
+- **na**: And
+- **ye'baa**: We went
+- **'fie**: Home
+**2. Cultural Context:**
+Ananse is a central figure in Akan myths and stories, often embodying intelligence, resourcefulness, and sometimes deceit to achieve his goals. The market ("guum") is a vital hub in Akan society, serving as a place for trade, social interaction, and community engagement. This sentence likely depicts a typical day involving trade or communal activities, highlighting the interconnectedness of family or community members.
+**3. Translation Clarification:**
+The term "nsoa" may refer to specific goods, tools, or items that Ananse is transporting to the market. In Akan culture, objects brought to the market can symbolize wealth, sustenance, or resources necessary for daily life. The exact nature of "nsoa" depends on the broader narrative context, but it generally represents something valuable or essential that warrants a trip to the market.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Adeekyeye, let's hurry and carry out the task, and let's keep two minds."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Adeekyeye:** A proper noun, likely addressing a person named Adeekyeye.
+   - **ye'ko:** "we go" or "let's go."
+   - **fwee:** "quickly" or "hurry."
+   - **nsoa no:** "the task" or "the job."
+   - **na:** "and" or "then."
+   - **ayi adwene mmienu:** "keep two minds" or "maintain two thoughts."
+2. **Cultural Context:**
+   In Akan culture, the expression emphasizes the balance between swift action and thoughtful consideration. Addressing someone directly by name (Adeekyeye) signifies a personal or leadership role in guiding others. The phrase suggests that while it is important to act quickly to accomplish tasks, one should also remain mindful and considerate, possibly reflecting the communal and deliberative aspects of Akan social interactions.
+3. **Translation Clarification:**
+   The translation captures the dual emphasis on urgency and mindfulness inherent in the original Akan sentence. "Keep two minds" implies maintaining awareness or considering multiple perspectives while executing a task. This balance ensures efficiency without compromising the quality or thoughtfulness of the actions undertaken.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene sees and says, "Ananse, take these two, and tomorrow we will come to take the four, and I will also take my share."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Anene see* – Anene sees
+   - *"Ananse, wo fa mmienu yi* – "Ananse, you take these two
+   - *na okyena ye'beba na ayi nnan,* – and tomorrow we will come to take the four,
+   - *na me so m'afa."* – and I too will take my share."
+2. **Cultural Context:**
+   - **Ananse:** A prominent figure in Akan folklore, Ananse is often depicted as a spider and embodies traits of wisdom, cunning, and sometimes trickery. He plays a crucial role in many Akan stories, symbolizing intelligence and resourcefulness.
+   - **Resource Sharing:** The act of taking "two" and "four" likely refers to communal sharing of resources or goods, which is a fundamental aspect of Akan social structure. Such exchanges ensure that all members of the community have access to necessary items and maintain social harmony.
+   - **Temporal Reference:** Mentioning "tomorrow" indicates planning and cooperation among community members, reflecting the importance of foresight and collective effort in Akan culture.
+3. **Translation Clarification:**
+   - **Numerical References:** The numbers "two" and "four" are kept literal in the translation, assuming they pertain to specific items or quantities relevant to the context. Without additional context, it's interpreted as a straightforward allocation of resources.
+   - **Possessive Expression:** "I will also take my share" conveys Anene's intention to receive a portion, highlighting themes of fairness and mutual support within the community.
+   - **Dialogue Structure:** The translation maintains the direct speech format, preserving the conversational dynamics between Anene and Ananse. This approach ensures that the original intent and relational nuances are accurately conveyed.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "Ah! This servant, you consider me a 'good thief'; you take these two, and I will repay you tomorrow with my four."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse see:** "Ananse said"
+   - **"A! akoa yi:** "Ah! This servant"  
+     - *Akoa* translates to "servant" or "young man."
+   - **wo bu me 'kwasea pa;** "you consider me a 'good thief';"  
+     - *Bu me* means "you consider me."
+     - *Kwasea pa* combines *kwasea* ("thief" or "trickster") with *pa* ("good"), implying "good thief" or "skilled trickster."
+   - **wo fa mmienu yi,** "you take these two,"
+     - *Fa* means "take."
+     - *Mmienu* translates to "these two."
+   - **na me so okyena m'afa nnan no."** "and I will repay you tomorrow with my four."  
+     - *Na me so* translates to "and I will repay."
+     - *Okyena* means "tomorrow."
+     - *M'afa nnan no* translates to "with my four."
+2. **Cultural Context:**
+   - **Ananse:** A central figure in Akan folklore, Ananse is often depicted as a spider and is known for his intelligence, cunning, and trickery. He embodies the traits of a trickster, using his wits to navigate challenges and outsmart others.
+   - **Akoa (Servant):** In Akan society, the role of a servant or a young man (*akoa*) can sometimes imply someone of lower status or someone being tested for loyalty and resourcefulness.
+   - **Kwasea Pa (Good Thief):** The term reflects the nuanced view of cunning and trickery in Akan culture. Being labeled a "good thief" can imply someone who is clever and resourceful, using their skills effectively, even if they bend rules.
+3. **Translation Clarification:**
+   - The phrase "you consider me a 'good thief'" captures the essence of *kwasea pa*, indicating that the speaker acknowledges being seen as cunning or skillful, possibly in a deceptive manner.
+   - The interaction suggests a transactional relationship where Ananse is negotiating or making a promise to repay, emphasizing his reputation for cleverness. By stating he will "repay tomorrow with my four," Ananse implies he has a plan or advantage that will benefit him in the future, staying true to his trickster nature.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"The little tree is on fire."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Anene* – "little tree"
+   - *faye* – "is on fire" or "burning"
+2. **Cultural Context:**
+   In Akan culture, trees often hold significant symbolic meanings, representing life, growth, and community. A "little tree" (*anene*) can symbolize something young, new, or in its early stages. Fire (*faye*) can represent transformation, purification, or destruction. The imagery of a little tree on fire might evoke themes of change, challenges to growth, or the beginning of a transformative process.
+3. **Translation Clarification:**
+   While the literal translation is "The little tree is on fire," the phrase may carry metaphorical meanings depending on the context. It could suggest that a new project or endeavor is facing unexpected challenges, undergoing significant change, or that something delicate is being threatened. Understanding the specific context in which this phrase is used is essential for an accurate interpretation.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Adeekyeye, we are fine and everything is good."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Adeekyeye:** Likely a name or a term of address; in this context, it serves as a greeting or a way to call someone's attention.
+   - **ye'koye:** Translates to "we are doing well" or "we are fine."
+   - **na:** Means "and."
+   - **ayi nnan:** Literally "nothing is wrong" or "everything is good."
+2. **Cultural Context:**
+   - In Akan culture, greetings are not merely polite exchanges but also inquiries into the well-being of individuals and their communities. The structure of the greeting reflects a communal mindset, emphasizing collective well-being ("we are fine") rather than just individual status. Addressing someone as "Adeekyeye" may imply a level of familiarity or respect, depending on the relationship between the speakers.
+3. **Translation Clarification:**
+   - While "Adeekyeye" appears to be a proper noun or a specific term, its exact meaning might vary based on regional dialects or contextual usage. In this translation, it is treated as a form of address similar to saying "Hello" or "Greetings" to someone named Adeekyeye. The overall phrase conveys a message of collective well-being and reassurance that all is well within the group or community.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anene said, "You take this mat, and tomorrow we will come to plant yams, and I will also partake."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Anene see:** "Anene said"
+   - **"Wo fa nnan yi":** "You take this mat"
+   - **"na okyena ye'beba":** "and tomorrow we will come"
+   - **"na ayi nwotwe":** "and plant yams"
+   - **"na me so m'afa":** "and I will also partake"
+2. **Cultural Context:**
+   - **Yam Planting:** In Akan culture, yam cultivation is a significant agricultural activity, often associated with festivals like the Yam Festival (Homowo) which celebrates harvest and prophesies prosperity. Planting yams is not only an economic activity but also a cultural ritual that reinforces community bonds and traditions.
+   - **Use of Mats (Nnan):** Mats are traditional items used in various contexts, including carrying goods, seating, or ceremonial purposes. The act of handing over a mat could symbolize preparation for communal work or signify trust and responsibility.
+   - **Communication and Roles:** The dialogue reflects traditional roles where elders or community leaders (potentially represented by Anene) delegate tasks and responsibilities to younger members, ensuring the continuation of cultural practices and agricultural cycles.
+3. **Translation Clarification:**
+   - **Name/Title "Anene":** "Anene" is likely a personal name or a title within the community. Contextual understanding suggests that Anene holds a position of authority or respect, given the directive nature of the statement.
+   - **"Me so m'afa":** Translated as "I will also partake," this emphasizes collective participation, indicating that Anene is not only delegating tasks but also committing to the communal effort.
+   - **Natural English Flow:** While the literal translation provides a direct correspondence of words, the English version is phrased to maintain idiomatic and natural expression, ensuring clarity and coherence for English-speaking audiences without losing the original sentiment and cultural significance.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse said, "If you call me a 'kwasea,' take this leg, and tomorrow I will have taken a week."
+---
+1. **Literal Translation Mapping:**
+   - **Ananse see**: "Ananse says"
+   - **"Wo bu me 'kwasea**: "If you call me a 'kwasea'"
+   - **wo fa nnan yi**: "take this leg"
+   - **na me so okyena m'afa nwotwe."**: "and tomorrow I will have taken a week."
+2. **Cultural Context:**
+   - **Ananse**: A prominent figure in Akan folklore, Ananse is often depicted as a spider and is renowned as a trickster and a symbol of wisdom and storytelling.
+   - **'Kwasea'**: In Akan, 'kwasea' typically refers to a loafer or someone who is lazy and unproductive. It carries a derogatory connotation, implying a lack of respect or esteem.
+   - **Symbolism of the Leg**: Offering a leg can be symbolic of offering assistance or making a gesture of goodwill, but in the context of Ananse's trickster nature, it may carry a deeper or double meaning.
+3. **Translation Clarification:**
+   - The phrase suggests a conditional statement where Ananse responds to being called a 'kwasea' by offering a leg, which could symbolize a challenge or a bargaining gesture. The latter part, "I will have taken a week tomorrow," implies a consequence or an action that will unfold following the initial statement. Given Ananse's role as a trickster, the statement may carry a deeper metaphorical meaning beyond its literal words, possibly indicating a cunning plan or a promise of delayed action.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"We use the proper thing and remove its tail."
+---
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Adeekyeye**: "the proper thing" or "the right object."
+   - **ye'koye**: "we use it" or "it is used."
+   - **na**: "and."
+   - **ayi**: "have removed" or "removed."
+   - **nwotwe**: "tail."
+2. **Cultural Context**
+   In Akan culture, proverbs and sayings often convey deeper meanings related to societal norms, proper behavior, and practical wisdom. The act of removing the "tail" in this context is metaphorical, suggesting the elimination of unnecessary or undesirable parts to maintain the integrity and functionality of an object or practice. This reflects the cultural emphasis on efficiency, propriety, and the careful management of resources.
+3. **Translation Clarification**
+   The phrase emphasizes the importance of using things appropriately while also ensuring that any excess or non-essential parts are removed. It underscores a balance between utilization and refinement, advocating for both proper use and the improvement or purification of what is being used. This can be applied metaphorically to various aspects of life, such as personal behavior, community practices, or resource management.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Anene says, "Take it, and tomorrow I will possess the world."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Fa**: Take
+   - **na**: and
+   - **okyena**: tomorrow
+   - **me so**: with me / in my possession
+   - **m'afa**: I will have taken/possess
+   - **dunsia**: the world
+2. **Cultural Context:**
+   In Akan culture, expressions of ambition and assertiveness are common in proverbs and everyday speech. The statement reflects a confident declaration of intent to achieve significant success or dominance in the near future. Such expressions underscore the cultural value placed on determination and swift accomplishment.
+3. **Translation Clarification:**
+   While "dunsia" literally translates to "the world," in this context, it metaphorically represents one's sphere of influence or realm of control. Therefore, "possess the world" conveys a sense of attaining substantial influence or success rather than literal global domination.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse says, "You accuse me of being a manipulative person, you take the stick, and tomorrow I will have palm wine."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **"Me na wo bu me 'kwasea"** – "You accuse me of being a 'kwasea'."
+     - *Me na* – "You"
+     - *wo bu me* – "accuse me"
+     - *'kwasea* – A derogatory term meaning "manipulative person" or "deceitful individual."
+   - **"wo so fa nwotwe"** – "You also take the stick."
+     - *wo so* – "You also"
+     - *fa nwotwe* – "take the stick"
+     - *nwotwe* – "stick," symbolizing authority or punishment.
+   - **"na okyena m'afa dunsia."** – "And tomorrow I will have palm wine."
+     - *na* – "And"
+     - *okyena* – "tomorrow"
+     - *m'afa dunsia* – "I will have palm wine"
+     - *dunsia* – "palm wine," a traditional alcoholic beverage.
+2. **Cultural Context:**
+   - **Ananse:** A central figure in Akan folklore, Ananse is often portrayed as a spider or trickster known for his wit and cunning. He embodies intelligence and the ability to outsmart others, reflecting both admiration and caution in cultural narratives.
+   - **'Kwasea':** This term is a derogatory label used within Akan society to describe someone who is perceived as deceitful or manipulative. Being called a 'kwasea' carries negative connotations, affecting one's social standing.
+   - **Nwotwe (Stick):** In Akan culture, a stick can symbolize authority, discipline, or punishment. Taking the stick suggests exerting control or meting out punishment.
+   - **Dunsia (Palm Wine):** Palm wine holds significant social value in many African cultures, including the Akan. It is often associated with hospitality, celebrations, and communal gatherings, serving as a medium for social bonding.
+3. **Translation Clarification:**
+   - The sentence captures a dialogue where Ananse responds to accusations of deceitfulness ('kwasea'). By mentioning the "stick," Ananse acknowledges the authority or punishment being imposed. The reference to having "palm wine" the next day implies resilience or a plan to relax and enjoy despite the current conflict. This interplay highlights themes of reputation, authority, and social rituals inherent in Akan society.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+"Then the spider became angry, and Anene instructed Ananse, saying, 'Go take the bundle and come back. If you fail, without hesitation, your father Ananse will agree with this plan and take the bundle for me.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Efei na nsoa no asee,** → "Then the spider became angry,"
+   - **na Anene ka kyeree Ananse se,** → "and Anene instructed Ananse, saying,"
+   - **'Ko fa nsoa funu bra,** → "'Go take the bundle and come,"
+   - **na wo ton a, bafua bi'a, ntanu,** → "and if you fail, without hesitation,"
+   - **nti wo Agya Ananse gye adwene yi na fa nsoa funu yi ma me.'** → "so your father Ananse will agree with this plan and take the bundle for me.'"
+2. **Cultural Context:**
+   - **Ananse** is a prominent figure in Akan folklore, often depicted as a clever and resourceful spider. He is known for his stories that convey moral lessons and cultural values.
+   - The term **"nsoa funu" (bundle)** typically refers to a collection of items or tasks that Ananse is being asked to retrieve or manage. Bundles are symbolic in many African cultures, representing unity, responsibility, and the gathering of resources.
+   - **Anene** may represent a community leader or a figure of authority within the narrative, providing instructions to Ananse that reflect societal expectations and norms.
+3. **Translation Clarification:**
+   - **"Nsoa funu"** is translated as **"bundle,"** which in this context signifies a specific task or collection Ananse needs to handle. While the literal words mean a bundled collection, the intended meaning relates to a responsibility or mission assigned to Ananse.
+   - The phrase **"gye adwene"** translates to **"agree with this plan,"** indicating approval or acceptance of the proposed idea by Ananse's father, reinforcing familial authority and decision-making.
+   - **"Bafua bi'a, ntanu,"** translated as **"without hesitation,"** emphasizes the consequence of failure and the expectation of prompt and reliable action from Ananse.</t>
+  </si>
+  <si>
+    <t>**English Translation:**
+Ananse said, "No, you take charge of the thinking, and I will also take responsibility for handling this difficult matter."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse see**: Ananse said
+   - **Dabi**: No
+   - **wo ko ton adwene no fa**: you go take over the thinking
+   - **na me so**: and I also
+   - **me'ko ton nsoa funu yi m'afa**: I will go take responsibility for managing this difficult matter
+2. **Cultural Context:**
+   Ananse is a central figure in Akan folklore, often depicted as a clever spider who embodies wisdom, trickery, and problem-solving abilities. In this context, Ananse is engaging in a dialogue that reflects collaborative effort and delegation of responsibilities, a common theme in Akan stories that emphasize community and teamwork.
+3. **Translation Clarification:**
+   - **"wo ko ton adwene no fa"**: The phrase emphasizes delegating the intellectual or decision-making aspect to someone else.
+   - **"me'ko ton nsoa funu yi m'afa"**: This part signifies taking on the practical or challenging tasks involved in a situation.
+   The translation aims to preserve the original intent of cooperative responsibility, where one party handles the conceptual planning while the other manages the execution of complex tasks.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"We are concealing our struggle among the people."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ye** = "We"
+   - **'soasoaye** = "are concealing our struggle"  
+     - *'soasoaye* breaks down into *soaso* ("struggle" or "battle") and *aye* ("to conceal" or "hide").
+   - **koo** = "battle" or "struggle"
+   - **edwam'** = "among the people" or "in the community"
+   Combining these, the sentence directly translates to "We conceal our struggle among the people."
+2. **Cultural Context:**
+   In Akan culture, maintaining harmony and social cohesion within the community is highly valued. Openly displaying personal or collective struggles can be seen as disruptive or may invite judgment. Therefore, the act of concealing struggles is often practiced to preserve face, uphold community solidarity, and avoid unnecessary conflict or pity.
+3. **Translation Clarification:**
+   While the literal translation is "We are concealing our struggle among the people," the intended meaning emphasizes the deliberate effort to keep internal conflicts or challenges private within the community. This reflects a broader cultural emphasis on discretion and the importance of not burdening others with personal or communal hardships.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Now Anene has completed all the chores at home; she has obtained a lot of money."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Seisei** – "Now" or "currently"
+   - **na** – Conjunction meaning "and" or "but"
+   - **Anene** – A proper name, likely referring to a person
+   - **die** – "House" or "home"
+   - **nnyina** – "All" or "every"
+   - **asa** – "Work" or "chores"
+   - **onyaa** – "Has obtained" or "received"
+   - **sika** – "Money"
+   - **bebre** – "A lot" or "much"
+   Combined literally: "Now and Anene house all chores; has obtained money much."
+2. **Cultural Context:**
+   In Akan culture, managing household chores efficiently is highly valued and often associated with personal responsibility and diligence. The name "Anene" is a common female name in Akan communities, symbolizing leadership and respect. Obtaining "sika bebre" (a lot of money) signifies financial success and prosperity, which are esteemed achievements within the culture. This sentence may reflect a common societal observation where a responsible individual is rewarded with financial gains.
+3. **Translation Clarification:**
+   While the literal translation provides a word-for-word understanding, the intended meaning emphasizes that Anene has successfully managed all household responsibilities and, as a result, has achieved significant financial success. The translation ensures that the fluidity and intended message are preserved in English, conveying both the accomplishment in domestic management and the resultant wealth.</t>
+  </si>
+  <si>
+    <t>**Translation:**  
+"And Ananse remains."
+**Footnote:**
+1. **Literal Translation Mapping**
+   - **Na:** "And"  
+   - **aka:** "remains" or "is left"  
+   - **Ananse:** Refers to the spider-trickster figure in Akan folklore  
+2. **Cultural Context**  
+   Ananse is a central character in Akan mythology, often depicted as a clever and resourceful spider. He embodies wisdom, storytelling, and sometimes deceit, playing a pivotal role in teaching moral lessons and preserving cultural narratives. Ananse stories are integral to the social and cultural fabric of the Akan people, illustrating themes of intelligence overcoming strength and the importance of wit.
+3. **Translation Clarification**  
+   While the phrase "And Ananse remains" is a direct translation, it carries deeper significance within Akan culture. It implies the enduring presence and influence of Ananse's cunning and wisdom in various aspects of life. This could reflect the idea that traditional values and stories continue to shape and guide the community.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"Anene told his niece, 'Take this basket and go behind, and we will do it.'"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na** = And/then
+   - **Anene** = (Proper name)
+   - **ka kyeree no se** = told his niece that
+   - **Fa** = Take
+   - **nsoa funu yi** = this basket
+   - **ko** = go
+   - **kyin** = behind
+   - **na ye'beto** = and we will do it
+2. **Cultural Context:**
+   In Akan culture, baskets (*funu*) are essential household items used for carrying goods, indicating daily tasks and responsibilities. Delegating tasks within the family is a common practice, reflecting the communal and cooperative nature of Akan family structures. The instruction to "go behind" likely refers to a specific location within or outside the household where a particular task needs to be accomplished, emphasizing trust and collaboration between family members.
+3. **Translation Clarification:**
+   While the literal translation conveys a straightforward directive, the underlying meaning highlights the coordination and trust within the family. "Go behind" may imply performing a task discreetly or handling responsibilities without direct supervision. The phrase encapsulates the essence of familial cooperation, where roles are assigned to ensure household efficiency and harmony.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Ananse stood up and said, "I have carried a heavy load!"
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Ananse**: Refers to the spider character Ananse from Akan folklore, symbolizing wisdom and trickery.
+   - **maa so**: "stood up" or "raised up."
+   - **osee**: "he said."
+   - **"Me ton nsoa funu o!"**: 
+     - **Me**: "I"
+     - **ton**: "carry" or "bear."
+     - **nsoa**: "load" or "burden."
+     - **funu**: "heavy."
+     - **o!**: An exclamatory particle, adding emphasis.
+2. **Cultural Context:**
+   Ananse is a central figure in Akan folklore, often portrayed as a spider who embodies intelligence, cunning, and resourcefulness. Stories involving Ananse typically convey moral lessons or cultural values. In this context, Ananse declaring that he has "carried a heavy load" may imply his readiness to take on challenges or his experience in handling burdens, reflecting themes of responsibility and resilience.
+3. **Translation Clarification:**
+   The translated sentence aims to capture both the literal meaning and the underlying cultural significance. While "I have carried a heavy load!" directly reflects the words used in Akan, it also conveys Ananse's acknowledgment of responsibility or the challenges he faces, which is consistent with his role in folklore. The exclamation mark emphasizes the importance or seriousness of his statement.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Then the servant sat down and said, "Where is this soldier from? Aren't you going to call him to take care of the children?" Ananse cried.
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Na* – Then
+   - *odekuro* – servant/assistant
+   - *teye* – sat down
+   - *na osee* – and he said
+   - *Akoa yi* – this soldier
+   - *firi he* – from where
+   - *mo* – you all
+   - *nko fre no* – don't go call him
+   - *mma no* – the children
+   - *mmera* – to take care of
+   - *Ananse koye* – Ananse cried
+2. **Cultural Context:**
+   - **Ananse:** A central figure in Akan folklore, Ananse is a spider known for his wit and trickery. His presence often signifies a moral lesson or the unfolding of a clever plan.
+   - **Servant's Role:** In traditional Akan society, servants played crucial roles in households, not just in labor but also in communication between different members of the family or community.
+   - **Soldier Reference:** The mention of a soldier can reflect historical contexts where soldiers were either protectors or outsiders affecting the household dynamics.
+3. **Translation Clarification:**
+   - The term *"odekuro"* is translated as "servant" or "assistant" to convey the role within the household, as direct translations may not fully capture the nuanced position in Akan society.
+   - *"Mmera"* is interpreted as "to take care of" the children, considering the context implies assigning responsibility rather than a direct time reference.
+   - The emotional response *"Ananse cried"* is maintained to preserve the original sentiment, highlighting Ananse's emotional involvement in the situation.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Odekuro said, "Do you believe that if we are causing trouble in your town, and your neighbors have this mindset, you have not seen or heard of it affecting us?"
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Odekuro see** – "Odekuro said"
+   - **Wo gye di se** – "Do you believe that"
+   - **yen a ye'wo kurom' ha ye'ye nkwasea;** – "we are causing trouble in your town;"
+   - **na wo yonko beton adwene yi,** – "and your neighbors have this mindset,"
+   - **w'anhu, na w'abe-ton nsoa funu ama yen?** – "you have not seen or heard of it affecting us?"
+2. **Cultural Context:**
+   In Akan society, community harmony and collective well-being are highly valued. The statement by Odekuro underscores the interconnectedness of individuals within a community, suggesting that the actions or attitudes of some can have broader implications for others. It reflects concerns about social responsibility and the impact of negative behavior on communal relationships and reputation.
+3. **Translation Clarification:**
+   - **"nkwasea"** is translated as "causing trouble" or "mischief," indicating disruptive behavior that affects the community.
+   - **"beton adwene"** refers to having a particular mindset or attitude, which in this context implies a negative or problematic way of thinking.
+   - The phrase **"w'anhu, na w'abe-ton nsoa funu ama yen?"** combines notions of not having seen ("w'anhu") and not having heard ("w'abe-ton") about the effects or consequences ("nsoa funu") on "us" ("ama yen"), emphasizing disbelief or skepticism regarding the lack of observable impact.
+   The translation aims to convey both the literal meaning and the underlying concern about communal impact, maintaining the original tone of questioning skepticism about the consequences of collective behavior.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Odekuro said, "Don't do it."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Odekuro**: A proper noun, likely the name of a person.
+   - **see**: Translates to "said."
+   - **"Mo mmo' no."**:
+     - **Mo**: Plural form of "you," addressing multiple people.
+     - **mmɔ'**: A negative imperative form of the verb "mmɔ," which means "to do" or "to make."
+     - **no**: Object marker, often translated as "it."
+   **Word-by-Word Breakdown:**
+   - "Odekuro" → "Odekuro"
+   - "see" → "said"
+   - "Mo" → "You (plural)"
+   - "mmɔ'" → "do not"
+   - "no" → "it"
+2. **Cultural Context:**
+   In Akan culture, proverbs and direct statements often carry deeper meanings or are used to impart wisdom. A statement like "Mo mmɔ no" could be advising against a specific action that is culturally significant, possibly relating to community harmony, traditional practices, or moral conduct. The use of a respected individual's name, such as Odekuro, adds authority to the message, emphasizing its importance within the community.
+3. **Translation Clarification:**
+   While the literal translation is "Don't do it," it's essential to understand that in the cultural context, this phrase might be addressing a particular behavior or action that is deemed inappropriate or harmful. The translation captures the direct command, but the underlying intent is to guide or correct behavior in alignment with cultural values and societal expectations.</t>
+  </si>
+  <si>
+    <t>**English Translation:**  
+"And we have cut it."
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - **Na:** "And" or "Then"
+   - **ye':** "we"
+   - **fwee:** "cut"
+   - **no:** "it/the"
+2. **Cultural Context:**
+   - In Akan culture, the act of cutting ("fwee") can extend beyond the literal meaning of severing something physically. It often metaphorically represents ending relationships, discontinuing practices, or severing ties with individuals or groups. The phrase can carry significant weight depending on the context, reflecting decisions that have social or emotional implications.
+3. **Translation Clarification:**
+   - While the direct translation is "And we have cut it," the intended meaning may vary based on the surrounding context. It could signify the termination of a relationship, stopping a particular activity, or ending support for something. Understanding the specific scenario in which the phrase is used is essential for an accurate interpretation beyond the literal words.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+Anane says, "Ananse sees that you have become blind; you claim to prefer cunningness, and it has worked; you realize that you are the one being cunning."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *Na Anene see* — "And Anane says"
+   - *Ananse w'ahu* — "Ananse has seen you"
+   - *w'ani awu* — "your eyes have died" (figuratively, "you have become blind")
+   - *wo se wo'pe 'kwasea ne no aye adwuma* — "you say you prefer cunningness, and it has done work"
+   - *w'ahu se wo'a na wo ye 'kwasea* — "you see that it is you who are doing cunningness"
+2. **Cultural Context:**
+   - **Ananse:** In Akan folklore, Ananse is a trickster spider god known for his wit and cunning. He often uses his intelligence to overcome challenges and teach moral lessons.
+   - **'Kwasea':** This term refers to cunningness or trickery. In the cultural narrative, it often highlights the use of cleverness to achieve one's goals, sometimes ethically ambiguous.
+   - The dialogue reflects a common theme in Ananse stories where characters grapple with their reliance on cunning versus wisdom or honesty.
+3. **Translation Clarification:**
+   - The phrase *w'ani awu* literally translates to "your eyes have died," which metaphorically means losing insight or becoming blind to certain truths.
+   - *'Kwasea* is nuanced; while it denotes cunningness, it doesn't always carry a negative connotation and can imply resourcefulness depending on the context.
+   - The overall message emphasizes self-awareness and the consequences of relying solely on cunning, suggesting that one might become blind to other essential virtues or truths.</t>
+  </si>
+  <si>
+    <t>**Translation:**
+"The story I am telling, whether it is good or not, neither take some nor leave some."
+---
+**Footnote:**
+1. **Literal Translation Mapping:**
+   - *M'anansesem a metooye yi*: "The story I am telling this."
+   - *se eye de o, se ennye de o*: "whether it is good or not."
+   - *momfa bi nko, na momfa bi mmera*: "do not take some, nor leave some."
+2. **Cultural Context:**
+   In Akan culture, storytelling is a vital medium for imparting wisdom, moral lessons, and cultural values. The statement underscores the importance of engaging with narratives in their entirety, ensuring that listeners fully comprehend and internalize the messages conveyed without selective interpretation or dismissal.
+3. **Translation Clarification:**
+   The phrase "momfa bi nko, na momfa bi mmera" emphasizes a call for complete acceptance and understanding of the story being shared. It advises against cherry-picking parts of the narrative or ignoring segments, advocating for a holistic approach to listening and learning from the tale.</t>
   </si>
 </sst>
 </file>
@@ -2850,4 +6434,1784 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>